--- a/output/ScriptResults/Database_Thresholds.xlsx
+++ b/output/ScriptResults/Database_Thresholds.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
   <si>
     <t>ThresholdID</t>
   </si>
@@ -876,6 +876,12 @@
   </si>
   <si>
     <t xml:space="preserve">Calculated Total Nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndicatorQuantiles.R, Git Commit ID: db49f0f869e1f5a8558dc746458075a467cf2c41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database_Thresholds_details.xlsx, Git Commit ID: 17b6a0f858dccbb28fc8ab3fe179e7fa731e5996</t>
   </si>
 </sst>
 </file>
@@ -897,8 +903,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
       <b/>
       <i/>
     </font>
@@ -906,24 +910,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
       <b/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
       <i/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1473,7 +1471,7 @@
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X4" s="5" t="n">
         <v>45299</v>
@@ -1536,7 +1534,7 @@
       </c>
       <c r="V5"/>
       <c r="W5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X5" s="5" t="n">
         <v>45299</v>
@@ -1597,7 +1595,7 @@
       </c>
       <c r="V6"/>
       <c r="W6" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X6" s="5" t="n">
         <v>45299</v>
@@ -1656,7 +1654,7 @@
       </c>
       <c r="V7"/>
       <c r="W7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X7" s="5" t="n">
         <v>45299</v>
@@ -1707,7 +1705,7 @@
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X8" s="5" t="n">
         <v>45299</v>
@@ -1768,7 +1766,7 @@
       </c>
       <c r="V9"/>
       <c r="W9" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X9" s="5" t="n">
         <v>45299</v>
@@ -1827,7 +1825,7 @@
       </c>
       <c r="V10"/>
       <c r="W10" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X10" s="5" t="n">
         <v>45299</v>
@@ -1886,7 +1884,7 @@
       </c>
       <c r="V11"/>
       <c r="W11" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X11" s="5" t="n">
         <v>45299</v>
@@ -1947,7 +1945,7 @@
       </c>
       <c r="V12"/>
       <c r="W12" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X12" s="5" t="n">
         <v>45299</v>
@@ -2004,7 +2002,7 @@
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X13" s="5" t="n">
         <v>45299</v>
@@ -2063,7 +2061,7 @@
       </c>
       <c r="V14"/>
       <c r="W14" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X14" s="5" t="n">
         <v>45299</v>
@@ -2124,7 +2122,7 @@
       </c>
       <c r="V15"/>
       <c r="W15" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X15" s="5" t="n">
         <v>45299</v>
@@ -2185,7 +2183,7 @@
       </c>
       <c r="V16"/>
       <c r="W16" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X16" s="5" t="n">
         <v>45299</v>
@@ -2246,7 +2244,7 @@
       </c>
       <c r="V17"/>
       <c r="W17" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X17" s="5" t="n">
         <v>45299</v>
@@ -2307,7 +2305,7 @@
       </c>
       <c r="V18"/>
       <c r="W18" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X18" s="5" t="n">
         <v>45299</v>
@@ -2370,7 +2368,7 @@
       </c>
       <c r="V19"/>
       <c r="W19" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X19" s="5" t="n">
         <v>45299</v>
@@ -2429,7 +2427,7 @@
       </c>
       <c r="V20"/>
       <c r="W20" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X20" s="5" t="n">
         <v>45299</v>
@@ -2480,7 +2478,7 @@
       <c r="U21"/>
       <c r="V21"/>
       <c r="W21" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X21" s="5" t="n">
         <v>45299</v>
@@ -2537,7 +2535,7 @@
       </c>
       <c r="V22"/>
       <c r="W22" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X22" s="5" t="n">
         <v>45299</v>
@@ -2600,7 +2598,7 @@
       </c>
       <c r="V23"/>
       <c r="W23" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X23" s="5" t="n">
         <v>45299</v>
@@ -2665,7 +2663,7 @@
       </c>
       <c r="V24"/>
       <c r="W24" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X24" s="5" t="n">
         <v>45299</v>
@@ -2730,7 +2728,7 @@
       </c>
       <c r="V25"/>
       <c r="W25" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X25" s="5" t="n">
         <v>45299</v>
@@ -2795,7 +2793,7 @@
       </c>
       <c r="V26"/>
       <c r="W26" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X26" s="5" t="n">
         <v>45299</v>
@@ -2860,7 +2858,7 @@
       </c>
       <c r="V27"/>
       <c r="W27" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X27" s="5" t="n">
         <v>45299</v>
@@ -2923,7 +2921,7 @@
       </c>
       <c r="V28"/>
       <c r="W28" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X28" s="5" t="n">
         <v>45299</v>
@@ -2984,11 +2982,11 @@
         <v>45299</v>
       </c>
       <c r="U29" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V29"/>
       <c r="W29" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X29" s="5" t="n">
         <v>45299</v>
@@ -3053,7 +3051,7 @@
       </c>
       <c r="V30"/>
       <c r="W30" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X30" s="5" t="n">
         <v>45299</v>
@@ -3118,7 +3116,7 @@
       </c>
       <c r="V31"/>
       <c r="W31" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X31" s="5" t="n">
         <v>45299</v>
@@ -3183,7 +3181,7 @@
       </c>
       <c r="V32"/>
       <c r="W32" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X32" s="5" t="n">
         <v>45299</v>
@@ -3246,7 +3244,7 @@
       </c>
       <c r="V33"/>
       <c r="W33" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X33" s="5" t="n">
         <v>45299</v>
@@ -3311,7 +3309,7 @@
       </c>
       <c r="V34"/>
       <c r="W34" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X34" s="5" t="n">
         <v>45299</v>
@@ -3376,7 +3374,7 @@
       </c>
       <c r="V35"/>
       <c r="W35" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X35" s="5" t="n">
         <v>45299</v>
@@ -3441,7 +3439,7 @@
       </c>
       <c r="V36"/>
       <c r="W36" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X36" s="5" t="n">
         <v>45299</v>
@@ -3506,7 +3504,7 @@
       </c>
       <c r="V37"/>
       <c r="W37" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X37" s="5" t="n">
         <v>45299</v>
@@ -3567,7 +3565,7 @@
       </c>
       <c r="V38"/>
       <c r="W38" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X38" s="5" t="n">
         <v>45299</v>
@@ -3628,7 +3626,7 @@
       </c>
       <c r="V39"/>
       <c r="W39" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X39" s="5" t="n">
         <v>45299</v>
@@ -3689,7 +3687,7 @@
       </c>
       <c r="V40"/>
       <c r="W40" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X40" s="5" t="n">
         <v>45299</v>
@@ -3748,11 +3746,11 @@
         <v>45299</v>
       </c>
       <c r="U41" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V41"/>
       <c r="W41" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X41" s="5" t="n">
         <v>45299</v>
@@ -3811,7 +3809,7 @@
       </c>
       <c r="V42"/>
       <c r="W42" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X42" s="5" t="n">
         <v>45299</v>
@@ -3870,7 +3868,7 @@
       </c>
       <c r="V43"/>
       <c r="W43" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X43" s="5" t="n">
         <v>45299</v>
@@ -3933,7 +3931,7 @@
       </c>
       <c r="V44"/>
       <c r="W44" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X44" s="5" t="n">
         <v>45299</v>
@@ -3996,7 +3994,7 @@
       </c>
       <c r="V45"/>
       <c r="W45" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X45" s="5" t="n">
         <v>45299</v>
@@ -4047,7 +4045,7 @@
       <c r="U46"/>
       <c r="V46"/>
       <c r="W46" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X46" s="5" t="n">
         <v>45299</v>
@@ -4108,7 +4106,7 @@
       </c>
       <c r="V47"/>
       <c r="W47" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X47" s="5" t="n">
         <v>45299</v>
@@ -4171,7 +4169,7 @@
       </c>
       <c r="V48"/>
       <c r="W48" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X48" s="5" t="n">
         <v>45299</v>
@@ -4230,7 +4228,7 @@
       </c>
       <c r="V49"/>
       <c r="W49" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X49" s="5" t="n">
         <v>45299</v>
@@ -4287,7 +4285,7 @@
         <v>283</v>
       </c>
       <c r="W50" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X50" s="5" t="n">
         <v>45299</v>
@@ -4350,7 +4348,7 @@
       </c>
       <c r="V51"/>
       <c r="W51" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X51" s="5" t="n">
         <v>45299</v>
@@ -4415,7 +4413,7 @@
         <v>283</v>
       </c>
       <c r="W52" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X52" s="5" t="n">
         <v>45299</v>
@@ -4474,7 +4472,7 @@
       </c>
       <c r="V53"/>
       <c r="W53" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X53" s="5" t="n">
         <v>45299</v>
@@ -4531,7 +4529,7 @@
       </c>
       <c r="V54"/>
       <c r="W54" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X54" s="5" t="n">
         <v>45299</v>
@@ -4592,7 +4590,7 @@
       </c>
       <c r="V55"/>
       <c r="W55" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X55" s="5" t="n">
         <v>45299</v>
@@ -4643,7 +4641,7 @@
       <c r="U56"/>
       <c r="V56"/>
       <c r="W56" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X56" s="5" t="n">
         <v>45299</v>
@@ -4706,7 +4704,7 @@
       </c>
       <c r="V57"/>
       <c r="W57" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X57" s="5" t="n">
         <v>45299</v>
@@ -4757,7 +4755,7 @@
       <c r="U58"/>
       <c r="V58"/>
       <c r="W58" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X58" s="5" t="n">
         <v>45299</v>
@@ -4814,7 +4812,7 @@
       </c>
       <c r="V59"/>
       <c r="W59" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X59" s="5" t="n">
         <v>45299</v>
@@ -4865,7 +4863,7 @@
       <c r="U60"/>
       <c r="V60"/>
       <c r="W60" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X60" s="5" t="n">
         <v>45299</v>
@@ -4916,7 +4914,7 @@
       <c r="U61"/>
       <c r="V61"/>
       <c r="W61" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X61" s="5" t="n">
         <v>45299</v>
@@ -4971,11 +4969,11 @@
         <v>45299</v>
       </c>
       <c r="U62" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V62"/>
       <c r="W62" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X62" s="5" t="n">
         <v>45299</v>
@@ -5030,11 +5028,11 @@
         <v>45299</v>
       </c>
       <c r="U63" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V63"/>
       <c r="W63" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X63" s="5" t="n">
         <v>45299</v>
@@ -5093,7 +5091,7 @@
       </c>
       <c r="V64"/>
       <c r="W64" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X64" s="5" t="n">
         <v>45299</v>
@@ -5152,7 +5150,7 @@
       </c>
       <c r="V65"/>
       <c r="W65" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X65" s="5" t="n">
         <v>45299</v>
@@ -5211,7 +5209,7 @@
       </c>
       <c r="V66"/>
       <c r="W66" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X66" s="5" t="n">
         <v>45299</v>
@@ -5266,7 +5264,7 @@
       </c>
       <c r="V67"/>
       <c r="W67" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X67" s="5" t="n">
         <v>45299</v>
@@ -5325,7 +5323,7 @@
       </c>
       <c r="V68"/>
       <c r="W68" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X68" s="5" t="n">
         <v>45299</v>
@@ -5384,7 +5382,7 @@
       </c>
       <c r="V69"/>
       <c r="W69" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X69" s="5" t="n">
         <v>45299</v>
@@ -5443,7 +5441,7 @@
       </c>
       <c r="V70"/>
       <c r="W70" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X70" s="5" t="n">
         <v>45299</v>
@@ -5504,7 +5502,7 @@
         <v>284</v>
       </c>
       <c r="W71" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X71" s="5" t="n">
         <v>45299</v>
@@ -5563,7 +5561,7 @@
       </c>
       <c r="V72"/>
       <c r="W72" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X72" s="5" t="n">
         <v>45299</v>
@@ -5622,7 +5620,7 @@
       </c>
       <c r="V73"/>
       <c r="W73" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X73" s="5" t="n">
         <v>45299</v>
@@ -5681,7 +5679,7 @@
       </c>
       <c r="V74"/>
       <c r="W74" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X74" s="5" t="n">
         <v>45299</v>
@@ -5740,7 +5738,7 @@
       </c>
       <c r="V75"/>
       <c r="W75" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X75" s="5" t="n">
         <v>45299</v>
@@ -5789,7 +5787,7 @@
       <c r="U76"/>
       <c r="V76"/>
       <c r="W76" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X76" s="5" t="n">
         <v>45299</v>
@@ -5848,7 +5846,7 @@
       </c>
       <c r="V77"/>
       <c r="W77" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X77" s="5" t="n">
         <v>45299</v>
@@ -5911,11 +5909,11 @@
         <v>45299</v>
       </c>
       <c r="U78" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="V78"/>
       <c r="W78" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X78" s="5" t="n">
         <v>45299</v>
@@ -5974,7 +5972,7 @@
       </c>
       <c r="V79"/>
       <c r="W79" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X79" s="5" t="n">
         <v>45299</v>
@@ -6037,7 +6035,7 @@
       </c>
       <c r="V80"/>
       <c r="W80" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X80" s="5" t="n">
         <v>45299</v>
@@ -6096,7 +6094,7 @@
       </c>
       <c r="V81"/>
       <c r="W81" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X81" s="5" t="n">
         <v>45299</v>
@@ -6159,7 +6157,7 @@
       </c>
       <c r="V82"/>
       <c r="W82" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X82" s="5" t="n">
         <v>45299</v>
@@ -6222,7 +6220,7 @@
       </c>
       <c r="V83"/>
       <c r="W83" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X83" s="5" t="n">
         <v>45299</v>
@@ -6285,7 +6283,7 @@
       </c>
       <c r="V84"/>
       <c r="W84" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X84" s="5" t="n">
         <v>45299</v>
@@ -6348,7 +6346,7 @@
       </c>
       <c r="V85"/>
       <c r="W85" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X85" s="5" t="n">
         <v>45299</v>
@@ -6411,7 +6409,7 @@
       </c>
       <c r="V86"/>
       <c r="W86" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X86" s="5" t="n">
         <v>45299</v>
@@ -6476,7 +6474,7 @@
       </c>
       <c r="V87"/>
       <c r="W87" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X87" s="5" t="n">
         <v>45299</v>
@@ -6541,7 +6539,7 @@
       </c>
       <c r="V88"/>
       <c r="W88" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X88" s="5" t="n">
         <v>45299</v>
@@ -6604,7 +6602,7 @@
       </c>
       <c r="V89"/>
       <c r="W89" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X89" s="5" t="n">
         <v>45299</v>
@@ -6667,7 +6665,7 @@
       </c>
       <c r="V90"/>
       <c r="W90" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X90" s="5" t="n">
         <v>45299</v>
@@ -6730,7 +6728,7 @@
       </c>
       <c r="V91"/>
       <c r="W91" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X91" s="5" t="n">
         <v>45299</v>
@@ -6793,7 +6791,7 @@
       </c>
       <c r="V92"/>
       <c r="W92" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="X92" s="5" t="n">
         <v>45299</v>

--- a/output/ScriptResults/Database_Thresholds.xlsx
+++ b/output/ScriptResults/Database_Thresholds.xlsx
@@ -11,7 +11,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Thresholds in Database'!$A$3:$Q$92</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,364 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+  <si>
+    <t>ThresholdID</t>
+  </si>
+  <si>
+    <t>ParameterID</t>
+  </si>
+  <si>
+    <t>Habitat</t>
+  </si>
+  <si>
+    <t>IndicatorID</t>
+  </si>
+  <si>
+    <t>IndicatorName</t>
+  </si>
+  <si>
+    <t>CombinedTable</t>
+  </si>
+  <si>
+    <t>ParameterName</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>LowThreshold</t>
+  </si>
+  <si>
+    <t>HighThreshold</t>
+  </si>
+  <si>
+    <t>QuadSize_m2</t>
+  </si>
+  <si>
+    <t>ExpectedValues</t>
+  </si>
+  <si>
+    <t>Conversions</t>
+  </si>
+  <si>
+    <t>LowQuantile</t>
+  </si>
+  <si>
+    <t>HighQuantile</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>isSpeciesSpecific</t>
+  </si>
+  <si>
+    <t>Water Column</t>
+  </si>
+  <si>
+    <t>Water Quality</t>
+  </si>
+  <si>
+    <t>Continuous WQ</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>Discrete WQ</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>ppt</t>
+  </si>
+  <si>
+    <t>1 ppt = 1 PSU</t>
+  </si>
+  <si>
+    <t>Water Temperature</t>
+  </si>
+  <si>
+    <t>Degrees C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen Saturation</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Specific Conductivity</t>
+  </si>
+  <si>
+    <t>mS/cm</t>
+  </si>
+  <si>
+    <t>1 mS/cm = 1,000 µmhos/cm</t>
+  </si>
+  <si>
+    <t>Water Clarity</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>Total Suspended Solids, TSS</t>
+  </si>
+  <si>
+    <t>Chlorophyll a uncorrected for pheophytin</t>
+  </si>
+  <si>
+    <t>ug/L</t>
+  </si>
+  <si>
+    <t>Chlorophyll a corrected for pheophytin</t>
+  </si>
+  <si>
+    <t>Secchi Depth</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>VOB, 999, &gt;B</t>
+  </si>
+  <si>
+    <t>VOB, 999, &gt;B = "visible on bottom"</t>
+  </si>
+  <si>
+    <t>Light Extinction Coefficient</t>
+  </si>
+  <si>
+    <t>m^-1</t>
+  </si>
+  <si>
+    <t>Colored dissolved organic matter, CDOM</t>
+  </si>
+  <si>
+    <t>PCU</t>
+  </si>
+  <si>
+    <t>Fluorescent dissolved organic matter, FDOM</t>
+  </si>
+  <si>
+    <t>QSE</t>
+  </si>
+  <si>
+    <t>Nutrients</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Total Kjeldahl Nitrogen TKN</t>
+  </si>
+  <si>
+    <t>NO2+3 Filtered</t>
+  </si>
+  <si>
+    <t>NH4 Filtered</t>
+  </si>
+  <si>
+    <t>Total Phosphorus</t>
+  </si>
+  <si>
+    <t>PO4 Filtered</t>
+  </si>
+  <si>
+    <t>Submerged Aquatic Vegetation</t>
+  </si>
+  <si>
+    <t>Percent Cover</t>
+  </si>
+  <si>
+    <t>SAV</t>
+  </si>
+  <si>
+    <t>Braun Blanquet Score</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>0,0.1,0.5,1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>Modified Braun Blanquet Score</t>
+  </si>
+  <si>
+    <t>n = 0.1; t = 0.5</t>
+  </si>
+  <si>
+    <t>0 to 100 (inclusive)</t>
+  </si>
+  <si>
+    <t>Acreage</t>
+  </si>
+  <si>
+    <t>Hectares</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>Oyster/Oyster Reef</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Oyster</t>
+  </si>
+  <si>
+    <t>#/m2</t>
+  </si>
+  <si>
+    <t>Percent Live</t>
+  </si>
+  <si>
+    <t>Size Class</t>
+  </si>
+  <si>
+    <t>Shell Height</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Coastal Wetlands</t>
+  </si>
+  <si>
+    <t>Species Compositon</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>Stem Density</t>
+  </si>
+  <si>
+    <t>Nekton</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Presence/Absence</t>
+  </si>
+  <si>
+    <t>Y/N</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>0 = FALSE = N; 1 = TRUE = Y</t>
+  </si>
+  <si>
+    <t>Number of Oysters Counted - Total</t>
+  </si>
+  <si>
+    <t>0 or positive integers</t>
+  </si>
+  <si>
+    <t>Number of Oysters Counted - Live</t>
+  </si>
+  <si>
+    <t>Number of Oysters Counted - Dead</t>
+  </si>
+  <si>
+    <t>Coral/Coral Reef</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>Community Composition</t>
+  </si>
+  <si>
+    <t>Grazers and Reef Dependent Species</t>
+  </si>
+  <si>
+    <t>Total/Canopy Percent Cover</t>
+  </si>
+  <si>
+    <t>Reef Height</t>
+  </si>
+  <si>
+    <t>Shoot Count</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Percent Live Tissue</t>
+  </si>
+  <si>
+    <t>Colony Height</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Colony Length</t>
+  </si>
+  <si>
+    <t>Colony Width</t>
+  </si>
+  <si>
+    <t>Colony Diameter</t>
+  </si>
+  <si>
+    <t>Fork Length</t>
+  </si>
+  <si>
+    <t>Snout to Anus</t>
+  </si>
+  <si>
+    <t>Standard Length</t>
+  </si>
+  <si>
+    <t>Total Length</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Percent Occurrence</t>
+  </si>
+  <si>
+    <t>0 to 100 (inclusive); values should match grid #/100 intervals</t>
+  </si>
+  <si>
+    <t>values should match grid #/100 intervals</t>
+  </si>
+  <si>
+    <t>Ammonia- Un-ionized (NH3)</t>
+  </si>
+  <si>
+    <t>Nitrate (N)</t>
+  </si>
+  <si>
+    <t>Nitrite (N)</t>
+  </si>
+  <si>
+    <t>Nitrogen, organic</t>
+  </si>
   <si>
     <t>Just a database ID. Retaining this in future correspondence will allow for the most efficient update, based on this single column.</t>
   </si>
@@ -74,388 +431,40 @@
     <t>Are the values applicable to specific species?</t>
   </si>
   <si>
-    <t>ThresholdID</t>
-  </si>
-  <si>
-    <t>ParameterID</t>
-  </si>
-  <si>
-    <t>Habitat</t>
-  </si>
-  <si>
-    <t>IndicatorID</t>
-  </si>
-  <si>
-    <t>IndicatorName</t>
-  </si>
-  <si>
-    <t>CombinedTable</t>
-  </si>
-  <si>
-    <t>ParameterName</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>LowThreshold</t>
-  </si>
-  <si>
-    <t>HighThreshold</t>
-  </si>
-  <si>
-    <t>QuadSize_m2</t>
-  </si>
-  <si>
-    <t>ExpectedValues</t>
-  </si>
-  <si>
-    <t>Conversions</t>
-  </si>
-  <si>
-    <t>LowQuantile</t>
-  </si>
-  <si>
-    <t>HighQuantile</t>
-  </si>
-  <si>
-    <t>Calculated</t>
-  </si>
-  <si>
-    <t>isSpeciesSpecific</t>
-  </si>
-  <si>
-    <t>Coastal Wetlands</t>
-  </si>
-  <si>
-    <t>Acreage</t>
-  </si>
-  <si>
-    <t>Hectares</t>
-  </si>
-  <si>
-    <t>ha</t>
-  </si>
-  <si>
-    <t>Species Compositon</t>
-  </si>
-  <si>
-    <t>CW</t>
-  </si>
-  <si>
-    <t>Percent Cover</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>0 to 100 (inclusive)</t>
-  </si>
-  <si>
-    <t>Stem Density</t>
-  </si>
-  <si>
-    <t>#/m2</t>
-  </si>
-  <si>
-    <t>Total/Canopy Percent Cover</t>
-  </si>
-  <si>
-    <t>Coral/Coral Reef</t>
-  </si>
-  <si>
-    <t>Community Composition</t>
-  </si>
-  <si>
-    <t>Coral</t>
+    <t>Calculated Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Applies to "Total SAV" and "Total Seagrass" Common Identifiers.</t>
   </si>
   <si>
     <t>Colony Density</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Presence/Absence</t>
-  </si>
-  <si>
-    <t>Y/N</t>
-  </si>
-  <si>
-    <t>Grazers and Reef Dependent Species</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>0 = FALSE = N; 1 = TRUE = Y</t>
-  </si>
-  <si>
-    <t>Standard Length</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>Colony Diameter</t>
-  </si>
-  <si>
-    <t>Colony Height</t>
-  </si>
-  <si>
-    <t>Colony Length</t>
-  </si>
-  <si>
-    <t>Colony Width</t>
-  </si>
-  <si>
-    <t>Percent Live Tissue</t>
-  </si>
-  <si>
-    <t>Oyster/Oyster Reef</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Oyster</t>
-  </si>
-  <si>
-    <t>Number of Oysters Counted - Dead</t>
-  </si>
-  <si>
-    <t>0 or positive integers</t>
-  </si>
-  <si>
-    <t>Number of Oysters Counted - Live</t>
-  </si>
-  <si>
-    <t>Number of Oysters Counted - Total</t>
-  </si>
-  <si>
-    <t>Reef Height</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Percent Live</t>
-  </si>
-  <si>
-    <t>Size Class</t>
-  </si>
-  <si>
-    <t>Shell Height</t>
-  </si>
-  <si>
-    <t>Submerged Aquatic Vegetation</t>
-  </si>
-  <si>
-    <t>SAV</t>
-  </si>
-  <si>
-    <t>Braun Blanquet Score</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>0,0.1,0.5,1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>Modified Braun Blanquet Score</t>
-  </si>
-  <si>
-    <t>n = 0.1; t = 0.5</t>
-  </si>
-  <si>
-    <t>Percent Occurrence</t>
-  </si>
-  <si>
-    <t>0 to 100 (inclusive); values should match grid #/100 intervals</t>
-  </si>
-  <si>
-    <t>values should match grid #/100 intervals</t>
-  </si>
-  <si>
-    <t>Shoot Count</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Water Column</t>
-  </si>
-  <si>
-    <t>Nekton</t>
-  </si>
-  <si>
-    <t>Fork Length</t>
-  </si>
-  <si>
-    <t>Snout to Anus</t>
-  </si>
-  <si>
-    <t>Total Length</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>Nutrients</t>
-  </si>
-  <si>
-    <t>Discrete WQ</t>
-  </si>
-  <si>
-    <t>Ammonia- Un-ionized (NH3)</t>
-  </si>
-  <si>
-    <t>mg/L</t>
-  </si>
-  <si>
-    <t>NH4 Filtered</t>
-  </si>
-  <si>
-    <t>NO2+3 Filtered</t>
-  </si>
-  <si>
-    <t>Nitrate (N)</t>
-  </si>
-  <si>
-    <t>Nitrite (N)</t>
-  </si>
-  <si>
-    <t>Nitrogen, organic</t>
-  </si>
-  <si>
-    <t>PO4 Filtered</t>
-  </si>
-  <si>
-    <t>Total Kjeldahl Nitrogen TKN</t>
-  </si>
-  <si>
-    <t>Total Nitrogen</t>
-  </si>
-  <si>
-    <t>Total Phosphorus</t>
-  </si>
-  <si>
-    <t>Water Clarity</t>
-  </si>
-  <si>
-    <t>Chlorophyll a corrected for pheophytin</t>
-  </si>
-  <si>
-    <t>ug/L</t>
-  </si>
-  <si>
-    <t>Chlorophyll a uncorrected for pheophytin</t>
-  </si>
-  <si>
-    <t>Colored dissolved organic matter, CDOM</t>
-  </si>
-  <si>
-    <t>PCU</t>
-  </si>
-  <si>
-    <t>Fluorescent dissolved organic matter, FDOM</t>
-  </si>
-  <si>
-    <t>QSE</t>
-  </si>
-  <si>
-    <t>Light Extinction Coefficient</t>
-  </si>
-  <si>
-    <t>m^-1</t>
-  </si>
-  <si>
-    <t>Secchi Depth</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>VOB, 999, &gt;B</t>
-  </si>
-  <si>
-    <t>VOB, 999, &gt;B = "visible on bottom"</t>
-  </si>
-  <si>
-    <t>Total Suspended Solids, TSS</t>
-  </si>
-  <si>
-    <t>Continuous WQ</t>
-  </si>
-  <si>
-    <t>Turbidity</t>
-  </si>
-  <si>
-    <t>NTU</t>
-  </si>
-  <si>
-    <t>Water Quality</t>
-  </si>
-  <si>
-    <t>Dissolved Oxygen</t>
-  </si>
-  <si>
-    <t>Dissolved Oxygen Saturation</t>
-  </si>
-  <si>
-    <t>Salinity</t>
-  </si>
-  <si>
-    <t>ppt</t>
-  </si>
-  <si>
-    <t>1 ppt = 1 PSU</t>
-  </si>
-  <si>
-    <t>Specific Conductivity</t>
-  </si>
-  <si>
-    <t>mS/cm</t>
-  </si>
-  <si>
-    <t>1 mS/cm = 1,000 µmhos/cm</t>
-  </si>
-  <si>
-    <t>Water Temperature</t>
-  </si>
-  <si>
-    <t>Degrees C</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>ActionNeeded</t>
   </si>
   <si>
     <t>ActionNeededDate</t>
   </si>
   <si>
+    <t>AdditionalComments</t>
+  </si>
+  <si>
     <t>QuantileSource</t>
   </si>
   <si>
-    <t>AdditionalComments</t>
+    <t>ScriptLatestRunDate</t>
   </si>
   <si>
     <t>ScriptLatestRunVersion</t>
   </si>
   <si>
-    <t>ScriptLatestRunDate</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
-    <t>Database_Thresholds_details.xlsx, Git Commit ID: f1de43644e6a7948a07258196432dd6512c100a5</t>
+    <t>IndicatorQuantiles_2023-11-27.xlsx</t>
+  </si>
+  <si>
+    <t>IndicatorQuantiles.xlsx, Git Commit ID: 4b28b56fe453d4f7055e2f64462469617d7a536d</t>
   </si>
   <si>
     <t>https://github.com/FloridaSEACAR/IndicatorQuantiles/blob/main/IndicatorQuantiles_2023-08-23.xlsx</t>
@@ -464,24 +473,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>IndicatorQuantiles_2023-11-27.xlsx</t>
-  </si>
-  <si>
-    <t>IndicatorQuantiles.xlsx, Git Commit ID: 4b28b56fe453d4f7055e2f64462469617d7a536d</t>
-  </si>
-  <si>
-    <t>Applies to "Total SAV" and "Total Seagrass" Common Identifiers.</t>
-  </si>
-  <si>
-    <t>Calculated Total Nitrogen</t>
-  </si>
-  <si>
-    <t>IndicatorQuantiles.R, Git Commit ID: db49f0f869e1f5a8558dc746458075a467cf2c41</t>
-  </si>
-  <si>
-    <t>Database_Thresholds_details.xlsx, Git Commit ID: 17b6a0f858dccbb28fc8ab3fe179e7fa731e5996</t>
-  </si>
-  <si>
     <t xml:space="preserve">ThresholdID</t>
   </si>
   <si>
@@ -860,13 +851,16 @@
     <t xml:space="preserve">ScriptLatestRunDate</t>
   </si>
   <si>
-    <t xml:space="preserve">IndicatorQuantiles.R, Git Commit ID: d77a77d64f72a744c78cd38270c72c5d9c8cd498</t>
+    <t xml:space="preserve">IndicatorQuantiles.R, Git Commit ID: 2e3ff9a54734c37c56b32bb788c6f054c2509b6b</t>
   </si>
   <si>
     <t xml:space="preserve">U</t>
   </si>
   <si>
-    <t xml:space="preserve">Database_Thresholds_details.xlsx, Git Commit ID: 739fa5586a92c86b193093b77505bce0a35343c3</t>
+    <t xml:space="preserve">Database_Thresholds_details.xlsx, Git Commit ID: f1de43644e6a7948a07258196432dd6512c100a5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/FloridaSEACAR/IndicatorQuantiles/blob/main/IndicatorQuantiles_2023-08-23.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
@@ -875,16 +869,25 @@
     <t xml:space="preserve">IndicatorQuantiles_2023-11-27.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">Database_Thresholds_details.xlsx, Git Commit ID: f1de43644e6a7948a07258196432dd6512c100a5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/FloridaSEACAR/IndicatorQuantiles/blob/main/IndicatorQuantiles_2023-08-23.xlsx</t>
+    <t xml:space="preserve">IndicatorQuantiles.xlsx, Git Commit ID: 4b28b56fe453d4f7055e2f64462469617d7a536d</t>
   </si>
   <si>
     <t xml:space="preserve">Applies to "Total SAV" and "Total Seagrass" Common Identifiers.</t>
   </si>
   <si>
     <t xml:space="preserve">Calculated Total Nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndicatorQuantiles.R, Git Commit ID: db49f0f869e1f5a8558dc746458075a467cf2c41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database_Thresholds_details.xlsx, Git Commit ID: 17b6a0f858dccbb28fc8ab3fe179e7fa731e5996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndicatorQuantiles.R, Git Commit ID: 24c5634628309d80791a95cb6332cf2c12927180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database_Thresholds_details.xlsx, Git Commit ID: 2f9a75a2e181f1499170e0e08eb1e1dbff602684</t>
   </si>
 </sst>
 </file>
@@ -894,7 +897,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,11 +926,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,6 +952,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC2BAFC"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -973,14 +986,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1263,159 +1277,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="23" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="29.77734375" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="12" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="50.7109375" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="29.5703125" hidden="0" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" hidden="0" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" hidden="0" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" hidden="0" customWidth="1"/>
-    <col min="22" max="22" width="43.140625" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="21.7109375" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="18.85546875" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="50.6640625" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="29.5546875" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="14.5546875" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" hidden="0" customWidth="1"/>
+    <col min="20" max="20" width="17.77734375" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="17.77734375" hidden="0" customWidth="1"/>
+    <col min="22" max="22" width="43.109375" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="21.77734375" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="18.88671875" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="158.44999999999999" customHeight="1">
+    <row r="1" ht="158.4" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="S3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="4">
@@ -1426,27 +1440,27 @@
         <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D4" t="n">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="J4"/>
+        <v>170</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="J4" s="4"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -1459,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="S4"/>
-      <c r="T4" s="4"/>
+      <c r="T4" s="5"/>
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4" t="s">
-        <v>279</v>
-      </c>
-      <c r="X4" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X4" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -1477,34 +1491,34 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D5" t="n">
         <v>18</v>
       </c>
       <c r="E5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" t="s">
         <v>174</v>
       </c>
-      <c r="F5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" t="s">
-        <v>177</v>
-      </c>
       <c r="I5" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O5" t="n">
         <v>100</v>
@@ -1516,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>280</v>
-      </c>
-      <c r="T5" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T5" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U5" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V5"/>
       <c r="W5" t="s">
-        <v>279</v>
-      </c>
-      <c r="X5" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X5" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -1540,32 +1554,32 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D6" t="n">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H6" t="s">
-        <v>180</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="J6"/>
+        <v>177</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="J6" s="4"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O6" t="n">
         <v>4886</v>
@@ -1577,19 +1591,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>280</v>
-      </c>
-      <c r="T6" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T6" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U6" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V6"/>
       <c r="W6" t="s">
-        <v>279</v>
-      </c>
-      <c r="X6" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X6" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -1601,34 +1615,34 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D7" t="n">
         <v>18</v>
       </c>
       <c r="E7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" t="s">
         <v>174</v>
       </c>
-      <c r="F7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" t="s">
-        <v>177</v>
-      </c>
       <c r="I7" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O7" t="n">
         <v>103.22</v>
@@ -1640,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>280</v>
-      </c>
-      <c r="T7" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T7" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V7"/>
       <c r="W7" t="s">
-        <v>279</v>
-      </c>
-      <c r="X7" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X7" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -1664,27 +1678,27 @@
         <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D8" t="n">
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="J8"/>
+        <v>170</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="J8" s="4"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -1697,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="S8"/>
-      <c r="T8" s="4"/>
+      <c r="T8" s="5"/>
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8" t="s">
-        <v>279</v>
-      </c>
-      <c r="X8" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X8" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -1715,32 +1729,32 @@
         <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D9" t="n">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O9" t="n">
         <v>40.644</v>
@@ -1752,19 +1766,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>280</v>
-      </c>
-      <c r="T9" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T9" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U9" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V9"/>
       <c r="W9" t="s">
-        <v>279</v>
-      </c>
-      <c r="X9" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X9" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -1776,30 +1790,30 @@
         <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D10" t="n">
         <v>10</v>
       </c>
       <c r="E10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" t="s">
         <v>183</v>
       </c>
-      <c r="F10" t="s">
-        <v>184</v>
-      </c>
-      <c r="G10" t="s">
-        <v>186</v>
-      </c>
       <c r="H10" t="s">
-        <v>186</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10"/>
+        <v>183</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O10" t="n">
         <v>115.796</v>
@@ -1811,19 +1825,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>280</v>
-      </c>
-      <c r="T10" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T10" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U10" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V10"/>
       <c r="W10" t="s">
-        <v>279</v>
-      </c>
-      <c r="X10" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X10" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -1835,22 +1849,22 @@
         <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" t="s">
         <v>184</v>
       </c>
-      <c r="G11" t="s">
-        <v>187</v>
-      </c>
       <c r="H11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1858,7 +1872,7 @@
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
@@ -1870,19 +1884,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>280</v>
-      </c>
-      <c r="T11" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T11" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U11" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V11"/>
       <c r="W11" t="s">
-        <v>279</v>
-      </c>
-      <c r="X11" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X11" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -1894,32 +1908,32 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H12" t="s">
-        <v>186</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="J12"/>
+        <v>183</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="J12" s="4"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O12" t="n">
         <v>858.716</v>
@@ -1931,19 +1945,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>280</v>
-      </c>
-      <c r="T12" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T12" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U12" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V12"/>
       <c r="W12" t="s">
-        <v>279</v>
-      </c>
-      <c r="X12" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X12" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -1955,34 +1969,34 @@
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D13" t="n">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" t="s">
         <v>184</v>
       </c>
-      <c r="G13" t="s">
-        <v>187</v>
-      </c>
       <c r="H13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N13" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
@@ -1994,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>280</v>
-      </c>
-      <c r="T13" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T13" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U13" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V13"/>
       <c r="W13" t="s">
-        <v>279</v>
-      </c>
-      <c r="X13" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X13" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2018,22 +2032,22 @@
         <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D14" t="n">
         <v>11</v>
       </c>
       <c r="E14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" t="s">
         <v>189</v>
       </c>
-      <c r="F14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" t="s">
-        <v>192</v>
-      </c>
       <c r="H14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -2053,19 +2067,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>282</v>
-      </c>
-      <c r="T14" s="4" t="n">
+        <v>280</v>
+      </c>
+      <c r="T14" s="5" t="n">
         <v>45257</v>
       </c>
       <c r="U14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V14"/>
       <c r="W14" t="s">
-        <v>279</v>
-      </c>
-      <c r="X14" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X14" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2077,27 +2091,27 @@
         <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D15" t="n">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="J15"/>
+        <v>190</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="J15" s="4"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
@@ -2114,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>280</v>
-      </c>
-      <c r="T15" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T15" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V15"/>
       <c r="W15" t="s">
-        <v>279</v>
-      </c>
-      <c r="X15" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X15" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2138,25 +2152,25 @@
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D16" t="n">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I16" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -2175,19 +2189,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>280</v>
-      </c>
-      <c r="T16" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T16" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V16"/>
       <c r="W16" t="s">
-        <v>279</v>
-      </c>
-      <c r="X16" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X16" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2199,25 +2213,25 @@
         <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D17" t="n">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -2236,19 +2250,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>280</v>
-      </c>
-      <c r="T17" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T17" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U17" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V17"/>
       <c r="W17" t="s">
-        <v>279</v>
-      </c>
-      <c r="X17" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X17" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2260,25 +2274,25 @@
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D18" t="n">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I18" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
@@ -2297,19 +2311,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>280</v>
-      </c>
-      <c r="T18" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T18" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U18" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V18"/>
       <c r="W18" t="s">
-        <v>279</v>
-      </c>
-      <c r="X18" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X18" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2321,34 +2335,34 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D19" t="n">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I19" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O19" t="n">
         <v>33</v>
@@ -2360,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>280</v>
-      </c>
-      <c r="T19" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T19" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U19" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V19"/>
       <c r="W19" t="s">
-        <v>279</v>
-      </c>
-      <c r="X19" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X19" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2384,34 +2398,34 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D20" t="n">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I20" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O20" t="n">
         <v>100</v>
@@ -2423,19 +2437,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>280</v>
-      </c>
-      <c r="T20" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T20" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U20" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V20"/>
       <c r="W20" t="s">
-        <v>279</v>
-      </c>
-      <c r="X20" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X20" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2447,25 +2461,25 @@
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D21" t="n">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
@@ -2480,13 +2494,13 @@
         <v>0</v>
       </c>
       <c r="S21"/>
-      <c r="T21" s="4"/>
+      <c r="T21" s="5"/>
       <c r="U21"/>
       <c r="V21"/>
       <c r="W21" t="s">
-        <v>279</v>
-      </c>
-      <c r="X21" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X21" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2498,32 +2512,32 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D22" t="n">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O22" t="n">
         <v>7387.008</v>
@@ -2535,19 +2549,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>280</v>
-      </c>
-      <c r="T22" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T22" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U22" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V22"/>
       <c r="W22" t="s">
-        <v>279</v>
-      </c>
-      <c r="X22" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X22" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2559,34 +2573,34 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D23" t="n">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I23" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O23" t="n">
         <v>27.85</v>
@@ -2598,19 +2612,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>280</v>
-      </c>
-      <c r="T23" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T23" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U23" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V23"/>
       <c r="W23" t="s">
-        <v>279</v>
-      </c>
-      <c r="X23" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X23" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2622,36 +2636,36 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D24" t="n">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H24" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I24" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="n">
         <v>0.0625</v>
       </c>
       <c r="L24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M24"/>
       <c r="N24" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O24" t="n">
         <v>100</v>
@@ -2663,19 +2677,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>280</v>
-      </c>
-      <c r="T24" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T24" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U24" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V24"/>
       <c r="W24" t="s">
-        <v>279</v>
-      </c>
-      <c r="X24" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X24" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2687,36 +2701,36 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D25" t="n">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I25" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J25"/>
       <c r="K25" t="n">
         <v>0.1</v>
       </c>
       <c r="L25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O25" t="n">
         <v>67.76</v>
@@ -2728,19 +2742,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>280</v>
-      </c>
-      <c r="T25" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T25" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U25" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V25"/>
       <c r="W25" t="s">
-        <v>279</v>
-      </c>
-      <c r="X25" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X25" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2752,36 +2766,36 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D26" t="n">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I26" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J26"/>
       <c r="K26" t="n">
         <v>0.25</v>
       </c>
       <c r="L26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O26" t="n">
         <v>168.28</v>
@@ -2793,19 +2807,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>280</v>
-      </c>
-      <c r="T26" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T26" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U26" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V26"/>
       <c r="W26" t="s">
-        <v>279</v>
-      </c>
-      <c r="X26" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X26" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2817,36 +2831,36 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D27" t="n">
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I27" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J27"/>
       <c r="K27" t="n">
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M27"/>
       <c r="N27" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O27" t="n">
         <v>171.616</v>
@@ -2858,19 +2872,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>280</v>
-      </c>
-      <c r="T27" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T27" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U27" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V27"/>
       <c r="W27" t="s">
-        <v>279</v>
-      </c>
-      <c r="X27" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X27" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2882,34 +2896,34 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D28" t="n">
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" t="s">
         <v>201</v>
       </c>
-      <c r="G28" t="s">
-        <v>204</v>
-      </c>
       <c r="H28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I28" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O28" t="n">
         <v>101.124</v>
@@ -2921,19 +2935,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>280</v>
-      </c>
-      <c r="T28" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T28" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U28" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V28"/>
       <c r="W28" t="s">
-        <v>279</v>
-      </c>
-      <c r="X28" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X28" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2945,36 +2959,36 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D29" t="n">
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" t="s">
         <v>201</v>
       </c>
-      <c r="G29" t="s">
-        <v>204</v>
-      </c>
       <c r="H29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I29" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J29"/>
       <c r="K29" t="n">
         <v>0.0625</v>
       </c>
       <c r="L29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M29"/>
       <c r="N29" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O29" t="n">
         <v>223.521</v>
@@ -2986,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>280</v>
-      </c>
-      <c r="T29" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T29" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U29" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V29"/>
       <c r="W29" t="s">
-        <v>279</v>
-      </c>
-      <c r="X29" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X29" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3010,36 +3024,36 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D30" t="n">
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" t="s">
         <v>201</v>
       </c>
-      <c r="G30" t="s">
-        <v>204</v>
-      </c>
       <c r="H30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I30" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J30"/>
       <c r="K30" t="n">
         <v>0.1</v>
       </c>
       <c r="L30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M30"/>
       <c r="N30" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O30" t="n">
         <v>263</v>
@@ -3051,19 +3065,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>280</v>
-      </c>
-      <c r="T30" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T30" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U30" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V30"/>
       <c r="W30" t="s">
-        <v>279</v>
-      </c>
-      <c r="X30" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X30" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3075,36 +3089,36 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D31" t="n">
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" t="s">
         <v>201</v>
       </c>
-      <c r="G31" t="s">
-        <v>204</v>
-      </c>
       <c r="H31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I31" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J31"/>
       <c r="K31" t="n">
         <v>0.25</v>
       </c>
       <c r="L31" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M31"/>
       <c r="N31" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O31" t="n">
         <v>457.825</v>
@@ -3116,19 +3130,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>280</v>
-      </c>
-      <c r="T31" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T31" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U31" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V31"/>
       <c r="W31" t="s">
-        <v>279</v>
-      </c>
-      <c r="X31" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X31" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3140,36 +3154,36 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D32" t="n">
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F32" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" t="s">
         <v>201</v>
       </c>
-      <c r="G32" t="s">
-        <v>204</v>
-      </c>
       <c r="H32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I32" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J32"/>
       <c r="K32" t="n">
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M32"/>
       <c r="N32" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O32" t="n">
         <v>267.6</v>
@@ -3181,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>280</v>
-      </c>
-      <c r="T32" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T32" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U32" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V32"/>
       <c r="W32" t="s">
-        <v>279</v>
-      </c>
-      <c r="X32" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X32" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3205,34 +3219,34 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D33" t="n">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F33" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G33" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I33" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M33"/>
       <c r="N33" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O33" t="n">
         <v>104.5</v>
@@ -3244,19 +3258,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>280</v>
-      </c>
-      <c r="T33" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T33" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U33" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V33"/>
       <c r="W33" t="s">
-        <v>279</v>
-      </c>
-      <c r="X33" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X33" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3268,36 +3282,36 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D34" t="n">
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G34" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H34" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I34" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J34"/>
       <c r="K34" t="n">
         <v>0.0625</v>
       </c>
       <c r="L34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O34" t="n">
         <v>531.956</v>
@@ -3309,19 +3323,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>280</v>
-      </c>
-      <c r="T34" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T34" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U34" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V34"/>
       <c r="W34" t="s">
-        <v>279</v>
-      </c>
-      <c r="X34" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X34" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3333,36 +3347,36 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D35" t="n">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I35" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J35"/>
       <c r="K35" t="n">
         <v>0.1</v>
       </c>
       <c r="L35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O35" t="n">
         <v>288.2</v>
@@ -3374,19 +3388,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>280</v>
-      </c>
-      <c r="T35" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T35" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U35" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V35"/>
       <c r="W35" t="s">
-        <v>279</v>
-      </c>
-      <c r="X35" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X35" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3398,36 +3412,36 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D36" t="n">
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F36" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I36" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J36"/>
       <c r="K36" t="n">
         <v>0.25</v>
       </c>
       <c r="L36" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M36"/>
       <c r="N36" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O36" t="n">
         <v>584.432</v>
@@ -3439,19 +3453,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>280</v>
-      </c>
-      <c r="T36" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T36" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U36" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V36"/>
       <c r="W36" t="s">
-        <v>279</v>
-      </c>
-      <c r="X36" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X36" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3463,36 +3477,36 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D37" t="n">
         <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H37" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I37" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J37"/>
       <c r="K37" t="n">
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M37"/>
       <c r="N37" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O37" t="n">
         <v>305.164</v>
@@ -3504,19 +3518,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>280</v>
-      </c>
-      <c r="T37" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T37" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U37" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V37"/>
       <c r="W37" t="s">
-        <v>279</v>
-      </c>
-      <c r="X37" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X37" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3528,25 +3542,25 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D38" t="n">
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I38" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J38"/>
       <c r="K38"/>
@@ -3565,19 +3579,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>280</v>
-      </c>
-      <c r="T38" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T38" s="5" t="n">
         <v>45257</v>
       </c>
       <c r="U38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V38"/>
       <c r="W38" t="s">
-        <v>279</v>
-      </c>
-      <c r="X38" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X38" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3589,32 +3603,32 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D39" t="n">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F39" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G39" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H39" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I39" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O39" t="n">
         <v>100</v>
@@ -3626,19 +3640,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>280</v>
-      </c>
-      <c r="T39" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T39" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U39" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V39"/>
       <c r="W39" t="s">
-        <v>279</v>
-      </c>
-      <c r="X39" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X39" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3650,25 +3664,25 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D40" t="n">
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G40" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H40" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I40" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
@@ -3687,19 +3701,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>280</v>
-      </c>
-      <c r="T40" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T40" s="5" t="n">
         <v>45257</v>
       </c>
       <c r="U40" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V40"/>
       <c r="W40" t="s">
-        <v>279</v>
-      </c>
-      <c r="X40" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X40" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3711,25 +3725,25 @@
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D41" t="n">
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F41" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H41" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I41" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J41"/>
       <c r="K41" t="n">
@@ -3750,19 +3764,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>280</v>
-      </c>
-      <c r="T41" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T41" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U41" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V41"/>
       <c r="W41" t="s">
-        <v>279</v>
-      </c>
-      <c r="X41" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X41" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3774,25 +3788,25 @@
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D42" t="n">
         <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F42" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H42" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J42"/>
       <c r="K42" t="n">
@@ -3813,15 +3827,15 @@
         <v>0</v>
       </c>
       <c r="S42"/>
-      <c r="T42" s="4"/>
+      <c r="T42" s="5"/>
       <c r="U42" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="V42"/>
       <c r="W42" t="s">
-        <v>279</v>
-      </c>
-      <c r="X42" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X42" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3833,25 +3847,25 @@
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D43" t="n">
         <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F43" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G43" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H43" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I43" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J43"/>
       <c r="K43" t="n">
@@ -3872,15 +3886,15 @@
         <v>0</v>
       </c>
       <c r="S43"/>
-      <c r="T43" s="4"/>
+      <c r="T43" s="5"/>
       <c r="U43" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="V43"/>
       <c r="W43" t="s">
-        <v>279</v>
-      </c>
-      <c r="X43" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X43" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3892,25 +3906,25 @@
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D44" t="n">
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F44" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G44" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H44" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I44" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J44"/>
       <c r="K44" t="n">
@@ -3931,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>280</v>
-      </c>
-      <c r="T44" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T44" s="5" t="n">
         <v>45257</v>
       </c>
       <c r="U44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V44"/>
       <c r="W44" t="s">
-        <v>279</v>
-      </c>
-      <c r="X44" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X44" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3955,25 +3969,25 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D45" t="n">
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F45" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G45" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H45" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I45" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J45"/>
       <c r="K45" t="n">
@@ -3982,7 +3996,7 @@
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O45" t="n">
         <v>114.37</v>
@@ -3994,19 +4008,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>280</v>
-      </c>
-      <c r="T45" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T45" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U45" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V45"/>
       <c r="W45" t="s">
-        <v>279</v>
-      </c>
-      <c r="X45" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X45" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4018,25 +4032,25 @@
         <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D46" t="n">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F46" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H46" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I46" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -4051,13 +4065,13 @@
         <v>0</v>
       </c>
       <c r="S46"/>
-      <c r="T46" s="4"/>
+      <c r="T46" s="5"/>
       <c r="U46"/>
       <c r="V46"/>
       <c r="W46" t="s">
-        <v>279</v>
-      </c>
-      <c r="X46" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X46" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4069,32 +4083,32 @@
         <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F47" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G47" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H47" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M47"/>
       <c r="N47" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O47" t="n">
         <v>69</v>
@@ -4106,19 +4120,19 @@
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>280</v>
-      </c>
-      <c r="T47" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T47" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U47" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V47"/>
       <c r="W47" t="s">
-        <v>279</v>
-      </c>
-      <c r="X47" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X47" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4130,31 +4144,31 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F48" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G48" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H48" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N48" t="n">
         <v>0.5</v>
@@ -4169,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>280</v>
-      </c>
-      <c r="T48" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T48" s="5" t="n">
         <v>45257</v>
       </c>
       <c r="U48" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V48"/>
       <c r="W48" t="s">
-        <v>279</v>
-      </c>
-      <c r="X48" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X48" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4193,34 +4207,34 @@
         <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F49" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H49" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I49" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O49" t="n">
         <v>100</v>
@@ -4232,19 +4246,19 @@
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>280</v>
-      </c>
-      <c r="T49" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T49" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U49" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V49"/>
       <c r="W49" t="s">
-        <v>279</v>
-      </c>
-      <c r="X49" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X49" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4256,32 +4270,32 @@
         <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F50" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G50" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H50" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I50" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O50" t="n">
         <v>100</v>
@@ -4293,21 +4307,21 @@
         <v>1</v>
       </c>
       <c r="S50" t="s">
-        <v>280</v>
-      </c>
-      <c r="T50" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T50" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U50" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V50" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="W50" t="s">
-        <v>279</v>
-      </c>
-      <c r="X50" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X50" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4319,34 +4333,34 @@
         <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F51" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H51" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I51" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M51"/>
       <c r="N51" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O51" t="n">
         <v>100</v>
@@ -4358,19 +4372,19 @@
         <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>280</v>
-      </c>
-      <c r="T51" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T51" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U51" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V51"/>
       <c r="W51" t="s">
-        <v>279</v>
-      </c>
-      <c r="X51" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X51" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4382,34 +4396,34 @@
         <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F52" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G52" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H52" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I52" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M52"/>
       <c r="N52" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O52" t="n">
         <v>100</v>
@@ -4421,21 +4435,21 @@
         <v>1</v>
       </c>
       <c r="S52" t="s">
-        <v>280</v>
-      </c>
-      <c r="T52" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T52" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U52" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V52" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="W52" t="s">
-        <v>279</v>
-      </c>
-      <c r="X52" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X52" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4447,34 +4461,34 @@
         <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H53" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M53" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N53" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O53" t="n">
         <v>1</v>
@@ -4486,19 +4500,19 @@
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>280</v>
-      </c>
-      <c r="T53" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T53" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U53" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V53"/>
       <c r="W53" t="s">
-        <v>279</v>
-      </c>
-      <c r="X53" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X53" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4510,32 +4524,32 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F54" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H54" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I54" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O54" t="n">
         <v>5000</v>
@@ -4547,19 +4561,19 @@
         <v>0</v>
       </c>
       <c r="S54" t="s">
-        <v>280</v>
-      </c>
-      <c r="T54" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T54" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U54" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V54"/>
       <c r="W54" t="s">
-        <v>279</v>
-      </c>
-      <c r="X54" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X54" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4571,32 +4585,32 @@
         <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D55" t="n">
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F55" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I55" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O55" t="n">
         <v>1000</v>
@@ -4608,19 +4622,19 @@
         <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>280</v>
-      </c>
-      <c r="T55" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T55" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U55" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V55"/>
       <c r="W55" t="s">
-        <v>279</v>
-      </c>
-      <c r="X55" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X55" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4632,22 +4646,22 @@
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D56" t="n">
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G56" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H56" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I56" t="n">
         <v>0.000001</v>
@@ -4665,13 +4679,13 @@
         <v>0</v>
       </c>
       <c r="S56"/>
-      <c r="T56" s="4"/>
+      <c r="T56" s="5"/>
       <c r="U56"/>
       <c r="V56"/>
       <c r="W56" t="s">
-        <v>279</v>
-      </c>
-      <c r="X56" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X56" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4683,34 +4697,34 @@
         <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D57" t="n">
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F57" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G57" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H57" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M57" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N57" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O57" t="n">
         <v>1</v>
@@ -4722,19 +4736,19 @@
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>280</v>
-      </c>
-      <c r="T57" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T57" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U57" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V57"/>
       <c r="W57" t="s">
-        <v>279</v>
-      </c>
-      <c r="X57" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X57" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4746,22 +4760,22 @@
         <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D58" t="n">
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F58" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G58" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H58" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I58" t="n">
         <v>0.000001</v>
@@ -4779,13 +4793,13 @@
         <v>0</v>
       </c>
       <c r="S58"/>
-      <c r="T58" s="4"/>
+      <c r="T58" s="5"/>
       <c r="U58"/>
       <c r="V58"/>
       <c r="W58" t="s">
-        <v>279</v>
-      </c>
-      <c r="X58" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X58" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4797,22 +4811,22 @@
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D59" t="n">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F59" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G59" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H59" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I59" t="n">
         <v>0.000001</v>
@@ -4834,15 +4848,15 @@
         <v>0</v>
       </c>
       <c r="S59"/>
-      <c r="T59" s="4"/>
+      <c r="T59" s="5"/>
       <c r="U59" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="V59"/>
       <c r="W59" t="s">
-        <v>279</v>
-      </c>
-      <c r="X59" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X59" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4854,22 +4868,22 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D60" t="n">
         <v>9</v>
       </c>
       <c r="E60" t="s">
+        <v>221</v>
+      </c>
+      <c r="F60" t="s">
+        <v>221</v>
+      </c>
+      <c r="G60" t="s">
         <v>224</v>
       </c>
-      <c r="F60" t="s">
-        <v>224</v>
-      </c>
-      <c r="G60" t="s">
-        <v>227</v>
-      </c>
       <c r="H60" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I60" t="n">
         <v>0.000001</v>
@@ -4887,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="S60"/>
-      <c r="T60" s="4"/>
+      <c r="T60" s="5"/>
       <c r="U60"/>
       <c r="V60"/>
       <c r="W60" t="s">
-        <v>279</v>
-      </c>
-      <c r="X60" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X60" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4905,22 +4919,22 @@
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D61" t="n">
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F61" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G61" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H61" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I61" t="n">
         <v>0.000001</v>
@@ -4938,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="S61"/>
-      <c r="T61" s="4"/>
+      <c r="T61" s="5"/>
       <c r="U61"/>
       <c r="V61"/>
       <c r="W61" t="s">
-        <v>279</v>
-      </c>
-      <c r="X61" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X61" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4956,32 +4970,32 @@
         <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
       </c>
       <c r="E62" t="s">
+        <v>226</v>
+      </c>
+      <c r="F62" t="s">
+        <v>227</v>
+      </c>
+      <c r="G62" t="s">
+        <v>228</v>
+      </c>
+      <c r="H62" t="s">
         <v>229</v>
-      </c>
-      <c r="F62" t="s">
-        <v>230</v>
-      </c>
-      <c r="G62" t="s">
-        <v>231</v>
-      </c>
-      <c r="H62" t="s">
-        <v>232</v>
       </c>
       <c r="I62"/>
       <c r="J62"/>
-      <c r="K62"/>
+      <c r="K62" s="4"/>
       <c r="L62"/>
       <c r="M62"/>
       <c r="N62" t="n">
         <v>0.003</v>
       </c>
-      <c r="O62" t="n">
+      <c r="O62" s="4" t="n">
         <v>0.478</v>
       </c>
       <c r="P62" t="n">
@@ -4991,19 +5005,19 @@
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>280</v>
-      </c>
-      <c r="T62" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T62" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U62" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V62"/>
       <c r="W62" t="s">
-        <v>279</v>
-      </c>
-      <c r="X62" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X62" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5015,32 +5029,32 @@
         <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D63" t="n">
         <v>6</v>
       </c>
       <c r="E63" t="s">
+        <v>226</v>
+      </c>
+      <c r="F63" t="s">
+        <v>227</v>
+      </c>
+      <c r="G63" t="s">
+        <v>230</v>
+      </c>
+      <c r="H63" t="s">
         <v>229</v>
-      </c>
-      <c r="F63" t="s">
-        <v>230</v>
-      </c>
-      <c r="G63" t="s">
-        <v>233</v>
-      </c>
-      <c r="H63" t="s">
-        <v>232</v>
       </c>
       <c r="I63"/>
       <c r="J63"/>
-      <c r="K63"/>
+      <c r="K63" s="4"/>
       <c r="L63"/>
       <c r="M63"/>
       <c r="N63" t="n">
         <v>-0.026</v>
       </c>
-      <c r="O63" t="n">
+      <c r="O63" s="4" t="n">
         <v>5.735</v>
       </c>
       <c r="P63" t="n">
@@ -5050,19 +5064,19 @@
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>280</v>
-      </c>
-      <c r="T63" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T63" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U63" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V63"/>
       <c r="W63" t="s">
-        <v>279</v>
-      </c>
-      <c r="X63" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X63" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5074,32 +5088,32 @@
         <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D64" t="n">
         <v>6</v>
       </c>
       <c r="E64" t="s">
+        <v>226</v>
+      </c>
+      <c r="F64" t="s">
+        <v>227</v>
+      </c>
+      <c r="G64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H64" t="s">
         <v>229</v>
-      </c>
-      <c r="F64" t="s">
-        <v>230</v>
-      </c>
-      <c r="G64" t="s">
-        <v>234</v>
-      </c>
-      <c r="H64" t="s">
-        <v>232</v>
       </c>
       <c r="I64"/>
       <c r="J64"/>
-      <c r="K64"/>
+      <c r="K64" s="4"/>
       <c r="L64"/>
       <c r="M64"/>
       <c r="N64" t="n">
         <v>-0.002</v>
       </c>
-      <c r="O64" t="n">
+      <c r="O64" s="4" t="n">
         <v>3.24</v>
       </c>
       <c r="P64" t="n">
@@ -5109,19 +5123,19 @@
         <v>0</v>
       </c>
       <c r="S64" t="s">
-        <v>280</v>
-      </c>
-      <c r="T64" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T64" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U64" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V64"/>
       <c r="W64" t="s">
-        <v>279</v>
-      </c>
-      <c r="X64" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X64" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5133,32 +5147,32 @@
         <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D65" t="n">
         <v>6</v>
       </c>
       <c r="E65" t="s">
+        <v>226</v>
+      </c>
+      <c r="F65" t="s">
+        <v>227</v>
+      </c>
+      <c r="G65" t="s">
+        <v>232</v>
+      </c>
+      <c r="H65" t="s">
         <v>229</v>
-      </c>
-      <c r="F65" t="s">
-        <v>230</v>
-      </c>
-      <c r="G65" t="s">
-        <v>235</v>
-      </c>
-      <c r="H65" t="s">
-        <v>232</v>
       </c>
       <c r="I65"/>
       <c r="J65"/>
-      <c r="K65"/>
+      <c r="K65" s="4"/>
       <c r="L65"/>
       <c r="M65"/>
       <c r="N65" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="O65" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O65" s="4" t="n">
         <v>0.79</v>
       </c>
       <c r="P65" t="n">
@@ -5168,19 +5182,19 @@
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>280</v>
-      </c>
-      <c r="T65" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T65" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U65" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V65"/>
       <c r="W65" t="s">
-        <v>279</v>
-      </c>
-      <c r="X65" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X65" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5192,32 +5206,32 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D66" t="n">
         <v>6</v>
       </c>
       <c r="E66" t="s">
+        <v>226</v>
+      </c>
+      <c r="F66" t="s">
+        <v>227</v>
+      </c>
+      <c r="G66" t="s">
+        <v>233</v>
+      </c>
+      <c r="H66" t="s">
         <v>229</v>
-      </c>
-      <c r="F66" t="s">
-        <v>230</v>
-      </c>
-      <c r="G66" t="s">
-        <v>236</v>
-      </c>
-      <c r="H66" t="s">
-        <v>232</v>
       </c>
       <c r="I66"/>
       <c r="J66"/>
-      <c r="K66"/>
+      <c r="K66" s="4"/>
       <c r="L66"/>
       <c r="M66"/>
       <c r="N66" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="O66" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O66" s="4" t="n">
         <v>0.074</v>
       </c>
       <c r="P66" t="n">
@@ -5227,19 +5241,19 @@
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>280</v>
-      </c>
-      <c r="T66" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T66" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U66" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V66"/>
       <c r="W66" t="s">
-        <v>279</v>
-      </c>
-      <c r="X66" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X66" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5251,32 +5265,32 @@
         <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D67" t="n">
         <v>6</v>
       </c>
       <c r="E67" t="s">
+        <v>226</v>
+      </c>
+      <c r="F67" t="s">
+        <v>227</v>
+      </c>
+      <c r="G67" t="s">
+        <v>234</v>
+      </c>
+      <c r="H67" t="s">
         <v>229</v>
-      </c>
-      <c r="F67" t="s">
-        <v>230</v>
-      </c>
-      <c r="G67" t="s">
-        <v>237</v>
-      </c>
-      <c r="H67" t="s">
-        <v>232</v>
       </c>
       <c r="I67"/>
       <c r="J67"/>
-      <c r="K67"/>
+      <c r="K67" s="4"/>
       <c r="L67"/>
       <c r="M67"/>
       <c r="N67" t="n">
         <v>0.029</v>
       </c>
-      <c r="O67" t="n">
+      <c r="O67" s="4" t="n">
         <v>2.7</v>
       </c>
       <c r="P67" t="n">
@@ -5286,15 +5300,15 @@
         <v>0</v>
       </c>
       <c r="S67"/>
-      <c r="T67" s="4"/>
+      <c r="T67" s="5"/>
       <c r="U67" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="V67"/>
       <c r="W67" t="s">
-        <v>279</v>
-      </c>
-      <c r="X67" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X67" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5306,32 +5320,32 @@
         <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D68" t="n">
         <v>6</v>
       </c>
       <c r="E68" t="s">
+        <v>226</v>
+      </c>
+      <c r="F68" t="s">
+        <v>227</v>
+      </c>
+      <c r="G68" t="s">
+        <v>235</v>
+      </c>
+      <c r="H68" t="s">
         <v>229</v>
-      </c>
-      <c r="F68" t="s">
-        <v>230</v>
-      </c>
-      <c r="G68" t="s">
-        <v>238</v>
-      </c>
-      <c r="H68" t="s">
-        <v>232</v>
       </c>
       <c r="I68"/>
       <c r="J68"/>
-      <c r="K68"/>
+      <c r="K68" s="4"/>
       <c r="L68"/>
       <c r="M68"/>
       <c r="N68" t="n">
         <v>-0.007</v>
       </c>
-      <c r="O68" t="n">
+      <c r="O68" s="4" t="n">
         <v>0.769</v>
       </c>
       <c r="P68" t="n">
@@ -5341,19 +5355,19 @@
         <v>0</v>
       </c>
       <c r="S68" t="s">
-        <v>280</v>
-      </c>
-      <c r="T68" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T68" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U68" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V68"/>
       <c r="W68" t="s">
-        <v>279</v>
-      </c>
-      <c r="X68" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X68" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5365,22 +5379,22 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D69" t="n">
         <v>6</v>
       </c>
       <c r="E69" t="s">
+        <v>226</v>
+      </c>
+      <c r="F69" t="s">
+        <v>227</v>
+      </c>
+      <c r="G69" t="s">
+        <v>236</v>
+      </c>
+      <c r="H69" t="s">
         <v>229</v>
-      </c>
-      <c r="F69" t="s">
-        <v>230</v>
-      </c>
-      <c r="G69" t="s">
-        <v>239</v>
-      </c>
-      <c r="H69" t="s">
-        <v>232</v>
       </c>
       <c r="I69"/>
       <c r="J69"/>
@@ -5388,7 +5402,7 @@
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O69" t="n">
         <v>5.215</v>
@@ -5400,19 +5414,19 @@
         <v>0</v>
       </c>
       <c r="S69" t="s">
-        <v>280</v>
-      </c>
-      <c r="T69" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T69" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U69" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V69"/>
       <c r="W69" t="s">
-        <v>279</v>
-      </c>
-      <c r="X69" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X69" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5424,22 +5438,22 @@
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D70" t="n">
         <v>6</v>
       </c>
       <c r="E70" t="s">
+        <v>226</v>
+      </c>
+      <c r="F70" t="s">
+        <v>227</v>
+      </c>
+      <c r="G70" t="s">
+        <v>237</v>
+      </c>
+      <c r="H70" t="s">
         <v>229</v>
-      </c>
-      <c r="F70" t="s">
-        <v>230</v>
-      </c>
-      <c r="G70" t="s">
-        <v>240</v>
-      </c>
-      <c r="H70" t="s">
-        <v>232</v>
       </c>
       <c r="I70"/>
       <c r="J70"/>
@@ -5447,7 +5461,7 @@
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O70" t="n">
         <v>2.656</v>
@@ -5459,19 +5473,19 @@
         <v>0</v>
       </c>
       <c r="S70" t="s">
-        <v>280</v>
-      </c>
-      <c r="T70" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T70" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U70" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V70"/>
       <c r="W70" t="s">
-        <v>279</v>
-      </c>
-      <c r="X70" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X70" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5483,22 +5497,22 @@
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D71" t="n">
         <v>6</v>
       </c>
       <c r="E71" t="s">
+        <v>226</v>
+      </c>
+      <c r="F71" t="s">
+        <v>227</v>
+      </c>
+      <c r="G71" t="s">
+        <v>237</v>
+      </c>
+      <c r="H71" t="s">
         <v>229</v>
-      </c>
-      <c r="F71" t="s">
-        <v>230</v>
-      </c>
-      <c r="G71" t="s">
-        <v>240</v>
-      </c>
-      <c r="H71" t="s">
-        <v>232</v>
       </c>
       <c r="I71"/>
       <c r="J71"/>
@@ -5506,7 +5520,7 @@
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O71" t="n">
         <v>4.246</v>
@@ -5518,21 +5532,21 @@
         <v>0</v>
       </c>
       <c r="S71" t="s">
-        <v>280</v>
-      </c>
-      <c r="T71" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T71" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U71" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V71" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="W71" t="s">
-        <v>279</v>
-      </c>
-      <c r="X71" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X71" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5544,32 +5558,32 @@
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D72" t="n">
         <v>6</v>
       </c>
       <c r="E72" t="s">
+        <v>226</v>
+      </c>
+      <c r="F72" t="s">
+        <v>227</v>
+      </c>
+      <c r="G72" t="s">
+        <v>238</v>
+      </c>
+      <c r="H72" t="s">
         <v>229</v>
-      </c>
-      <c r="F72" t="s">
-        <v>230</v>
-      </c>
-      <c r="G72" t="s">
-        <v>241</v>
-      </c>
-      <c r="H72" t="s">
-        <v>232</v>
       </c>
       <c r="I72"/>
       <c r="J72"/>
-      <c r="K72"/>
+      <c r="K72" s="4"/>
       <c r="L72"/>
       <c r="M72"/>
       <c r="N72" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="O72" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O72" s="4" t="n">
         <v>0.74</v>
       </c>
       <c r="P72" t="n">
@@ -5579,19 +5593,19 @@
         <v>0</v>
       </c>
       <c r="S72" t="s">
-        <v>280</v>
-      </c>
-      <c r="T72" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T72" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U72" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V72"/>
       <c r="W72" t="s">
-        <v>279</v>
-      </c>
-      <c r="X72" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X72" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5603,32 +5617,32 @@
         <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D73" t="n">
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F73" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G73" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H73" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I73"/>
       <c r="J73"/>
-      <c r="K73"/>
+      <c r="K73" s="4"/>
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="O73" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O73" s="4" t="n">
         <v>112</v>
       </c>
       <c r="P73" t="n">
@@ -5638,19 +5652,19 @@
         <v>0</v>
       </c>
       <c r="S73" t="s">
-        <v>280</v>
-      </c>
-      <c r="T73" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T73" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U73" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V73"/>
       <c r="W73" t="s">
-        <v>279</v>
-      </c>
-      <c r="X73" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X73" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5662,32 +5676,32 @@
         <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D74" t="n">
         <v>8</v>
       </c>
       <c r="E74" t="s">
+        <v>239</v>
+      </c>
+      <c r="F74" t="s">
+        <v>227</v>
+      </c>
+      <c r="G74" t="s">
         <v>242</v>
       </c>
-      <c r="F74" t="s">
-        <v>230</v>
-      </c>
-      <c r="G74" t="s">
-        <v>245</v>
-      </c>
       <c r="H74" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I74"/>
       <c r="J74"/>
-      <c r="K74"/>
+      <c r="K74" s="4"/>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="O74" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O74" s="4" t="n">
         <v>119.614</v>
       </c>
       <c r="P74" t="n">
@@ -5697,19 +5711,19 @@
         <v>0</v>
       </c>
       <c r="S74" t="s">
-        <v>280</v>
-      </c>
-      <c r="T74" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T74" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U74" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V74"/>
       <c r="W74" t="s">
-        <v>279</v>
-      </c>
-      <c r="X74" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X74" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5721,32 +5735,32 @@
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D75" t="n">
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F75" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G75" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H75" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I75"/>
       <c r="J75"/>
-      <c r="K75"/>
+      <c r="K75" s="4"/>
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="O75" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O75" s="4" t="n">
         <v>718.17</v>
       </c>
       <c r="P75" t="n">
@@ -5756,19 +5770,19 @@
         <v>0</v>
       </c>
       <c r="S75" t="s">
-        <v>280</v>
-      </c>
-      <c r="T75" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T75" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U75" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V75"/>
       <c r="W75" t="s">
-        <v>279</v>
-      </c>
-      <c r="X75" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X75" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5780,22 +5794,22 @@
         <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D76" t="n">
         <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F76" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G76" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H76" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I76"/>
       <c r="J76"/>
@@ -5811,13 +5825,13 @@
         <v>0</v>
       </c>
       <c r="S76"/>
-      <c r="T76" s="4"/>
+      <c r="T76" s="5"/>
       <c r="U76"/>
       <c r="V76"/>
       <c r="W76" t="s">
-        <v>279</v>
-      </c>
-      <c r="X76" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X76" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5829,22 +5843,22 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D77" t="n">
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F77" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G77" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H77" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I77"/>
       <c r="J77"/>
@@ -5864,19 +5878,19 @@
         <v>0</v>
       </c>
       <c r="S77" t="s">
-        <v>280</v>
-      </c>
-      <c r="T77" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T77" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U77" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V77"/>
       <c r="W77" t="s">
-        <v>279</v>
-      </c>
-      <c r="X77" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X77" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5888,22 +5902,22 @@
         <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D78" t="n">
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G78" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H78" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I78" t="n">
         <v>0.000001</v>
@@ -5913,13 +5927,13 @@
       </c>
       <c r="K78"/>
       <c r="L78" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M78" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N78" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O78" t="n">
         <v>15.2</v>
@@ -5931,19 +5945,19 @@
         <v>0</v>
       </c>
       <c r="S78" t="s">
-        <v>280</v>
-      </c>
-      <c r="T78" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T78" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U78" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V78"/>
       <c r="W78" t="s">
-        <v>279</v>
-      </c>
-      <c r="X78" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X78" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5955,32 +5969,32 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D79" t="n">
         <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F79" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G79" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H79" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I79"/>
       <c r="J79"/>
-      <c r="K79"/>
+      <c r="K79" s="4"/>
       <c r="L79"/>
       <c r="M79"/>
-      <c r="N79" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="O79" t="n">
+      <c r="N79" s="4" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O79" s="4" t="n">
         <v>185.782</v>
       </c>
       <c r="P79" t="n">
@@ -5990,19 +6004,19 @@
         <v>0</v>
       </c>
       <c r="S79" t="s">
-        <v>280</v>
-      </c>
-      <c r="T79" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T79" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U79" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V79"/>
       <c r="W79" t="s">
-        <v>279</v>
-      </c>
-      <c r="X79" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X79" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6014,36 +6028,36 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D80" t="n">
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F80" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G80" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H80" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I80" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J80" t="n">
         <v>4000</v>
       </c>
-      <c r="K80"/>
+      <c r="K80" s="4"/>
       <c r="L80"/>
       <c r="M80"/>
-      <c r="N80" t="n">
+      <c r="N80" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="O80" t="n">
+      <c r="O80" s="4" t="n">
         <v>533</v>
       </c>
       <c r="P80" t="n">
@@ -6053,19 +6067,19 @@
         <v>0</v>
       </c>
       <c r="S80" t="s">
-        <v>280</v>
-      </c>
-      <c r="T80" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T80" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U80" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V80"/>
       <c r="W80" t="s">
-        <v>279</v>
-      </c>
-      <c r="X80" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X80" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6077,32 +6091,32 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D81" t="n">
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F81" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G81" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H81" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I81"/>
       <c r="J81"/>
-      <c r="K81"/>
+      <c r="K81" s="4"/>
       <c r="L81"/>
       <c r="M81"/>
-      <c r="N81" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="O81" t="n">
+      <c r="N81" s="4" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O81" s="4" t="n">
         <v>127</v>
       </c>
       <c r="P81" t="n">
@@ -6112,19 +6126,19 @@
         <v>0</v>
       </c>
       <c r="S81" t="s">
-        <v>280</v>
-      </c>
-      <c r="T81" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T81" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U81" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V81"/>
       <c r="W81" t="s">
-        <v>279</v>
-      </c>
-      <c r="X81" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X81" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6136,36 +6150,36 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D82" t="n">
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F82" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G82" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H82" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I82" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J82" t="n">
         <v>50</v>
       </c>
-      <c r="K82"/>
+      <c r="K82" s="4"/>
       <c r="L82"/>
       <c r="M82"/>
-      <c r="N82" t="n">
+      <c r="N82" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="O82" t="n">
+      <c r="O82" s="4" t="n">
         <v>13.4</v>
       </c>
       <c r="P82" t="n">
@@ -6175,19 +6189,19 @@
         <v>0</v>
       </c>
       <c r="S82" t="s">
-        <v>282</v>
-      </c>
-      <c r="T82" s="4" t="n">
+        <v>280</v>
+      </c>
+      <c r="T82" s="5" t="n">
         <v>45257</v>
       </c>
       <c r="U82" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V82"/>
       <c r="W82" t="s">
-        <v>279</v>
-      </c>
-      <c r="X82" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X82" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6199,22 +6213,22 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D83" t="n">
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F83" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G83" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H83" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I83" t="n">
         <v>0.000001</v>
@@ -6222,13 +6236,13 @@
       <c r="J83" t="n">
         <v>22</v>
       </c>
-      <c r="K83"/>
+      <c r="K83" s="4"/>
       <c r="L83"/>
       <c r="M83"/>
-      <c r="N83" t="n">
+      <c r="N83" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="O83" t="n">
+      <c r="O83" s="4" t="n">
         <v>14.3</v>
       </c>
       <c r="P83" t="n">
@@ -6238,19 +6252,19 @@
         <v>0</v>
       </c>
       <c r="S83" t="s">
-        <v>280</v>
-      </c>
-      <c r="T83" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T83" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U83" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V83"/>
       <c r="W83" t="s">
-        <v>279</v>
-      </c>
-      <c r="X83" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X83" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6262,36 +6276,36 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D84" t="n">
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F84" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G84" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H84" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I84" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J84" t="n">
         <v>500</v>
       </c>
-      <c r="K84"/>
+      <c r="K84" s="4"/>
       <c r="L84"/>
       <c r="M84"/>
-      <c r="N84" t="n">
+      <c r="N84" s="4" t="n">
         <v>1.7</v>
       </c>
-      <c r="O84" t="n">
+      <c r="O84" s="4" t="n">
         <v>170.1</v>
       </c>
       <c r="P84" t="n">
@@ -6301,19 +6315,19 @@
         <v>0</v>
       </c>
       <c r="S84" t="s">
-        <v>280</v>
-      </c>
-      <c r="T84" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T84" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U84" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V84"/>
       <c r="W84" t="s">
-        <v>279</v>
-      </c>
-      <c r="X84" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X84" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6325,22 +6339,22 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D85" t="n">
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F85" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G85" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I85" t="n">
         <v>0.000001</v>
@@ -6364,19 +6378,19 @@
         <v>0</v>
       </c>
       <c r="S85" t="s">
-        <v>280</v>
-      </c>
-      <c r="T85" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T85" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U85" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V85"/>
       <c r="W85" t="s">
-        <v>279</v>
-      </c>
-      <c r="X85" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X85" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6388,25 +6402,25 @@
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D86" t="n">
         <v>7</v>
       </c>
       <c r="E86" t="s">
+        <v>257</v>
+      </c>
+      <c r="F86" t="s">
+        <v>254</v>
+      </c>
+      <c r="G86" t="s">
         <v>260</v>
       </c>
-      <c r="F86" t="s">
-        <v>257</v>
-      </c>
-      <c r="G86" t="s">
-        <v>263</v>
-      </c>
       <c r="H86" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I86" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J86" t="n">
         <v>70</v>
@@ -6415,7 +6429,7 @@
       <c r="L86"/>
       <c r="M86"/>
       <c r="N86" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O86" t="n">
         <v>41.2</v>
@@ -6427,19 +6441,19 @@
         <v>0</v>
       </c>
       <c r="S86" t="s">
-        <v>280</v>
-      </c>
-      <c r="T86" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T86" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U86" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V86"/>
       <c r="W86" t="s">
-        <v>279</v>
-      </c>
-      <c r="X86" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X86" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6451,25 +6465,25 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D87" t="n">
         <v>7</v>
       </c>
       <c r="E87" t="s">
+        <v>257</v>
+      </c>
+      <c r="F87" t="s">
+        <v>227</v>
+      </c>
+      <c r="G87" t="s">
         <v>260</v>
       </c>
-      <c r="F87" t="s">
-        <v>230</v>
-      </c>
-      <c r="G87" t="s">
-        <v>263</v>
-      </c>
       <c r="H87" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I87" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J87" t="n">
         <v>70</v>
@@ -6477,10 +6491,10 @@
       <c r="K87"/>
       <c r="L87"/>
       <c r="M87" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N87" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O87" t="n">
         <v>41.1</v>
@@ -6492,19 +6506,19 @@
         <v>0</v>
       </c>
       <c r="S87" t="s">
-        <v>280</v>
-      </c>
-      <c r="T87" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T87" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U87" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V87"/>
       <c r="W87" t="s">
-        <v>279</v>
-      </c>
-      <c r="X87" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X87" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6516,22 +6530,22 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D88" t="n">
         <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F88" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G88" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H88" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I88" t="n">
         <v>0.005000001</v>
@@ -6542,10 +6556,10 @@
       <c r="K88"/>
       <c r="L88"/>
       <c r="M88" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N88" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O88" t="n">
         <v>60.699</v>
@@ -6557,19 +6571,19 @@
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>280</v>
-      </c>
-      <c r="T88" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T88" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U88" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V88"/>
       <c r="W88" t="s">
-        <v>279</v>
-      </c>
-      <c r="X88" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X88" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6581,22 +6595,22 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D89" t="n">
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F89" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G89" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H89" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I89" t="n">
         <v>-5</v>
@@ -6620,19 +6634,19 @@
         <v>0</v>
       </c>
       <c r="S89" t="s">
-        <v>280</v>
-      </c>
-      <c r="T89" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T89" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U89" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V89"/>
       <c r="W89" t="s">
-        <v>279</v>
-      </c>
-      <c r="X89" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X89" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6644,22 +6658,22 @@
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D90" t="n">
         <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F90" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G90" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H90" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I90" t="n">
         <v>3</v>
@@ -6683,19 +6697,19 @@
         <v>0</v>
       </c>
       <c r="S90" t="s">
-        <v>280</v>
-      </c>
-      <c r="T90" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T90" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U90" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V90"/>
       <c r="W90" t="s">
-        <v>279</v>
-      </c>
-      <c r="X90" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X90" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6707,22 +6721,22 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D91" t="n">
         <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F91" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G91" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H91" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I91" t="n">
         <v>2</v>
@@ -6746,19 +6760,19 @@
         <v>0</v>
       </c>
       <c r="S91" t="s">
-        <v>282</v>
-      </c>
-      <c r="T91" s="4" t="n">
+        <v>280</v>
+      </c>
+      <c r="T91" s="5" t="n">
         <v>45257</v>
       </c>
       <c r="U91" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V91"/>
       <c r="W91" t="s">
-        <v>279</v>
-      </c>
-      <c r="X91" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X91" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6770,22 +6784,22 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D92" t="n">
         <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F92" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G92" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H92" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
@@ -6809,19 +6823,19 @@
         <v>0</v>
       </c>
       <c r="S92" t="s">
-        <v>280</v>
-      </c>
-      <c r="T92" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T92" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U92" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V92"/>
       <c r="W92" t="s">
-        <v>279</v>
-      </c>
-      <c r="X92" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X92" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6832,6 +6846,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/output/ScriptResults/Database_Thresholds.xlsx
+++ b/output/ScriptResults/Database_Thresholds.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
   <si>
     <t>Just a database ID. Retaining this in future correspondence will allow for the most efficient update, based on this single column.</t>
   </si>
@@ -482,10 +482,10 @@
     <t>Threshold and Quantile Values</t>
   </si>
   <si>
-    <t>Updated: June 05, 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updated: 2024-06-18</t>
+    <t>Updated: July 03, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated: 2024-07-10</t>
   </si>
   <si>
     <t xml:space="preserve">ThresholdID</t>
@@ -536,22 +536,286 @@
     <t xml:space="preserve">Calculated</t>
   </si>
   <si>
-    <t xml:space="preserve">IsSpeciesSpecific</t>
+    <t xml:space="preserve">isSpeciesSpecific</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coastal Wetlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acreage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hectares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species Compositon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent Cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 to 100 (inclusive)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stem Density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#/m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total/Canopy Percent Cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coral/Coral Reef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Composition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colony Density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presence/Absence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grazers and Reef Dependent Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 = FALSE = N; 1 = TRUE = Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colony Diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colony Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colony Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colony Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent Live Tissue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyster/Oyster Reef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Oysters Counted - Dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 or positive integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Oysters Counted - Live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Oysters Counted - Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reef Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent Live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shell Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submerged Aquatic Vegetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braun Blanquet Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0.1,0.5,1,2,3,4,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modified Braun Blanquet Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n = 0.1; t = 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent Occurrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 to 100 (inclusive); values should match grid #/100 intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">values should match grid #/100 intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoot Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#</t>
   </si>
   <si>
     <t xml:space="preserve">Water Column</t>
   </si>
   <si>
+    <t xml:space="preserve">Nekton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fork Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snout to Anus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete WQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammonia, Un-ionized (NH3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammonium, Filtered (NH4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO2+3, Filtered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrate (NO3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrite (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen, organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphate, Filtered (PO4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Kjeldahl Nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Phosphorus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Clarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorophyll a, Corrected for Pheophytin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ug/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorophyll a, Uncorrected for Pheophytin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colored Dissolved Organic Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluorescent dissolved organic matter, FDOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light Extinction Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m^-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secchi Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOB, 999, &gt;B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOB, 999, &gt;B = "visible on bottom"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Suspended Solids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuous WQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turbidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Water Quality</t>
   </si>
   <si>
-    <t xml:space="preserve">Discrete WQ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dissolved Oxygen</t>
   </si>
   <si>
-    <t xml:space="preserve">mg/L</t>
+    <t xml:space="preserve">Dissolved Oxygen Saturation</t>
   </si>
   <si>
     <t xml:space="preserve">Salinity</t>
@@ -563,6 +827,15 @@
     <t xml:space="preserve">1 ppt = 1 PSU</t>
   </si>
   <si>
+    <t xml:space="preserve">Specific Conductivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mS/cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 mS/cm = 1,000 µmhos/cm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Water Temperature</t>
   </si>
   <si>
@@ -575,366 +848,104 @@
     <t xml:space="preserve">None</t>
   </si>
   <si>
-    <t xml:space="preserve">Dissolved Oxygen Saturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Conductivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mS/cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 mS/cm = 1,000 µmhos/cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Clarity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turbidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Suspended Solids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorophyll a, Uncorrected for Pheophytin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ug/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorophyll a, Corrected for Pheophytin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secchi Depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOB, 999, &gt;B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOB, 999, &gt;B = "visible on bottom"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Light Extinction Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m^-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colored Dissolved Organic Matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluorescent Dissolved Organic Matter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutrients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Kjeldahl Nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO2+3, Filtered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ammonium, Filtered (NH4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Phosphorus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phosphate, Filtered (PO4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submerged Aquatic Vegetation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent Cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Braun Blanquet Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0.1,0.5,1,2,3,4,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modified Braun Blanquet Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n = 0.1; t = 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 to 100 (inclusive)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acreage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hectares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyster/Oyster Reef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#/m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent Live</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shell Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coastal Wetlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species Composition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stem Density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nekton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presence/Absence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y/N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 = FALSE = N; 1 = TRUE = Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Oysters Counted - Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 or positive integers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Oysters Counted - Live</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Oysters Counted - Dead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coral/Coral Reef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community Composition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colony Density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grazers and Reef Dependent Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total/Canopy Percent Cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reef Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoot Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent Live Tissue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colony Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colony Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colony Width</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colony Diameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fork Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snout to Anus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Width</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent Occurrence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 to 100 (inclusive); values should match grid #/100 intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">values should match grid #/100 intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ammonia, Un-ionized (NH3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrate (NO3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrite (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen, organic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continuous WQ</t>
+    <t xml:space="preserve">ActionNeeded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActionNeededDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuantileSource</t>
   </si>
   <si>
     <t xml:space="preserve">AdditionalComments</t>
   </si>
   <si>
-    <t xml:space="preserve">ActionNeeded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActionNeededDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuantileSource</t>
-  </si>
-  <si>
     <t xml:space="preserve">ScriptLatestRunVersion</t>
   </si>
   <si>
     <t xml:space="preserve">ScriptLatestRunDate</t>
   </si>
   <si>
+    <t xml:space="preserve">QuantileDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coastal Wetlands - Hectares not included in SEACAR data export tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ_Report_Render.R, Git Commit ID: ea27439d179b540cda00ced4b43f858e55a0f99d</t>
+  </si>
+  <si>
     <t xml:space="preserve">U</t>
   </si>
   <si>
-    <t xml:space="preserve">Database_Thresholds.xlsx, Git Commit ID: f8ac2edb3fcc8525a3a15dc679ade467368d56ed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQ_Report_Render.R, Git Commit ID: 2ac465f541072be69b037414ef9c031bfa01158e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Column - Fluorescent Dissolved Organic Matter not included in Data Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applies to Calculated Total Nitrogen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Braun Blanquet Score not included in Quantile Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modified Braun Blanquet Score not included in Quantile Analysis</t>
+    <t xml:space="preserve">Database_Thresholds.xlsx, Git Commit ID: ea27439d179b540cda00ced4b43f858e55a0f99d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database_Thresholds_details.xlsx, Git Commit ID: 2f9a75a2e181f1499170e0e08eb1e1dbff602684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coral/Coral Reef - Hectares not included in SEACAR data export tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coral/Coral Reef - Presence/Absence not included in quantile analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndicatorQuantiles_2023-11-27.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coral/Coral Reef - Standard Length not included in SEACAR data export tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyster/Oyster Reef - Hectares not included in SEACAR data export tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/FloridaSEACAR/IndicatorQuantiles/blob/main/IndicatorQuantiles_2023-08-23.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submerged Aquatic Vegetation - Hectares not included in SEACAR data export tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submerged Aquatic Vegetation - Braun Blanquet Score not included in quantile analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submerged Aquatic Vegetation - Modified Braun Blanquet Score not included in quantile analysis</t>
   </si>
   <si>
     <t xml:space="preserve">Applies to "Total SAV" and "Total Seagrass" Common Identifiers.</t>
   </si>
   <si>
-    <t xml:space="preserve">Submerged Aquatic Vegetation - Hectares not included in Data Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presence/Absence not included in Quantile Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyster/Oyster Reef - Hectares not included in Data Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coral/Coral Reef - Hectares not included in Data Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coastal Wetlands - Hectares not included in Data Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submerged Aquatic Vegetation - Shoot Count not included in Data Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Column - Fork Length not included in Data Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Column - Snout to Anus not included in Data Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Column - Total Length not included in Data Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Column - Width not included in Data Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coral/Coral Reef - Standard Length not included in Data Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database_Thresholds.xlsx, Git Commit ID: 444f6b1aec0709ee2806502fda9cb7a2546037e0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQ_Report_Render.R, Git Commit ID: 444f6b1aec0709ee2806502fda9cb7a2546037e0</t>
+    <t xml:space="preserve">Submerged Aquatic Vegetation - Presence/Absence not included in quantile analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submerged Aquatic Vegetation - Shoot Count not included in SEACAR data export tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Column - Fork Length not included in SEACAR data export tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Column - Presence/Absence not included in quantile analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Column - Snout to Anus not included in SEACAR data export tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Column - Total Length not included in SEACAR data export tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Column - Width not included in SEACAR data export tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculated Total Nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Column - Fluorescent dissolved organic matter, FDOM not included in SEACAR data export tables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="7">
@@ -965,20 +976,23 @@
       <i/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FF2F5496"/>
       <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1027,19 +1041,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1354,20 +1367,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="6"/>
-    </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6"/>
     </row>
     <row r="5" ht="158.44999999999999" customHeight="1">
       <c r="A5" s="3" t="s">
@@ -1492,413 +1499,398 @@
       <c r="X7" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="Y7" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>172</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>173</v>
       </c>
       <c r="F8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" t="s">
         <v>174</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>175</v>
       </c>
-      <c r="H8" t="s">
-        <v>176</v>
-      </c>
       <c r="I8" t="n">
         <v>-0.000001</v>
       </c>
-      <c r="J8" t="n">
-        <v>22</v>
-      </c>
+      <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
-      <c r="N8" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O8" t="n">
-        <v>14</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="b">
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="S8"/>
-      <c r="T8" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U8" s="7" t="n">
-        <v>45461</v>
-      </c>
+      <c r="T8" s="6"/>
+      <c r="U8"/>
       <c r="V8" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="W8" t="s">
-        <v>301</v>
-      </c>
-      <c r="X8" s="7" t="n">
-        <v>45461</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="X8" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>172</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I9" t="n">
         <v>-0.000001</v>
       </c>
-      <c r="J9" t="n">
-        <v>70</v>
-      </c>
+      <c r="J9"/>
       <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9" t="s">
-        <v>179</v>
-      </c>
+      <c r="L9" t="s">
+        <v>180</v>
+      </c>
+      <c r="M9"/>
       <c r="N9" t="n">
         <v>-0.000001</v>
       </c>
       <c r="O9" t="n">
-        <v>41</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9"/>
-      <c r="T9" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U9" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V9" t="s">
-        <v>300</v>
-      </c>
+        <v>100.000001</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>284</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U9" t="s">
+        <v>285</v>
+      </c>
+      <c r="V9"/>
       <c r="W9" t="s">
-        <v>301</v>
-      </c>
-      <c r="X9" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X9" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y9" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>172</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>40</v>
-      </c>
+        <v>-0.000001</v>
+      </c>
+      <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>-0.000001</v>
       </c>
       <c r="O10" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10"/>
-      <c r="T10" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U10" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V10" t="s">
-        <v>300</v>
-      </c>
+        <v>4964.8</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>284</v>
+      </c>
+      <c r="T10" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U10" t="s">
+        <v>285</v>
+      </c>
+      <c r="V10"/>
       <c r="W10" t="s">
-        <v>301</v>
-      </c>
-      <c r="X10" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X10" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y10" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>172</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>13</v>
-      </c>
+        <v>-0.000001</v>
+      </c>
+      <c r="J11"/>
       <c r="K11"/>
-      <c r="L11"/>
+      <c r="L11" t="s">
+        <v>180</v>
+      </c>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>5.3</v>
+        <v>-0.000001</v>
       </c>
       <c r="O11" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="b">
+        <v>103.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="S11"/>
-      <c r="T11" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U11" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V11" t="s">
-        <v>300</v>
-      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" t="s">
+        <v>286</v>
+      </c>
+      <c r="V11"/>
       <c r="W11" t="s">
-        <v>301</v>
-      </c>
-      <c r="X11" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X11" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y11" s="6" t="n">
+        <v>45314</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
         <v>173</v>
       </c>
       <c r="F12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" t="s">
         <v>174</v>
       </c>
-      <c r="G12" t="s">
-        <v>184</v>
-      </c>
       <c r="H12" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="I12" t="n">
         <v>-0.000001</v>
       </c>
-      <c r="J12" t="n">
-        <v>310</v>
-      </c>
+      <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
-      <c r="N12" t="n">
-        <v>0.313344</v>
-      </c>
-      <c r="O12" t="n">
-        <v>175.313</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="b">
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="S12"/>
-      <c r="T12" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U12" s="7" t="n">
-        <v>45461</v>
-      </c>
+      <c r="T12" s="6"/>
+      <c r="U12"/>
       <c r="V12" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="W12" t="s">
-        <v>301</v>
-      </c>
-      <c r="X12" s="7" t="n">
-        <v>45461</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="X12" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="F13" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H13" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I13" t="n">
-        <v>0.005000001</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
+        <v>-0.000001</v>
+      </c>
+      <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
-      <c r="M13" t="s">
-        <v>188</v>
-      </c>
+      <c r="M13"/>
       <c r="N13" t="n">
-        <v>0.0054</v>
+        <v>-0.000001</v>
       </c>
       <c r="O13" t="n">
-        <v>60.4</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="b">
-        <v>0</v>
-      </c>
-      <c r="S13"/>
-      <c r="T13" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U13" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V13" t="s">
-        <v>300</v>
-      </c>
+        <v>37.531</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>284</v>
+      </c>
+      <c r="T13" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U13" t="s">
+        <v>285</v>
+      </c>
+      <c r="V13"/>
       <c r="W13" t="s">
-        <v>301</v>
-      </c>
-      <c r="X13" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X13" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y13" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F14" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -1909,116 +1901,120 @@
         <v>-0.000001</v>
       </c>
       <c r="O14" t="n">
-        <v>126</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="b">
-        <v>0</v>
-      </c>
-      <c r="S14"/>
-      <c r="T14" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U14" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V14" t="s">
-        <v>300</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>284</v>
+      </c>
+      <c r="T14" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U14" t="s">
+        <v>285</v>
+      </c>
+      <c r="V14"/>
       <c r="W14" t="s">
-        <v>301</v>
-      </c>
-      <c r="X14" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X14" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y14" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" t="s">
         <v>189</v>
       </c>
-      <c r="F15" t="s">
-        <v>174</v>
-      </c>
-      <c r="G15" t="s">
-        <v>192</v>
-      </c>
       <c r="H15" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" t="n">
-        <v>-0.000001</v>
-      </c>
-      <c r="O15" t="n">
-        <v>183.32</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15"/>
-      <c r="T15" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U15" s="7" t="n">
-        <v>45461</v>
-      </c>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>284</v>
+      </c>
+      <c r="T15" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U15"/>
       <c r="V15" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="W15" t="s">
-        <v>301</v>
-      </c>
-      <c r="X15" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X15" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y15" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H16" t="s">
-        <v>194</v>
-      </c>
-      <c r="I16"/>
+        <v>188</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.000001</v>
+      </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -2027,1483 +2023,1608 @@
         <v>-0.000001</v>
       </c>
       <c r="O16" t="n">
-        <v>116.879</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16"/>
-      <c r="T16" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U16" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V16" t="s">
-        <v>300</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>284</v>
+      </c>
+      <c r="T16" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U16" t="s">
+        <v>285</v>
+      </c>
+      <c r="V16"/>
       <c r="W16" t="s">
-        <v>301</v>
-      </c>
-      <c r="X16" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X16" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y16" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" t="s">
         <v>189</v>
       </c>
-      <c r="F17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" t="s">
-        <v>195</v>
-      </c>
       <c r="H17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17" t="n">
-        <v>-0.000001</v>
-      </c>
-      <c r="O17" t="n">
-        <v>110</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17"/>
-      <c r="T17" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U17" s="7" t="n">
-        <v>45461</v>
-      </c>
+      <c r="L17" t="s">
+        <v>192</v>
+      </c>
+      <c r="M17" t="s">
+        <v>193</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>284</v>
+      </c>
+      <c r="T17" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U17"/>
       <c r="V17" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="W17" t="s">
-        <v>301</v>
-      </c>
-      <c r="X17" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X17" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y17" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B18" t="n">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" t="n">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" t="n">
-        <v>8</v>
-      </c>
       <c r="E18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H18" t="s">
-        <v>197</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="J18" t="n">
-        <v>50</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
       <c r="K18"/>
-      <c r="L18" t="s">
-        <v>198</v>
-      </c>
-      <c r="M18" t="s">
-        <v>199</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>15</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="b">
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="S18"/>
-      <c r="T18" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U18" s="7" t="n">
-        <v>45461</v>
+      <c r="T18" s="6"/>
+      <c r="U18" t="s">
+        <v>289</v>
       </c>
       <c r="V18" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="W18" t="s">
-        <v>301</v>
-      </c>
-      <c r="X18" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X18" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y18" s="6" t="n">
+        <v>45257</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B19" t="n">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" t="n">
         <v>12</v>
       </c>
-      <c r="C19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" t="n">
-        <v>8</v>
-      </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H19" t="s">
-        <v>201</v>
-      </c>
-      <c r="I19"/>
+        <v>195</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.000001</v>
+      </c>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19" t="n">
-        <v>0.001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O19" t="n">
-        <v>7.938975</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="b">
-        <v>0</v>
-      </c>
-      <c r="S19"/>
-      <c r="T19" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U19" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V19" t="s">
-        <v>300</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>284</v>
+      </c>
+      <c r="T19" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U19" t="s">
+        <v>285</v>
+      </c>
+      <c r="V19"/>
       <c r="W19" t="s">
-        <v>301</v>
-      </c>
-      <c r="X19" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X19" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y19" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H20" t="s">
-        <v>203</v>
-      </c>
-      <c r="I20"/>
+        <v>195</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.000001</v>
+      </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>-0.000001</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>714.85</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S20"/>
-      <c r="T20" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U20" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V20" t="s">
-        <v>300</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
+        <v>284</v>
+      </c>
+      <c r="T20" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U20" t="s">
+        <v>285</v>
+      </c>
+      <c r="V20"/>
       <c r="W20" t="s">
-        <v>301</v>
-      </c>
-      <c r="X20" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X20" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y20" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H21" t="s">
-        <v>205</v>
-      </c>
-      <c r="I21"/>
+        <v>195</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.000001</v>
+      </c>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="b">
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>361.87</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="s">
         <v>284</v>
       </c>
-      <c r="T21" s="4"/>
-      <c r="U21" s="7"/>
+      <c r="T21" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U21" t="s">
+        <v>285</v>
+      </c>
       <c r="V21"/>
       <c r="W21" t="s">
-        <v>301</v>
-      </c>
-      <c r="X21" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X21" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y21" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G22" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H22" t="s">
-        <v>176</v>
-      </c>
-      <c r="I22"/>
+        <v>195</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.000001</v>
+      </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22" t="n">
-        <v>0.00007</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="b">
-        <v>0</v>
-      </c>
-      <c r="S22"/>
-      <c r="T22" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U22" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V22" t="s">
-        <v>300</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>284</v>
+      </c>
+      <c r="T22" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U22" t="s">
+        <v>285</v>
+      </c>
+      <c r="V22"/>
       <c r="W22" t="s">
-        <v>301</v>
-      </c>
-      <c r="X22" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X22" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y22" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B23" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="H23" t="s">
-        <v>176</v>
-      </c>
-      <c r="I23"/>
+        <v>179</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.000001</v>
+      </c>
       <c r="J23"/>
       <c r="K23"/>
-      <c r="L23"/>
+      <c r="L23" t="s">
+        <v>180</v>
+      </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>0.00006</v>
+        <v>-0.000001</v>
       </c>
       <c r="O23" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="b">
+        <v>42</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="s">
+        <v>284</v>
+      </c>
+      <c r="T23" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U23" t="s">
         <v>285</v>
       </c>
-      <c r="T23" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U23" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V23" t="s">
-        <v>300</v>
-      </c>
+      <c r="V23"/>
       <c r="W23" t="s">
-        <v>301</v>
-      </c>
-      <c r="X23" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X23" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y23" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B24" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H24" t="s">
-        <v>176</v>
-      </c>
-      <c r="I24"/>
+        <v>179</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.000001</v>
+      </c>
       <c r="J24"/>
       <c r="K24"/>
-      <c r="L24"/>
+      <c r="L24" t="s">
+        <v>180</v>
+      </c>
       <c r="M24"/>
       <c r="N24" t="n">
         <v>-0.000001</v>
       </c>
       <c r="O24" t="n">
-        <v>5.12397</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="b">
-        <v>0</v>
-      </c>
-      <c r="S24"/>
-      <c r="T24" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U24" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V24" t="s">
-        <v>300</v>
-      </c>
+        <v>100.000001</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
+        <v>284</v>
+      </c>
+      <c r="T24" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U24" t="s">
+        <v>285</v>
+      </c>
+      <c r="V24"/>
       <c r="W24" t="s">
-        <v>301</v>
-      </c>
-      <c r="X24" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X24" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y24" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B25" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="F25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" t="s">
         <v>174</v>
       </c>
-      <c r="G25" t="s">
-        <v>209</v>
-      </c>
       <c r="H25" t="s">
-        <v>176</v>
-      </c>
-      <c r="I25"/>
+        <v>175</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-0.000001</v>
+      </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
-      <c r="N25" t="n">
-        <v>-0.002326</v>
-      </c>
-      <c r="O25" t="n">
-        <v>3.140486</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="b">
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="S25"/>
-      <c r="T25" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U25" s="7" t="n">
-        <v>45461</v>
-      </c>
+      <c r="T25" s="6"/>
+      <c r="U25"/>
       <c r="V25" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="W25" t="s">
-        <v>301</v>
-      </c>
-      <c r="X25" s="7" t="n">
-        <v>45461</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="X25" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y25" s="6"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B26" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F26" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="G26" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H26" t="s">
-        <v>176</v>
-      </c>
-      <c r="I26"/>
+        <v>182</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.000001</v>
+      </c>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>-0.025165</v>
+        <v>-0.000001</v>
       </c>
       <c r="O26" t="n">
-        <v>5.64653</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="b">
-        <v>0</v>
-      </c>
-      <c r="S26"/>
-      <c r="T26" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U26" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V26" t="s">
-        <v>300</v>
-      </c>
+        <v>7213.632</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>284</v>
+      </c>
+      <c r="T26" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U26" t="s">
+        <v>285</v>
+      </c>
+      <c r="V26"/>
       <c r="W26" t="s">
-        <v>301</v>
-      </c>
-      <c r="X26" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X26" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y26" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B27" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F27" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="G27" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H27" t="s">
-        <v>176</v>
-      </c>
-      <c r="I27"/>
+        <v>188</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.000001</v>
+      </c>
       <c r="J27"/>
       <c r="K27"/>
-      <c r="L27"/>
+      <c r="L27" t="s">
+        <v>205</v>
+      </c>
       <c r="M27"/>
       <c r="N27" t="n">
         <v>-0.000001</v>
       </c>
       <c r="O27" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="b">
-        <v>0</v>
-      </c>
-      <c r="S27"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
+        <v>284</v>
+      </c>
+      <c r="T27" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U27" t="s">
+        <v>285</v>
+      </c>
       <c r="V27"/>
       <c r="W27" t="s">
-        <v>301</v>
-      </c>
-      <c r="X27" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X27" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y27" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F28" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="G28" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H28" t="s">
-        <v>176</v>
-      </c>
-      <c r="I28"/>
+        <v>188</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.000001</v>
+      </c>
       <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
+      <c r="K28" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="L28" t="s">
+        <v>205</v>
+      </c>
       <c r="M28"/>
       <c r="N28" t="n">
-        <v>-0.007</v>
+        <v>-0.000001</v>
       </c>
       <c r="O28" t="n">
-        <v>0.760176</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="b">
-        <v>0</v>
-      </c>
-      <c r="S28"/>
-      <c r="T28" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U28" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V28" t="s">
-        <v>300</v>
-      </c>
+        <v>100.144</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>284</v>
+      </c>
+      <c r="T28" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U28" t="s">
+        <v>285</v>
+      </c>
+      <c r="V28"/>
       <c r="W28" t="s">
-        <v>301</v>
-      </c>
-      <c r="X28" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X28" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y28" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B29" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F29" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G29" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="H29" t="s">
-        <v>217</v>
-      </c>
-      <c r="I29"/>
+        <v>188</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.000001</v>
+      </c>
       <c r="J29"/>
-      <c r="K29"/>
+      <c r="K29" t="n">
+        <v>0.1</v>
+      </c>
       <c r="L29" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="b">
-        <v>0</v>
-      </c>
-      <c r="S29" t="s">
+      <c r="N29" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O29" t="n">
+        <v>67.76</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29"/>
+      <c r="T29" s="6"/>
+      <c r="U29" t="s">
         <v>286</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U29" s="7" t="n">
-        <v>45461</v>
       </c>
       <c r="V29"/>
       <c r="W29" t="s">
-        <v>301</v>
-      </c>
-      <c r="X29" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X29" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y29" s="6" t="n">
+        <v>45314</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B30" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F30" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G30" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="H30" t="s">
-        <v>217</v>
-      </c>
-      <c r="I30"/>
+        <v>188</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.000001</v>
+      </c>
       <c r="J30"/>
-      <c r="K30"/>
+      <c r="K30" t="n">
+        <v>0.25</v>
+      </c>
       <c r="L30" t="s">
-        <v>218</v>
-      </c>
-      <c r="M30" t="s">
-        <v>220</v>
-      </c>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="b">
+        <v>205</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O30" t="n">
+        <v>160.494</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>287</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U30" s="7" t="n">
-        <v>45461</v>
+        <v>284</v>
+      </c>
+      <c r="T30" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U30" t="s">
+        <v>285</v>
       </c>
       <c r="V30"/>
       <c r="W30" t="s">
-        <v>301</v>
-      </c>
-      <c r="X30" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X30" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y30" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B31" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D31" t="n">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" t="s">
+        <v>204</v>
+      </c>
+      <c r="H31" t="s">
+        <v>188</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
-        <v>214</v>
-      </c>
-      <c r="F31" t="s">
-        <v>215</v>
-      </c>
-      <c r="G31" t="s">
-        <v>214</v>
-      </c>
-      <c r="H31" t="s">
-        <v>185</v>
-      </c>
-      <c r="I31" t="n">
-        <v>-0.000001</v>
-      </c>
-      <c r="J31"/>
-      <c r="K31"/>
       <c r="L31" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="M31"/>
       <c r="N31" t="n">
         <v>-0.000001</v>
       </c>
       <c r="O31" t="n">
-        <v>100.000001</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="b">
+        <v>171.616</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="S31"/>
-      <c r="T31" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U31" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V31" t="s">
-        <v>300</v>
-      </c>
+      <c r="T31" s="6"/>
+      <c r="U31" t="s">
+        <v>286</v>
+      </c>
+      <c r="V31"/>
       <c r="W31" t="s">
-        <v>301</v>
-      </c>
-      <c r="X31" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X31" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y31" s="6" t="n">
+        <v>45314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B32" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F32" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G32" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H32" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I32" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J32"/>
       <c r="K32"/>
-      <c r="L32"/>
+      <c r="L32" t="s">
+        <v>205</v>
+      </c>
       <c r="M32"/>
       <c r="N32" t="n">
         <v>-0.000001</v>
       </c>
       <c r="O32" t="n">
-        <v>100.000001</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>288</v>
-      </c>
-      <c r="T32" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U32" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V32" t="s">
-        <v>300</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="T32" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U32" t="s">
+        <v>285</v>
+      </c>
+      <c r="V32"/>
       <c r="W32" t="s">
-        <v>301</v>
-      </c>
-      <c r="X32" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X32" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y32" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B33" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="F33" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="G33" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="H33" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="I33" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
+      <c r="K33" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="L33" t="s">
+        <v>205</v>
+      </c>
       <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="b">
+      <c r="N33" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O33" t="n">
+        <v>189.725</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>289</v>
-      </c>
-      <c r="T33" s="4"/>
-      <c r="U33" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="T33" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U33" t="s">
+        <v>285</v>
+      </c>
       <c r="V33"/>
       <c r="W33" t="s">
-        <v>301</v>
-      </c>
-      <c r="X33" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X33" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y33" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B34" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D34" t="n">
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="F34" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="G34" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="H34" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="I34" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
+      <c r="K34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>205</v>
+      </c>
       <c r="M34"/>
       <c r="N34" t="n">
         <v>-0.000001</v>
       </c>
       <c r="O34" t="n">
-        <v>7213.632</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="b">
+        <v>263</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="S34"/>
-      <c r="T34" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U34" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V34" t="s">
-        <v>300</v>
-      </c>
+      <c r="T34" s="6"/>
+      <c r="U34" t="s">
+        <v>286</v>
+      </c>
+      <c r="V34"/>
       <c r="W34" t="s">
-        <v>301</v>
-      </c>
-      <c r="X34" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X34" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y34" s="6" t="n">
+        <v>45314</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B35" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="F35" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="G35" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="H35" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I35" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
+      <c r="K35" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L35" t="s">
+        <v>205</v>
+      </c>
       <c r="M35"/>
       <c r="N35" t="n">
         <v>-0.000001</v>
       </c>
       <c r="O35" t="n">
-        <v>100.000001</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="b">
-        <v>0</v>
-      </c>
-      <c r="S35"/>
-      <c r="T35" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U35" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V35" t="s">
-        <v>300</v>
-      </c>
+        <v>422.273</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="s">
+        <v>284</v>
+      </c>
+      <c r="T35" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U35" t="s">
+        <v>285</v>
+      </c>
+      <c r="V35"/>
       <c r="W35" t="s">
-        <v>301</v>
-      </c>
-      <c r="X35" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X35" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y35" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B36" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D36" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="F36" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="G36" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="H36" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="I36" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>205</v>
+      </c>
       <c r="M36"/>
       <c r="N36" t="n">
-        <v>8.24639</v>
+        <v>-0.000001</v>
       </c>
       <c r="O36" t="n">
-        <v>134.69196</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="b">
+        <v>267.6</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="S36"/>
-      <c r="T36" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U36" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V36" t="s">
-        <v>300</v>
-      </c>
+      <c r="T36" s="6"/>
+      <c r="U36" t="s">
+        <v>286</v>
+      </c>
+      <c r="V36"/>
       <c r="W36" t="s">
-        <v>301</v>
-      </c>
-      <c r="X36" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X36" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y36" s="6" t="n">
+        <v>45314</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B37" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D37" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="F37" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="G37" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="H37" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="I37" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J37"/>
-      <c r="K37" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="L37"/>
+      <c r="K37"/>
+      <c r="L37" t="s">
+        <v>205</v>
+      </c>
       <c r="M37"/>
       <c r="N37" t="n">
-        <v>1.6</v>
+        <v>-0.000001</v>
       </c>
       <c r="O37" t="n">
-        <v>125.5</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="b">
-        <v>0</v>
-      </c>
-      <c r="S37"/>
-      <c r="T37" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U37" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V37" t="s">
-        <v>300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
+        <v>284</v>
+      </c>
+      <c r="T37" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U37" t="s">
+        <v>285</v>
+      </c>
+      <c r="V37"/>
       <c r="W37" t="s">
-        <v>301</v>
-      </c>
-      <c r="X37" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X37" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y37" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B38" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D38" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="F38" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="G38" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="H38" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="I38" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J38"/>
       <c r="K38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L38"/>
+        <v>0.0625</v>
+      </c>
+      <c r="L38" t="s">
+        <v>205</v>
+      </c>
       <c r="M38"/>
       <c r="N38" t="n">
-        <v>4.059</v>
+        <v>-0.000001</v>
       </c>
       <c r="O38" t="n">
-        <v>79.941</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="b">
-        <v>0</v>
-      </c>
-      <c r="S38"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="7"/>
+        <v>539.696</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="s">
+        <v>284</v>
+      </c>
+      <c r="T38" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U38" t="s">
+        <v>285</v>
+      </c>
       <c r="V38"/>
       <c r="W38" t="s">
-        <v>301</v>
-      </c>
-      <c r="X38" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X38" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y38" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B39" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D39" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="F39" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="G39" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="H39" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="I39" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J39"/>
       <c r="K39" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L39"/>
+        <v>0.1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>205</v>
+      </c>
       <c r="M39"/>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>-0.000001</v>
       </c>
       <c r="O39" t="n">
-        <v>106</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="b">
+        <v>288.2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="S39"/>
-      <c r="T39" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U39" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V39" t="s">
-        <v>300</v>
-      </c>
+      <c r="T39" s="6"/>
+      <c r="U39" t="s">
+        <v>286</v>
+      </c>
+      <c r="V39"/>
       <c r="W39" t="s">
-        <v>301</v>
-      </c>
-      <c r="X39" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X39" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y39" s="6" t="n">
+        <v>45314</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B40" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D40" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="F40" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="G40" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="H40" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="I40" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J40"/>
       <c r="K40" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="L40"/>
+        <v>0.25</v>
+      </c>
+      <c r="L40" t="s">
+        <v>205</v>
+      </c>
       <c r="M40"/>
       <c r="N40" t="n">
-        <v>11.5628</v>
+        <v>-0.000001</v>
       </c>
       <c r="O40" t="n">
-        <v>76.32086</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="b">
-        <v>0</v>
-      </c>
-      <c r="S40"/>
-      <c r="T40" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U40" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V40" t="s">
-        <v>300</v>
-      </c>
+        <v>578.218</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="s">
+        <v>284</v>
+      </c>
+      <c r="T40" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U40" t="s">
+        <v>285</v>
+      </c>
+      <c r="V40"/>
       <c r="W40" t="s">
-        <v>301</v>
-      </c>
-      <c r="X40" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X40" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y40" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B41" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D41" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="F41" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="G41" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="H41" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="I41" t="n">
         <v>-0.000001</v>
@@ -3512,118 +3633,126 @@
       <c r="K41" t="n">
         <v>1</v>
       </c>
-      <c r="L41"/>
+      <c r="L41" t="s">
+        <v>205</v>
+      </c>
       <c r="M41"/>
       <c r="N41" t="n">
         <v>-0.000001</v>
       </c>
       <c r="O41" t="n">
-        <v>114.37</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="b">
+        <v>305.164</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="S41"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="7"/>
+      <c r="T41" s="6"/>
+      <c r="U41" t="s">
+        <v>286</v>
+      </c>
       <c r="V41"/>
       <c r="W41" t="s">
-        <v>301</v>
-      </c>
-      <c r="X41" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X41" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y41" s="6" t="n">
+        <v>45314</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B42" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="D42" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="F42" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="G42" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H42" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="I42" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
-      <c r="L42" t="s">
-        <v>221</v>
-      </c>
+      <c r="L42"/>
       <c r="M42"/>
       <c r="N42" t="n">
-        <v>-0.000001</v>
+        <v>0.01053</v>
       </c>
       <c r="O42" t="n">
-        <v>100.000001</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="b">
-        <v>0</v>
-      </c>
-      <c r="S42"/>
-      <c r="T42" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U42" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V42" t="s">
-        <v>300</v>
-      </c>
+        <v>15683.8</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="s">
+        <v>284</v>
+      </c>
+      <c r="T42" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U42" t="s">
+        <v>285</v>
+      </c>
+      <c r="V42"/>
       <c r="W42" t="s">
-        <v>301</v>
-      </c>
-      <c r="X42" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X42" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y42" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B43" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="D43" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="F43" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="G43" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="H43" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="I43" t="n">
         <v>-0.000001</v>
@@ -3636,55 +3765,58 @@
         <v>-0.000001</v>
       </c>
       <c r="O43" t="n">
-        <v>4947.1</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="b">
-        <v>0</v>
-      </c>
-      <c r="S43"/>
-      <c r="T43" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U43" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V43" t="s">
-        <v>300</v>
-      </c>
+        <v>100.000001</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="s">
+        <v>284</v>
+      </c>
+      <c r="T43" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U43" t="s">
+        <v>285</v>
+      </c>
+      <c r="V43"/>
       <c r="W43" t="s">
-        <v>301</v>
-      </c>
-      <c r="X43" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X43" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y43" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B44" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="D44" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="F44" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="G44" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="H44" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="I44" t="n">
         <v>-0.000001</v>
@@ -3694,1230 +3826,1244 @@
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44" t="n">
-        <v>-0.000001</v>
+        <v>8.24639</v>
       </c>
       <c r="O44" t="n">
-        <v>1041.818</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="b">
-        <v>0</v>
-      </c>
-      <c r="S44"/>
-      <c r="T44" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U44" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V44" t="s">
-        <v>300</v>
-      </c>
+        <v>134.69196</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="s">
+        <v>284</v>
+      </c>
+      <c r="T44" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U44" t="s">
+        <v>285</v>
+      </c>
+      <c r="V44"/>
       <c r="W44" t="s">
-        <v>301</v>
-      </c>
-      <c r="X44" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X44" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y44" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B45" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="D45" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="F45" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="G45" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="H45" t="s">
-        <v>240</v>
-      </c>
-      <c r="I45"/>
+        <v>209</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.000001</v>
+      </c>
       <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45" t="s">
-        <v>241</v>
-      </c>
-      <c r="M45" t="s">
-        <v>242</v>
-      </c>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="b">
+      <c r="K45" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O45" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>290</v>
-      </c>
-      <c r="T45" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U45" s="7" t="n">
-        <v>45461</v>
+        <v>284</v>
+      </c>
+      <c r="T45" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U45" t="s">
+        <v>285</v>
       </c>
       <c r="V45"/>
       <c r="W45" t="s">
-        <v>301</v>
-      </c>
-      <c r="X45" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X45" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y45" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B46" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D46" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F46" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="G46" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H46" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="I46" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J46"/>
-      <c r="K46"/>
+      <c r="K46" t="n">
+        <v>0.1</v>
+      </c>
       <c r="L46"/>
       <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="b">
-        <v>0</v>
-      </c>
-      <c r="S46" t="s">
-        <v>291</v>
-      </c>
-      <c r="T46" s="4"/>
-      <c r="U46" s="7"/>
+      <c r="N46" t="n">
+        <v>4.059</v>
+      </c>
+      <c r="O46" t="n">
+        <v>79.941</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46"/>
+      <c r="T46" s="6"/>
+      <c r="U46" t="s">
+        <v>292</v>
+      </c>
       <c r="V46"/>
       <c r="W46" t="s">
-        <v>301</v>
-      </c>
-      <c r="X46" s="7" t="n">
-        <v>45461</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="X46" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y46" s="6"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B47" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D47" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F47" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="G47" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="H47" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="I47" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47" t="s">
-        <v>244</v>
-      </c>
+      <c r="K47" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L47"/>
       <c r="M47"/>
       <c r="N47" t="n">
-        <v>-0.000001</v>
+        <v>2</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="b">
-        <v>0</v>
-      </c>
-      <c r="S47"/>
-      <c r="T47" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U47" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V47" t="s">
-        <v>300</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="s">
+        <v>284</v>
+      </c>
+      <c r="T47" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U47" t="s">
+        <v>285</v>
+      </c>
+      <c r="V47"/>
       <c r="W47" t="s">
-        <v>301</v>
-      </c>
-      <c r="X47" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X47" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y47" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B48" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D48" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F48" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="G48" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="H48" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="I48" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J48"/>
       <c r="K48" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="L48" t="s">
-        <v>244</v>
-      </c>
+        <v>0.33</v>
+      </c>
+      <c r="L48"/>
       <c r="M48"/>
       <c r="N48" t="n">
-        <v>-0.000001</v>
+        <v>11.5628</v>
       </c>
       <c r="O48" t="n">
-        <v>539.696</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="b">
-        <v>0</v>
-      </c>
-      <c r="S48"/>
-      <c r="T48" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U48" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V48" t="s">
-        <v>300</v>
-      </c>
+        <v>76.32086</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="s">
+        <v>284</v>
+      </c>
+      <c r="T48" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U48" t="s">
+        <v>285</v>
+      </c>
+      <c r="V48"/>
       <c r="W48" t="s">
-        <v>301</v>
-      </c>
-      <c r="X48" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X48" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y48" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B49" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D49" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F49" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="G49" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="H49" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="I49" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J49"/>
       <c r="K49" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L49" t="s">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L49"/>
       <c r="M49"/>
       <c r="N49" t="n">
         <v>-0.000001</v>
       </c>
       <c r="O49" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="b">
+        <v>114.37</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
         <v>0</v>
       </c>
       <c r="S49"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="7"/>
+      <c r="T49" s="6"/>
+      <c r="U49" t="s">
+        <v>286</v>
+      </c>
       <c r="V49"/>
       <c r="W49" t="s">
-        <v>301</v>
-      </c>
-      <c r="X49" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X49" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y49" s="6" t="n">
+        <v>45314</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B50" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D50" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="F50" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="G50" t="s">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="H50" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="I50" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J50"/>
-      <c r="K50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L50" t="s">
-        <v>244</v>
-      </c>
+      <c r="K50"/>
+      <c r="L50"/>
       <c r="M50"/>
-      <c r="N50" t="n">
-        <v>-0.000001</v>
-      </c>
-      <c r="O50" t="n">
-        <v>578.218</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="b">
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="S50"/>
-      <c r="T50" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U50" s="7" t="n">
-        <v>45461</v>
-      </c>
+      <c r="T50" s="6"/>
+      <c r="U50"/>
       <c r="V50" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="W50" t="s">
-        <v>301</v>
-      </c>
-      <c r="X50" s="7" t="n">
-        <v>45461</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="X50" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y50" s="6"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B51" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D51" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="F51" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G51" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="H51" t="s">
-        <v>238</v>
-      </c>
-      <c r="I51" t="n">
-        <v>-0.000001</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="I51"/>
       <c r="J51"/>
-      <c r="K51" t="n">
-        <v>1</v>
-      </c>
+      <c r="K51"/>
       <c r="L51" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="M51"/>
-      <c r="N51" t="n">
-        <v>-0.000001</v>
-      </c>
-      <c r="O51" t="n">
-        <v>305.164</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="b">
-        <v>0</v>
-      </c>
-      <c r="S51"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="7"/>
-      <c r="V51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="s">
+        <v>284</v>
+      </c>
+      <c r="T51" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U51"/>
+      <c r="V51" t="s">
+        <v>294</v>
+      </c>
       <c r="W51" t="s">
-        <v>301</v>
-      </c>
-      <c r="X51" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X51" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y51" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B52" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D52" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="F52" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G52" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="H52" t="s">
-        <v>238</v>
-      </c>
-      <c r="I52" t="n">
-        <v>-0.000001</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52" t="s">
-        <v>244</v>
-      </c>
-      <c r="M52"/>
-      <c r="N52" t="n">
-        <v>-0.000001</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="b">
-        <v>0</v>
-      </c>
-      <c r="S52"/>
-      <c r="T52" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U52" s="7" t="n">
-        <v>45461</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M52" t="s">
+        <v>219</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="s">
+        <v>284</v>
+      </c>
+      <c r="T52" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U52"/>
       <c r="V52" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="W52" t="s">
-        <v>301</v>
-      </c>
-      <c r="X52" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X52" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y52" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B53" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D53" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="F53" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G53" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="H53" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="I53" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J53"/>
-      <c r="K53" t="n">
-        <v>0.0625</v>
-      </c>
+      <c r="K53"/>
       <c r="L53" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="M53"/>
       <c r="N53" t="n">
         <v>-0.000001</v>
       </c>
       <c r="O53" t="n">
-        <v>189.725</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="b">
-        <v>0</v>
-      </c>
-      <c r="S53"/>
-      <c r="T53" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U53" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V53" t="s">
-        <v>300</v>
-      </c>
+        <v>100.000001</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="s">
+        <v>284</v>
+      </c>
+      <c r="T53" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U53" t="s">
+        <v>285</v>
+      </c>
+      <c r="V53"/>
       <c r="W53" t="s">
-        <v>301</v>
-      </c>
-      <c r="X53" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X53" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y53" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B54" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D54" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="F54" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G54" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="H54" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="I54" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J54"/>
-      <c r="K54" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L54" t="s">
-        <v>244</v>
-      </c>
+      <c r="K54"/>
+      <c r="L54"/>
       <c r="M54"/>
       <c r="N54" t="n">
         <v>-0.000001</v>
       </c>
       <c r="O54" t="n">
-        <v>263</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="b">
-        <v>0</v>
-      </c>
-      <c r="S54"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="7"/>
-      <c r="V54"/>
+        <v>100.000001</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="s">
+        <v>284</v>
+      </c>
+      <c r="T54" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U54" t="s">
+        <v>285</v>
+      </c>
+      <c r="V54" t="s">
+        <v>296</v>
+      </c>
       <c r="W54" t="s">
-        <v>301</v>
-      </c>
-      <c r="X54" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X54" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y54" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B55" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D55" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="F55" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G55" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="H55" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="I55" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J55"/>
-      <c r="K55" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="K55"/>
       <c r="L55" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="M55"/>
       <c r="N55" t="n">
         <v>-0.000001</v>
       </c>
       <c r="O55" t="n">
-        <v>422.273</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="b">
-        <v>0</v>
-      </c>
-      <c r="S55"/>
-      <c r="T55" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U55" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V55" t="s">
-        <v>300</v>
-      </c>
+        <v>100.000001</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="s">
+        <v>284</v>
+      </c>
+      <c r="T55" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U55" t="s">
+        <v>285</v>
+      </c>
+      <c r="V55"/>
       <c r="W55" t="s">
-        <v>301</v>
-      </c>
-      <c r="X55" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X55" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y55" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B56" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D56" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="F56" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G56" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="H56" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="I56" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J56"/>
-      <c r="K56" t="n">
-        <v>1</v>
-      </c>
+      <c r="K56"/>
       <c r="L56" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="M56"/>
       <c r="N56" t="n">
         <v>-0.000001</v>
       </c>
       <c r="O56" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="b">
-        <v>0</v>
-      </c>
-      <c r="S56"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="7"/>
-      <c r="V56"/>
+        <v>100.000001</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="s">
+        <v>284</v>
+      </c>
+      <c r="T56" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U56" t="s">
+        <v>285</v>
+      </c>
+      <c r="V56" t="s">
+        <v>296</v>
+      </c>
       <c r="W56" t="s">
-        <v>301</v>
-      </c>
-      <c r="X56" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X56" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y56" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B57" t="n">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D57" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="F57" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G57" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="H57" t="s">
-        <v>238</v>
-      </c>
-      <c r="I57" t="n">
-        <v>-0.000001</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57" t="s">
-        <v>244</v>
-      </c>
-      <c r="M57"/>
-      <c r="N57" t="n">
-        <v>-0.000001</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="b">
-        <v>0</v>
-      </c>
-      <c r="S57"/>
-      <c r="T57" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U57" s="7" t="n">
-        <v>45461</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M57" t="s">
+        <v>193</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="s">
+        <v>284</v>
+      </c>
+      <c r="T57" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U57"/>
       <c r="V57" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="W57" t="s">
-        <v>301</v>
-      </c>
-      <c r="X57" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X57" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y57" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B58" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D58" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="F58" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G58" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="H58" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="I58" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J58"/>
-      <c r="K58" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="L58" t="s">
-        <v>244</v>
-      </c>
+      <c r="K58"/>
+      <c r="L58"/>
       <c r="M58"/>
-      <c r="N58" t="n">
-        <v>-0.000001</v>
-      </c>
-      <c r="O58" t="n">
-        <v>100.144</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="b">
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
         <v>0</v>
       </c>
       <c r="S58"/>
-      <c r="T58" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U58" s="7" t="n">
-        <v>45461</v>
+      <c r="T58" s="6"/>
+      <c r="U58" t="s">
+        <v>286</v>
       </c>
       <c r="V58" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="W58" t="s">
-        <v>301</v>
-      </c>
-      <c r="X58" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X58" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y58" s="6" t="n">
+        <v>45314</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B59" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
         <v>225</v>
       </c>
       <c r="D59" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E59" t="s">
         <v>226</v>
       </c>
       <c r="F59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G59" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="H59" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="I59" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J59"/>
-      <c r="K59" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L59" t="s">
-        <v>244</v>
-      </c>
+      <c r="K59"/>
+      <c r="L59"/>
       <c r="M59"/>
       <c r="N59" t="n">
         <v>-0.000001</v>
       </c>
       <c r="O59" t="n">
-        <v>67.76</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="b">
-        <v>0</v>
-      </c>
-      <c r="S59"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="7"/>
+        <v>1041.818</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="s">
+        <v>284</v>
+      </c>
+      <c r="T59" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U59" t="s">
+        <v>285</v>
+      </c>
       <c r="V59"/>
       <c r="W59" t="s">
-        <v>301</v>
-      </c>
-      <c r="X59" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X59" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y59" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B60" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>225</v>
       </c>
       <c r="D60" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
         <v>226</v>
       </c>
       <c r="F60" t="s">
+        <v>226</v>
+      </c>
+      <c r="G60" t="s">
         <v>227</v>
       </c>
-      <c r="G60" t="s">
-        <v>246</v>
-      </c>
       <c r="H60" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.000001</v>
+        <v>0.000001</v>
       </c>
       <c r="J60"/>
-      <c r="K60" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L60" t="s">
-        <v>244</v>
-      </c>
+      <c r="K60"/>
+      <c r="L60"/>
       <c r="M60"/>
-      <c r="N60" t="n">
-        <v>-0.000001</v>
-      </c>
-      <c r="O60" t="n">
-        <v>160.494</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="b">
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
         <v>0</v>
       </c>
       <c r="S60"/>
-      <c r="T60" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U60" s="7" t="n">
-        <v>45461</v>
-      </c>
+      <c r="T60" s="6"/>
+      <c r="U60"/>
       <c r="V60" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="W60" t="s">
-        <v>301</v>
-      </c>
-      <c r="X60" s="7" t="n">
-        <v>45461</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="X60" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y60" s="6"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B61" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
         <v>225</v>
       </c>
       <c r="D61" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
         <v>226</v>
       </c>
       <c r="F61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G61" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="H61" t="s">
-        <v>238</v>
-      </c>
-      <c r="I61" t="n">
-        <v>-0.000001</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="I61"/>
       <c r="J61"/>
-      <c r="K61" t="n">
-        <v>1</v>
-      </c>
+      <c r="K61"/>
       <c r="L61" t="s">
-        <v>244</v>
-      </c>
-      <c r="M61"/>
-      <c r="N61" t="n">
-        <v>-0.000001</v>
-      </c>
-      <c r="O61" t="n">
-        <v>171.616</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="b">
-        <v>0</v>
-      </c>
-      <c r="S61"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="7"/>
-      <c r="V61"/>
+        <v>192</v>
+      </c>
+      <c r="M61" t="s">
+        <v>193</v>
+      </c>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="s">
+        <v>284</v>
+      </c>
+      <c r="T61" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U61"/>
+      <c r="V61" t="s">
+        <v>300</v>
+      </c>
       <c r="W61" t="s">
-        <v>301</v>
-      </c>
-      <c r="X61" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X61" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y61" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B62" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D62" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F62" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="G62" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="H62" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.000001</v>
+        <v>0.000001</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
-      <c r="L62" t="s">
-        <v>221</v>
-      </c>
+      <c r="L62"/>
       <c r="M62"/>
-      <c r="N62" t="n">
-        <v>-0.000001</v>
-      </c>
-      <c r="O62" t="n">
-        <v>42</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="b">
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
         <v>0</v>
       </c>
       <c r="S62"/>
-      <c r="T62" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U62" s="7" t="n">
-        <v>45461</v>
-      </c>
+      <c r="T62" s="6"/>
+      <c r="U62"/>
       <c r="V62" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="W62" t="s">
-        <v>301</v>
-      </c>
-      <c r="X62" s="7" t="n">
-        <v>45461</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="X62" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y62" s="6"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B63" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="F63" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="G63" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="H63" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.000001</v>
+        <v>0.000001</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63"/>
       <c r="N63" t="n">
-        <v>-0.000001</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>37.531</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="b">
-        <v>0</v>
-      </c>
-      <c r="S63"/>
-      <c r="T63" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U63" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V63" t="s">
-        <v>300</v>
-      </c>
+        <v>67.5</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="s">
+        <v>284</v>
+      </c>
+      <c r="T63" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U63" t="s">
+        <v>285</v>
+      </c>
+      <c r="V63"/>
       <c r="W63" t="s">
-        <v>301</v>
-      </c>
-      <c r="X63" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X63" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y63" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B64" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D64" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F64" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G64" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H64" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.000001</v>
+        <v>0.000001</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
@@ -4925,1219 +5071,1280 @@
       <c r="M64"/>
       <c r="N64"/>
       <c r="O64"/>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="b">
-        <v>0</v>
-      </c>
-      <c r="S64" t="s">
-        <v>292</v>
-      </c>
-      <c r="T64" s="4"/>
-      <c r="U64" s="7"/>
-      <c r="V64"/>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64"/>
+      <c r="T64" s="6"/>
+      <c r="U64"/>
+      <c r="V64" t="s">
+        <v>302</v>
+      </c>
       <c r="W64" t="s">
-        <v>301</v>
-      </c>
-      <c r="X64" s="7" t="n">
-        <v>45461</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="X64" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y64" s="6"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B65" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D65" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="F65" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H65" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.000001</v>
+        <v>0.000001</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65"/>
-      <c r="N65" t="n">
-        <v>-0.000001</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="b">
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
         <v>0</v>
       </c>
       <c r="S65"/>
-      <c r="T65" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U65" s="7" t="n">
-        <v>45461</v>
-      </c>
+      <c r="T65" s="6"/>
+      <c r="U65"/>
       <c r="V65" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="W65" t="s">
-        <v>301</v>
-      </c>
-      <c r="X65" s="7" t="n">
-        <v>45461</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="X65" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y65" s="6"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B66" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D66" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="F66" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G66" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H66" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66"/>
-      <c r="L66" t="s">
-        <v>241</v>
-      </c>
-      <c r="M66" t="s">
-        <v>242</v>
-      </c>
-      <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="b">
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66" t="n">
+        <v>0.003044</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.4778</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>290</v>
-      </c>
-      <c r="T66" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U66" s="7" t="n">
-        <v>45461</v>
+        <v>284</v>
+      </c>
+      <c r="T66" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U66" t="s">
+        <v>285</v>
       </c>
       <c r="V66"/>
       <c r="W66" t="s">
-        <v>301</v>
-      </c>
-      <c r="X66" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X66" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y66" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B67" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D67" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F67" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="G67" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="H67" t="s">
-        <v>224</v>
-      </c>
-      <c r="I67" t="n">
-        <v>-0.000001</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I67"/>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67"/>
-      <c r="N67"/>
-      <c r="O67"/>
-      <c r="P67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="b">
+      <c r="N67" t="n">
+        <v>-0.025045</v>
+      </c>
+      <c r="O67" t="n">
+        <v>5.67755</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
         <v>0</v>
       </c>
       <c r="S67" t="s">
-        <v>293</v>
-      </c>
-      <c r="T67" s="4"/>
-      <c r="U67" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="T67" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U67" t="s">
+        <v>285</v>
+      </c>
       <c r="V67"/>
       <c r="W67" t="s">
-        <v>301</v>
-      </c>
-      <c r="X67" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X67" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y67" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B68" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D68" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E68" t="s">
+        <v>231</v>
+      </c>
+      <c r="F68" t="s">
+        <v>232</v>
+      </c>
+      <c r="G68" t="s">
+        <v>236</v>
+      </c>
+      <c r="H68" t="s">
         <v>234</v>
       </c>
-      <c r="F68" t="s">
-        <v>235</v>
-      </c>
-      <c r="G68" t="s">
-        <v>252</v>
-      </c>
-      <c r="H68" t="s">
-        <v>185</v>
-      </c>
-      <c r="I68" t="n">
-        <v>-0.000001</v>
-      </c>
+      <c r="I68"/>
       <c r="J68"/>
       <c r="K68"/>
-      <c r="L68" t="s">
-        <v>221</v>
-      </c>
+      <c r="L68"/>
       <c r="M68"/>
       <c r="N68" t="n">
-        <v>-0.000001</v>
+        <v>-0.0023</v>
       </c>
       <c r="O68" t="n">
-        <v>103.22</v>
-      </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="b">
-        <v>0</v>
-      </c>
-      <c r="S68"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="7"/>
+        <v>3.13939</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="s">
+        <v>284</v>
+      </c>
+      <c r="T68" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U68" t="s">
+        <v>285</v>
+      </c>
       <c r="V68"/>
       <c r="W68" t="s">
-        <v>301</v>
-      </c>
-      <c r="X68" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X68" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y68" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
+        <v>28</v>
+      </c>
+      <c r="B69" t="n">
         <v>73</v>
-      </c>
-      <c r="B69" t="n">
-        <v>51</v>
       </c>
       <c r="C69" t="s">
         <v>225</v>
       </c>
       <c r="D69" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F69" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G69" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="H69" t="s">
-        <v>232</v>
-      </c>
-      <c r="I69" t="n">
-        <v>-0.000001</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69" t="n">
-        <v>0.01053</v>
+        <v>-0.000001</v>
       </c>
       <c r="O69" t="n">
-        <v>15683.8</v>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="b">
-        <v>0</v>
-      </c>
-      <c r="S69"/>
-      <c r="T69" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U69" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V69" t="s">
-        <v>300</v>
-      </c>
+        <v>0.79552</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="s">
+        <v>284</v>
+      </c>
+      <c r="T69" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U69" t="s">
+        <v>285</v>
+      </c>
+      <c r="V69"/>
       <c r="W69" t="s">
-        <v>301</v>
-      </c>
-      <c r="X69" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X69" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y69" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B70" t="n">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E70" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F70" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="G70" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="H70" t="s">
-        <v>255</v>
-      </c>
-      <c r="I70" t="n">
-        <v>-0.000001</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I70"/>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="b">
+      <c r="N70" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
         <v>0</v>
       </c>
       <c r="S70" t="s">
-        <v>294</v>
-      </c>
-      <c r="T70" s="4"/>
-      <c r="U70" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="T70" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U70" t="s">
+        <v>285</v>
+      </c>
       <c r="V70"/>
       <c r="W70" t="s">
-        <v>301</v>
-      </c>
-      <c r="X70" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X70" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y70" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B71" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D71" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F71" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G71" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="H71" t="s">
-        <v>185</v>
-      </c>
-      <c r="I71" t="n">
-        <v>-0.000001</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
-      <c r="L71" t="s">
-        <v>221</v>
-      </c>
+      <c r="L71"/>
       <c r="M71"/>
       <c r="N71" t="n">
-        <v>-0.000001</v>
+        <v>0.029</v>
       </c>
       <c r="O71" t="n">
-        <v>100.000001</v>
-      </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="b">
+        <v>2.7</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
         <v>0</v>
       </c>
       <c r="S71"/>
-      <c r="T71" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U71" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V71" t="s">
-        <v>300</v>
-      </c>
+      <c r="T71" s="6"/>
+      <c r="U71" t="s">
+        <v>292</v>
+      </c>
+      <c r="V71"/>
       <c r="W71" t="s">
-        <v>301</v>
-      </c>
-      <c r="X71" s="7" t="n">
-        <v>45461</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="X71" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y71" s="6"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B72" t="n">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D72" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F72" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G72" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="H72" t="s">
-        <v>258</v>
-      </c>
-      <c r="I72" t="n">
-        <v>-0.000001</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72"/>
       <c r="M72"/>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>-0.007</v>
       </c>
       <c r="O72" t="n">
-        <v>155</v>
-      </c>
-      <c r="P72" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="b">
-        <v>0</v>
-      </c>
-      <c r="S72"/>
-      <c r="T72" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U72" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V72" t="s">
-        <v>300</v>
-      </c>
+        <v>0.75252</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="s">
+        <v>284</v>
+      </c>
+      <c r="T72" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U72" t="s">
+        <v>285</v>
+      </c>
+      <c r="V72"/>
       <c r="W72" t="s">
-        <v>301</v>
-      </c>
-      <c r="X72" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X72" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y72" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B73" t="n">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D73" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E73" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F73" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G73" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="H73" t="s">
-        <v>258</v>
-      </c>
-      <c r="I73" t="n">
-        <v>-0.000001</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>-0.000001</v>
       </c>
       <c r="O73" t="n">
-        <v>361.87</v>
-      </c>
-      <c r="P73" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="b">
-        <v>0</v>
-      </c>
-      <c r="S73"/>
-      <c r="T73" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U73" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V73" t="s">
-        <v>300</v>
-      </c>
+        <v>5.07</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="s">
+        <v>284</v>
+      </c>
+      <c r="T73" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U73" t="s">
+        <v>285</v>
+      </c>
+      <c r="V73"/>
       <c r="W73" t="s">
-        <v>301</v>
-      </c>
-      <c r="X73" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X73" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y73" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D74" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F74" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G74" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H74" t="s">
-        <v>258</v>
-      </c>
-      <c r="I74" t="n">
-        <v>-0.000001</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I74"/>
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74" t="n">
-        <v>2</v>
+        <v>0.00007</v>
       </c>
       <c r="O74" t="n">
-        <v>220</v>
-      </c>
-      <c r="P74" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q74" t="b">
-        <v>0</v>
-      </c>
-      <c r="S74"/>
-      <c r="T74" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U74" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V74" t="s">
-        <v>300</v>
-      </c>
+        <v>4.2</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="s">
+        <v>284</v>
+      </c>
+      <c r="T74" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U74" t="s">
+        <v>285</v>
+      </c>
+      <c r="V74"/>
       <c r="W74" t="s">
-        <v>301</v>
-      </c>
-      <c r="X74" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X74" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y74" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B75" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D75" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F75" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G75" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="H75" t="s">
-        <v>258</v>
-      </c>
-      <c r="I75" t="n">
-        <v>-0.000001</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I75"/>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75" t="n">
-        <v>-0.000001</v>
+        <v>0.00006</v>
       </c>
       <c r="O75" t="n">
-        <v>240</v>
-      </c>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="b">
-        <v>0</v>
-      </c>
-      <c r="S75"/>
-      <c r="T75" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U75" s="7" t="n">
-        <v>45461</v>
+        <v>2.7462</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="s">
+        <v>284</v>
+      </c>
+      <c r="T75" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U75" t="s">
+        <v>285</v>
       </c>
       <c r="V75" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="W75" t="s">
-        <v>301</v>
-      </c>
-      <c r="X75" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X75" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y75" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B76" t="n">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F76" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G76" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="H76" t="s">
-        <v>258</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.000001</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I76"/>
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="b">
+      <c r="N76" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
         <v>0</v>
       </c>
       <c r="S76" t="s">
-        <v>295</v>
-      </c>
-      <c r="T76" s="4"/>
-      <c r="U76" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="T76" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U76" t="s">
+        <v>285</v>
+      </c>
       <c r="V76"/>
       <c r="W76" t="s">
-        <v>301</v>
-      </c>
-      <c r="X76" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X76" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y76" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B77" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F77" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G77" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="H77" t="s">
-        <v>258</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.000001</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="I77"/>
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77"/>
       <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77"/>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="b">
+      <c r="N77" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O77" t="n">
+        <v>120</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
         <v>0</v>
       </c>
       <c r="S77" t="s">
-        <v>296</v>
-      </c>
-      <c r="T77" s="4"/>
-      <c r="U77" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="T77" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U77" t="s">
+        <v>285</v>
+      </c>
       <c r="V77"/>
       <c r="W77" t="s">
-        <v>301</v>
-      </c>
-      <c r="X77" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X77" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y77" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B78" t="n">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F78" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G78" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="H78" t="s">
-        <v>258</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.000001</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="I78"/>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>-0.000001</v>
       </c>
       <c r="O78" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="b">
-        <v>0</v>
-      </c>
-      <c r="S78"/>
-      <c r="T78" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U78" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V78" t="s">
-        <v>300</v>
-      </c>
+        <v>116.508</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="s">
+        <v>284</v>
+      </c>
+      <c r="T78" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U78" t="s">
+        <v>285</v>
+      </c>
+      <c r="V78"/>
       <c r="W78" t="s">
-        <v>301</v>
-      </c>
-      <c r="X78" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X78" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y78" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B79" t="n">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F79" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G79" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="H79" t="s">
-        <v>258</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.000001</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I79"/>
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79"/>
       <c r="M79"/>
-      <c r="N79"/>
-      <c r="O79"/>
-      <c r="P79" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="b">
+      <c r="N79" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O79" t="n">
+        <v>711.61</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
         <v>0</v>
       </c>
       <c r="S79" t="s">
-        <v>297</v>
-      </c>
-      <c r="T79" s="4"/>
-      <c r="U79" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="T79" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U79" t="s">
+        <v>285</v>
+      </c>
       <c r="V79"/>
       <c r="W79" t="s">
-        <v>301</v>
-      </c>
-      <c r="X79" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X79" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y79" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B80" t="n">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F80" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G80" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="H80" t="s">
-        <v>258</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.000001</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80"/>
       <c r="M80"/>
       <c r="N80"/>
       <c r="O80"/>
-      <c r="P80" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="b">
-        <v>0</v>
-      </c>
-      <c r="S80" t="s">
-        <v>298</v>
-      </c>
-      <c r="T80" s="4"/>
-      <c r="U80" s="7"/>
-      <c r="V80"/>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80"/>
+      <c r="T80" s="6"/>
+      <c r="U80"/>
+      <c r="V80" t="s">
+        <v>305</v>
+      </c>
       <c r="W80" t="s">
-        <v>301</v>
-      </c>
-      <c r="X80" s="7" t="n">
-        <v>45461</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="X80" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y80" s="6"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B81" t="n">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="F81" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="G81" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H81" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
-      <c r="L81" t="s">
-        <v>241</v>
-      </c>
-      <c r="M81" t="s">
-        <v>242</v>
-      </c>
-      <c r="N81"/>
-      <c r="O81"/>
-      <c r="P81" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="b">
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O81" t="n">
+        <v>7.938975</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
         <v>0</v>
       </c>
       <c r="S81" t="s">
-        <v>290</v>
-      </c>
-      <c r="T81" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U81" s="7" t="n">
-        <v>45461</v>
+        <v>284</v>
+      </c>
+      <c r="T81" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U81" t="s">
+        <v>285</v>
       </c>
       <c r="V81"/>
       <c r="W81" t="s">
-        <v>301</v>
-      </c>
-      <c r="X81" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X81" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y81" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B82" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="F82" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="G82" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="H82" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.000001</v>
-      </c>
-      <c r="J82"/>
+        <v>0.000001</v>
+      </c>
+      <c r="J82" t="n">
+        <v>50</v>
+      </c>
       <c r="K82"/>
       <c r="L82" t="s">
-        <v>268</v>
-      </c>
-      <c r="M82"/>
+        <v>256</v>
+      </c>
+      <c r="M82" t="s">
+        <v>257</v>
+      </c>
       <c r="N82" t="n">
-        <v>-0.000001</v>
+        <v>0.1</v>
       </c>
       <c r="O82" t="n">
-        <v>100.000001</v>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="b">
-        <v>0</v>
-      </c>
-      <c r="S82"/>
-      <c r="T82" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U82" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V82" t="s">
-        <v>300</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="s">
+        <v>284</v>
+      </c>
+      <c r="T82" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U82" t="s">
+        <v>285</v>
+      </c>
+      <c r="V82"/>
       <c r="W82" t="s">
-        <v>301</v>
-      </c>
-      <c r="X82" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X82" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y82" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B83" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="F83" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="G83" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H83" t="s">
-        <v>185</v>
-      </c>
-      <c r="I83" t="n">
-        <v>-0.000001</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I83"/>
       <c r="J83"/>
       <c r="K83"/>
-      <c r="L83" t="s">
-        <v>269</v>
-      </c>
+      <c r="L83"/>
       <c r="M83"/>
       <c r="N83" t="n">
         <v>-0.000001</v>
       </c>
       <c r="O83" t="n">
-        <v>100.000001</v>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="b">
-        <v>1</v>
+        <v>180.854</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
       </c>
       <c r="S83" t="s">
-        <v>288</v>
-      </c>
-      <c r="T83" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U83" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V83" t="s">
-        <v>300</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="T83" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U83" t="s">
+        <v>285</v>
+      </c>
+      <c r="V83"/>
       <c r="W83" t="s">
-        <v>301</v>
-      </c>
-      <c r="X83" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X83" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y83" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B84" t="n">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="F84" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="G84" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H84" t="s">
-        <v>176</v>
-      </c>
-      <c r="I84"/>
-      <c r="J84"/>
+        <v>261</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4000</v>
+      </c>
       <c r="K84"/>
       <c r="L84"/>
       <c r="M84"/>
       <c r="N84" t="n">
-        <v>0.003044</v>
+        <v>-0.000001</v>
       </c>
       <c r="O84" t="n">
-        <v>0.4778</v>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="b">
-        <v>0</v>
-      </c>
-      <c r="S84"/>
-      <c r="T84" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U84" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V84" t="s">
-        <v>300</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="s">
+        <v>284</v>
+      </c>
+      <c r="T84" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U84" t="s">
+        <v>285</v>
+      </c>
+      <c r="V84"/>
       <c r="W84" t="s">
-        <v>301</v>
-      </c>
-      <c r="X84" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X84" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y84" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B85" t="n">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="D85" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="F85" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="G85" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H85" t="s">
-        <v>176</v>
+        <v>261</v>
       </c>
       <c r="I85"/>
       <c r="J85"/>
@@ -6148,426 +6355,494 @@
         <v>-0.000001</v>
       </c>
       <c r="O85" t="n">
-        <v>0.78714</v>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="b">
-        <v>0</v>
-      </c>
-      <c r="S85"/>
-      <c r="T85" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U85" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V85" t="s">
-        <v>300</v>
-      </c>
+        <v>124.736197</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="s">
+        <v>284</v>
+      </c>
+      <c r="T85" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U85" t="s">
+        <v>285</v>
+      </c>
+      <c r="V85"/>
       <c r="W85" t="s">
-        <v>301</v>
-      </c>
-      <c r="X85" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X85" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y85" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="D86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="F86" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="G86" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="H86" t="s">
-        <v>176</v>
-      </c>
-      <c r="I86"/>
-      <c r="J86"/>
+        <v>234</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="J86" t="n">
+        <v>50</v>
+      </c>
       <c r="K86"/>
       <c r="L86"/>
       <c r="M86"/>
       <c r="N86" t="n">
-        <v>-0.000001</v>
+        <v>0.1</v>
       </c>
       <c r="O86" t="n">
-        <v>0.079406</v>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="b">
+        <v>13.4</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
         <v>0</v>
       </c>
       <c r="S86"/>
-      <c r="T86" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U86" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V86" t="s">
-        <v>300</v>
-      </c>
+      <c r="T86" s="6"/>
+      <c r="U86" t="s">
+        <v>289</v>
+      </c>
+      <c r="V86"/>
       <c r="W86" t="s">
-        <v>301</v>
-      </c>
-      <c r="X86" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X86" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y86" s="6" t="n">
+        <v>45257</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B87" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="D87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="G87" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="H87" t="s">
-        <v>176</v>
-      </c>
-      <c r="I87"/>
-      <c r="J87"/>
+        <v>234</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.000001</v>
+      </c>
+      <c r="J87" t="n">
+        <v>22</v>
+      </c>
       <c r="K87"/>
       <c r="L87"/>
       <c r="M87"/>
       <c r="N87" t="n">
-        <v>0.029</v>
+        <v>0.22</v>
       </c>
       <c r="O87" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="b">
-        <v>0</v>
-      </c>
-      <c r="S87"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="s">
+        <v>284</v>
+      </c>
+      <c r="T87" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U87" t="s">
+        <v>285</v>
+      </c>
       <c r="V87"/>
       <c r="W87" t="s">
-        <v>301</v>
-      </c>
-      <c r="X87" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X87" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y87" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B88" t="n">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D88" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="F88" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="G88" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="H88" t="s">
-        <v>238</v>
-      </c>
-      <c r="I88"/>
-      <c r="J88"/>
+        <v>179</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="J88" t="n">
+        <v>500</v>
+      </c>
       <c r="K88"/>
       <c r="L88"/>
       <c r="M88"/>
       <c r="N88" t="n">
-        <v>-0.000001</v>
+        <v>1.6</v>
       </c>
       <c r="O88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="b">
-        <v>0</v>
-      </c>
-      <c r="S88"/>
-      <c r="T88" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U88" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V88" t="s">
-        <v>300</v>
-      </c>
+        <v>170.8</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" t="s">
+        <v>284</v>
+      </c>
+      <c r="T88" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U88" t="s">
+        <v>285</v>
+      </c>
+      <c r="V88"/>
       <c r="W88" t="s">
-        <v>301</v>
-      </c>
-      <c r="X88" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X88" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y88" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B89" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D89" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="F89" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G89" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="H89" t="s">
-        <v>240</v>
-      </c>
-      <c r="I89"/>
-      <c r="J89"/>
+        <v>179</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.000001</v>
+      </c>
+      <c r="J89" t="n">
+        <v>310</v>
+      </c>
       <c r="K89"/>
       <c r="L89"/>
       <c r="M89"/>
-      <c r="N89"/>
-      <c r="O89"/>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="b">
+      <c r="N89" t="n">
+        <v>0.313613</v>
+      </c>
+      <c r="O89" t="n">
+        <v>175.291124</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
         <v>0</v>
       </c>
       <c r="S89" t="s">
-        <v>290</v>
-      </c>
-      <c r="T89" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U89" s="7" t="n">
-        <v>45461</v>
+        <v>284</v>
+      </c>
+      <c r="T89" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U89" t="s">
+        <v>285</v>
       </c>
       <c r="V89"/>
       <c r="W89" t="s">
-        <v>301</v>
-      </c>
-      <c r="X89" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X89" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y89" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B90" t="n">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D90" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F90" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="G90" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H90" t="s">
-        <v>258</v>
-      </c>
-      <c r="I90"/>
-      <c r="J90"/>
+        <v>266</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="J90" t="n">
+        <v>70</v>
+      </c>
       <c r="K90"/>
       <c r="L90"/>
       <c r="M90"/>
-      <c r="N90"/>
-      <c r="O90"/>
-      <c r="P90" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="b">
+      <c r="N90" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O90" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
         <v>0</v>
       </c>
       <c r="S90" t="s">
-        <v>299</v>
-      </c>
-      <c r="T90" s="4"/>
-      <c r="U90" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="T90" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U90" t="s">
+        <v>285</v>
+      </c>
       <c r="V90"/>
       <c r="W90" t="s">
-        <v>301</v>
-      </c>
-      <c r="X90" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X90" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y90" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="D91" t="n">
         <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="F91" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="G91" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="H91" t="s">
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="I91" t="n">
         <v>-0.000001</v>
       </c>
       <c r="J91" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K91"/>
       <c r="L91"/>
-      <c r="M91"/>
+      <c r="M91" t="s">
+        <v>267</v>
+      </c>
       <c r="N91" t="n">
-        <v>0.1</v>
+        <v>-0.000001</v>
       </c>
       <c r="O91" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="P91" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="b">
-        <v>0</v>
-      </c>
-      <c r="S91"/>
-      <c r="T91" s="4"/>
-      <c r="U91" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="s">
+        <v>284</v>
+      </c>
+      <c r="T91" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U91" t="s">
+        <v>285</v>
+      </c>
       <c r="V91"/>
       <c r="W91" t="s">
-        <v>301</v>
-      </c>
-      <c r="X91" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X91" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y91" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="D92" t="n">
         <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="F92" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="G92" t="s">
-        <v>177</v>
+        <v>268</v>
       </c>
       <c r="H92" t="s">
-        <v>178</v>
+        <v>269</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.000001</v>
+        <v>0.005000001</v>
       </c>
       <c r="J92" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K92"/>
       <c r="L92"/>
-      <c r="M92"/>
+      <c r="M92" t="s">
+        <v>270</v>
+      </c>
       <c r="N92" t="n">
-        <v>-0.000001</v>
+        <v>0.0054</v>
       </c>
       <c r="O92" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="b">
-        <v>0</v>
-      </c>
-      <c r="S92"/>
-      <c r="T92" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U92" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V92" t="s">
-        <v>300</v>
-      </c>
+        <v>60.381584</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="s">
+        <v>284</v>
+      </c>
+      <c r="T92" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U92" t="s">
+        <v>285</v>
+      </c>
+      <c r="V92"/>
       <c r="W92" t="s">
-        <v>301</v>
-      </c>
-      <c r="X92" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X92" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y92" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="93">
@@ -6578,22 +6853,22 @@
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="D93" t="n">
         <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="F93" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="G93" t="s">
-        <v>180</v>
+        <v>271</v>
       </c>
       <c r="H93" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="I93" t="n">
         <v>-5</v>
@@ -6610,210 +6885,224 @@
       <c r="O93" t="n">
         <v>33.8</v>
       </c>
-      <c r="P93" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="b">
-        <v>0</v>
-      </c>
-      <c r="S93"/>
-      <c r="T93" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U93" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V93" t="s">
-        <v>300</v>
-      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="s">
+        <v>284</v>
+      </c>
+      <c r="T93" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U93" t="s">
+        <v>285</v>
+      </c>
+      <c r="V93"/>
       <c r="W93" t="s">
-        <v>301</v>
-      </c>
-      <c r="X93" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X93" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y93" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="D94" t="n">
         <v>7</v>
       </c>
       <c r="E94" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="F94" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="G94" t="s">
-        <v>182</v>
+        <v>271</v>
       </c>
       <c r="H94" t="s">
-        <v>183</v>
+        <v>272</v>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K94"/>
       <c r="L94"/>
       <c r="M94"/>
       <c r="N94" t="n">
-        <v>5</v>
+        <v>6.59466</v>
       </c>
       <c r="O94" t="n">
-        <v>9</v>
-      </c>
-      <c r="P94" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="b">
-        <v>0</v>
-      </c>
-      <c r="S94"/>
-      <c r="T94" s="4"/>
-      <c r="U94" s="7"/>
+        <v>33.9</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="s">
+        <v>284</v>
+      </c>
+      <c r="T94" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U94" t="s">
+        <v>285</v>
+      </c>
       <c r="V94"/>
       <c r="W94" t="s">
-        <v>301</v>
-      </c>
-      <c r="X94" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X94" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y94" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="D95" t="n">
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="F95" t="s">
+        <v>259</v>
+      </c>
+      <c r="G95" t="s">
+        <v>273</v>
+      </c>
+      <c r="H95" t="s">
         <v>274</v>
       </c>
-      <c r="G95" t="s">
-        <v>184</v>
-      </c>
-      <c r="H95" t="s">
-        <v>185</v>
-      </c>
       <c r="I95" t="n">
-        <v>-0.000001</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>500</v>
+        <v>14</v>
       </c>
       <c r="K95"/>
       <c r="L95"/>
       <c r="M95"/>
       <c r="N95" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="O95" t="n">
-        <v>171.3</v>
-      </c>
-      <c r="P95" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q95" t="b">
+        <v>9</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
         <v>0</v>
       </c>
       <c r="S95"/>
-      <c r="T95" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U95" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V95" t="s">
-        <v>300</v>
-      </c>
+      <c r="T95" s="6"/>
+      <c r="U95" t="s">
+        <v>289</v>
+      </c>
+      <c r="V95"/>
       <c r="W95" t="s">
-        <v>301</v>
-      </c>
-      <c r="X95" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X95" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y95" s="6" t="n">
+        <v>45257</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B96" t="n">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>225</v>
+      </c>
+      <c r="D96" t="n">
         <v>7</v>
       </c>
-      <c r="C96" t="s">
-        <v>172</v>
-      </c>
-      <c r="D96" t="n">
-        <v>8</v>
-      </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="F96" t="s">
+        <v>232</v>
+      </c>
+      <c r="G96" t="s">
+        <v>273</v>
+      </c>
+      <c r="H96" t="s">
         <v>274</v>
       </c>
-      <c r="G96" t="s">
-        <v>190</v>
-      </c>
-      <c r="H96" t="s">
-        <v>191</v>
-      </c>
       <c r="I96" t="n">
-        <v>-0.000001</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>4000</v>
+        <v>13</v>
       </c>
       <c r="K96"/>
       <c r="L96"/>
       <c r="M96"/>
       <c r="N96" t="n">
-        <v>-0.000001</v>
+        <v>5.3</v>
       </c>
       <c r="O96" t="n">
-        <v>538</v>
-      </c>
-      <c r="P96" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q96" t="b">
-        <v>0</v>
-      </c>
-      <c r="S96"/>
-      <c r="T96" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="U96" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="V96" t="s">
-        <v>300</v>
-      </c>
+        <v>9.3</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="s">
+        <v>284</v>
+      </c>
+      <c r="T96" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U96" t="s">
+        <v>285</v>
+      </c>
+      <c r="V96"/>
       <c r="W96" t="s">
-        <v>301</v>
-      </c>
-      <c r="X96" s="7" t="n">
-        <v>45461</v>
+        <v>283</v>
+      </c>
+      <c r="X96" s="6" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y96" s="6" t="n">
+        <v>45483</v>
       </c>
     </row>
   </sheetData>

--- a/output/ScriptResults/Database_Thresholds.xlsx
+++ b/output/ScriptResults/Database_Thresholds.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t>Just a database ID. Retaining this in future correspondence will allow for the most efficient update, based on this single column.</t>
   </si>
@@ -939,6 +939,12 @@
   </si>
   <si>
     <t xml:space="preserve">Water Column - Fluorescent dissolved organic matter, FDOM not included in SEACAR data export tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated: 2024-07-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database_Thresholds.xlsx, Git Commit ID: 51214cf344547100c5a54d26465d79cec9558701</t>
   </si>
 </sst>
 </file>
@@ -979,14 +985,11 @@
       <sz val="16"/>
       <color rgb="FF2F5496"/>
       <name val="Calibri Light"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
       <b/>
     </font>
     <font>
@@ -1373,7 +1376,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>154</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" ht="158.44999999999999" customHeight="1">
@@ -1553,7 +1556,7 @@
         <v>283</v>
       </c>
       <c r="X8" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y8" s="6"/>
     </row>
@@ -1607,20 +1610,20 @@
         <v>284</v>
       </c>
       <c r="T9" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U9" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V9"/>
       <c r="W9" t="s">
         <v>283</v>
       </c>
       <c r="X9" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y9" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="10">
@@ -1671,20 +1674,20 @@
         <v>284</v>
       </c>
       <c r="T10" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U10" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V10"/>
       <c r="W10" t="s">
         <v>283</v>
       </c>
       <c r="X10" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y10" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="11">
@@ -1743,7 +1746,7 @@
         <v>283</v>
       </c>
       <c r="X11" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y11" s="6" t="n">
         <v>45314</v>
@@ -1799,7 +1802,7 @@
         <v>283</v>
       </c>
       <c r="X12" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y12" s="6"/>
     </row>
@@ -1851,20 +1854,20 @@
         <v>284</v>
       </c>
       <c r="T13" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U13" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V13"/>
       <c r="W13" t="s">
         <v>283</v>
       </c>
       <c r="X13" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y13" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="14">
@@ -1913,20 +1916,20 @@
         <v>284</v>
       </c>
       <c r="T14" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U14" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V14"/>
       <c r="W14" t="s">
         <v>283</v>
       </c>
       <c r="X14" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y14" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="15">
@@ -1971,7 +1974,7 @@
         <v>284</v>
       </c>
       <c r="T15" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U15"/>
       <c r="V15" t="s">
@@ -1981,10 +1984,10 @@
         <v>283</v>
       </c>
       <c r="X15" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y15" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="16">
@@ -2035,20 +2038,20 @@
         <v>284</v>
       </c>
       <c r="T16" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U16" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V16"/>
       <c r="W16" t="s">
         <v>283</v>
       </c>
       <c r="X16" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y16" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="17">
@@ -2097,7 +2100,7 @@
         <v>284</v>
       </c>
       <c r="T17" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U17"/>
       <c r="V17" t="s">
@@ -2107,10 +2110,10 @@
         <v>283</v>
       </c>
       <c r="X17" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y17" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="18">
@@ -2163,7 +2166,7 @@
         <v>283</v>
       </c>
       <c r="X18" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y18" s="6" t="n">
         <v>45257</v>
@@ -2217,20 +2220,20 @@
         <v>284</v>
       </c>
       <c r="T19" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U19" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V19"/>
       <c r="W19" t="s">
         <v>283</v>
       </c>
       <c r="X19" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y19" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="20">
@@ -2281,20 +2284,20 @@
         <v>284</v>
       </c>
       <c r="T20" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U20" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V20"/>
       <c r="W20" t="s">
         <v>283</v>
       </c>
       <c r="X20" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y20" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="21">
@@ -2345,20 +2348,20 @@
         <v>284</v>
       </c>
       <c r="T21" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U21" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V21"/>
       <c r="W21" t="s">
         <v>283</v>
       </c>
       <c r="X21" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y21" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="22">
@@ -2409,20 +2412,20 @@
         <v>284</v>
       </c>
       <c r="T22" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U22" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V22"/>
       <c r="W22" t="s">
         <v>283</v>
       </c>
       <c r="X22" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y22" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="23">
@@ -2475,20 +2478,20 @@
         <v>284</v>
       </c>
       <c r="T23" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U23" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V23"/>
       <c r="W23" t="s">
         <v>283</v>
       </c>
       <c r="X23" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y23" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="24">
@@ -2541,20 +2544,20 @@
         <v>284</v>
       </c>
       <c r="T24" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U24" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V24"/>
       <c r="W24" t="s">
         <v>283</v>
       </c>
       <c r="X24" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y24" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="25">
@@ -2607,7 +2610,7 @@
         <v>283</v>
       </c>
       <c r="X25" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y25" s="6"/>
     </row>
@@ -2659,20 +2662,20 @@
         <v>284</v>
       </c>
       <c r="T26" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U26" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V26"/>
       <c r="W26" t="s">
         <v>283</v>
       </c>
       <c r="X26" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y26" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="27">
@@ -2725,20 +2728,20 @@
         <v>284</v>
       </c>
       <c r="T27" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U27" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V27"/>
       <c r="W27" t="s">
         <v>283</v>
       </c>
       <c r="X27" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y27" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="28">
@@ -2793,20 +2796,20 @@
         <v>284</v>
       </c>
       <c r="T28" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U28" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V28"/>
       <c r="W28" t="s">
         <v>283</v>
       </c>
       <c r="X28" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y28" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="29">
@@ -2867,7 +2870,7 @@
         <v>283</v>
       </c>
       <c r="X29" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y29" s="6" t="n">
         <v>45314</v>
@@ -2925,20 +2928,20 @@
         <v>284</v>
       </c>
       <c r="T30" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U30" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V30"/>
       <c r="W30" t="s">
         <v>283</v>
       </c>
       <c r="X30" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y30" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="31">
@@ -2999,7 +3002,7 @@
         <v>283</v>
       </c>
       <c r="X31" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y31" s="6" t="n">
         <v>45314</v>
@@ -3055,20 +3058,20 @@
         <v>284</v>
       </c>
       <c r="T32" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U32" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V32"/>
       <c r="W32" t="s">
         <v>283</v>
       </c>
       <c r="X32" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y32" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="33">
@@ -3123,20 +3126,20 @@
         <v>284</v>
       </c>
       <c r="T33" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U33" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V33"/>
       <c r="W33" t="s">
         <v>283</v>
       </c>
       <c r="X33" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y33" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="34">
@@ -3197,7 +3200,7 @@
         <v>283</v>
       </c>
       <c r="X34" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y34" s="6" t="n">
         <v>45314</v>
@@ -3255,20 +3258,20 @@
         <v>284</v>
       </c>
       <c r="T35" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U35" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V35"/>
       <c r="W35" t="s">
         <v>283</v>
       </c>
       <c r="X35" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y35" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="36">
@@ -3329,7 +3332,7 @@
         <v>283</v>
       </c>
       <c r="X36" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y36" s="6" t="n">
         <v>45314</v>
@@ -3385,20 +3388,20 @@
         <v>284</v>
       </c>
       <c r="T37" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U37" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V37"/>
       <c r="W37" t="s">
         <v>283</v>
       </c>
       <c r="X37" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y37" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="38">
@@ -3453,20 +3456,20 @@
         <v>284</v>
       </c>
       <c r="T38" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U38" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V38"/>
       <c r="W38" t="s">
         <v>283</v>
       </c>
       <c r="X38" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y38" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="39">
@@ -3527,7 +3530,7 @@
         <v>283</v>
       </c>
       <c r="X39" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y39" s="6" t="n">
         <v>45314</v>
@@ -3585,20 +3588,20 @@
         <v>284</v>
       </c>
       <c r="T40" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U40" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V40"/>
       <c r="W40" t="s">
         <v>283</v>
       </c>
       <c r="X40" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y40" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="41">
@@ -3659,7 +3662,7 @@
         <v>283</v>
       </c>
       <c r="X41" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y41" s="6" t="n">
         <v>45314</v>
@@ -3713,20 +3716,20 @@
         <v>284</v>
       </c>
       <c r="T42" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U42" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V42"/>
       <c r="W42" t="s">
         <v>283</v>
       </c>
       <c r="X42" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y42" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="43">
@@ -3777,20 +3780,20 @@
         <v>284</v>
       </c>
       <c r="T43" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U43" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V43"/>
       <c r="W43" t="s">
         <v>283</v>
       </c>
       <c r="X43" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y43" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="44">
@@ -3841,20 +3844,20 @@
         <v>284</v>
       </c>
       <c r="T44" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U44" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V44"/>
       <c r="W44" t="s">
         <v>283</v>
       </c>
       <c r="X44" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y44" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="45">
@@ -3907,20 +3910,20 @@
         <v>284</v>
       </c>
       <c r="T45" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U45" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V45"/>
       <c r="W45" t="s">
         <v>283</v>
       </c>
       <c r="X45" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y45" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="46">
@@ -3979,7 +3982,7 @@
         <v>283</v>
       </c>
       <c r="X46" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y46" s="6"/>
     </row>
@@ -4033,20 +4036,20 @@
         <v>284</v>
       </c>
       <c r="T47" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U47" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V47"/>
       <c r="W47" t="s">
         <v>283</v>
       </c>
       <c r="X47" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y47" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="48">
@@ -4099,20 +4102,20 @@
         <v>284</v>
       </c>
       <c r="T48" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U48" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V48"/>
       <c r="W48" t="s">
         <v>283</v>
       </c>
       <c r="X48" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y48" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="49">
@@ -4171,7 +4174,7 @@
         <v>283</v>
       </c>
       <c r="X49" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y49" s="6" t="n">
         <v>45314</v>
@@ -4227,7 +4230,7 @@
         <v>283</v>
       </c>
       <c r="X50" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y50" s="6"/>
     </row>
@@ -4275,7 +4278,7 @@
         <v>284</v>
       </c>
       <c r="T51" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U51"/>
       <c r="V51" t="s">
@@ -4285,10 +4288,10 @@
         <v>283</v>
       </c>
       <c r="X51" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y51" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="52">
@@ -4337,7 +4340,7 @@
         <v>284</v>
       </c>
       <c r="T52" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U52"/>
       <c r="V52" t="s">
@@ -4347,10 +4350,10 @@
         <v>283</v>
       </c>
       <c r="X52" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y52" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="53">
@@ -4403,20 +4406,20 @@
         <v>284</v>
       </c>
       <c r="T53" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U53" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V53"/>
       <c r="W53" t="s">
         <v>283</v>
       </c>
       <c r="X53" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y53" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="54">
@@ -4467,10 +4470,10 @@
         <v>284</v>
       </c>
       <c r="T54" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U54" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V54" t="s">
         <v>296</v>
@@ -4479,10 +4482,10 @@
         <v>283</v>
       </c>
       <c r="X54" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y54" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="55">
@@ -4535,20 +4538,20 @@
         <v>284</v>
       </c>
       <c r="T55" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U55" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V55"/>
       <c r="W55" t="s">
         <v>283</v>
       </c>
       <c r="X55" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y55" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="56">
@@ -4601,10 +4604,10 @@
         <v>284</v>
       </c>
       <c r="T56" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U56" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V56" t="s">
         <v>296</v>
@@ -4613,10 +4616,10 @@
         <v>283</v>
       </c>
       <c r="X56" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y56" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="57">
@@ -4665,7 +4668,7 @@
         <v>284</v>
       </c>
       <c r="T57" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U57"/>
       <c r="V57" t="s">
@@ -4675,10 +4678,10 @@
         <v>283</v>
       </c>
       <c r="X57" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y57" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="58">
@@ -4733,7 +4736,7 @@
         <v>283</v>
       </c>
       <c r="X58" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y58" s="6" t="n">
         <v>45314</v>
@@ -4787,20 +4790,20 @@
         <v>284</v>
       </c>
       <c r="T59" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U59" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V59"/>
       <c r="W59" t="s">
         <v>283</v>
       </c>
       <c r="X59" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y59" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="60">
@@ -4853,7 +4856,7 @@
         <v>283</v>
       </c>
       <c r="X60" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y60" s="6"/>
     </row>
@@ -4903,7 +4906,7 @@
         <v>284</v>
       </c>
       <c r="T61" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U61"/>
       <c r="V61" t="s">
@@ -4913,10 +4916,10 @@
         <v>283</v>
       </c>
       <c r="X61" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y61" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="62">
@@ -4969,7 +4972,7 @@
         <v>283</v>
       </c>
       <c r="X62" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y62" s="6"/>
     </row>
@@ -5021,20 +5024,20 @@
         <v>284</v>
       </c>
       <c r="T63" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U63" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V63"/>
       <c r="W63" t="s">
         <v>283</v>
       </c>
       <c r="X63" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y63" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="64">
@@ -5087,7 +5090,7 @@
         <v>283</v>
       </c>
       <c r="X64" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y64" s="6"/>
     </row>
@@ -5141,7 +5144,7 @@
         <v>283</v>
       </c>
       <c r="X65" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y65" s="6"/>
     </row>
@@ -5191,20 +5194,20 @@
         <v>284</v>
       </c>
       <c r="T66" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U66" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V66"/>
       <c r="W66" t="s">
         <v>283</v>
       </c>
       <c r="X66" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y66" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="67">
@@ -5253,20 +5256,20 @@
         <v>284</v>
       </c>
       <c r="T67" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U67" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V67"/>
       <c r="W67" t="s">
         <v>283</v>
       </c>
       <c r="X67" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y67" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="68">
@@ -5303,7 +5306,7 @@
         <v>-0.0023</v>
       </c>
       <c r="O68" t="n">
-        <v>3.13939</v>
+        <v>3.139395</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -5315,20 +5318,20 @@
         <v>284</v>
       </c>
       <c r="T68" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U68" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V68"/>
       <c r="W68" t="s">
         <v>283</v>
       </c>
       <c r="X68" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y68" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="69">
@@ -5377,20 +5380,20 @@
         <v>284</v>
       </c>
       <c r="T69" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U69" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V69"/>
       <c r="W69" t="s">
         <v>283</v>
       </c>
       <c r="X69" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y69" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="70">
@@ -5439,20 +5442,20 @@
         <v>284</v>
       </c>
       <c r="T70" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U70" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V70"/>
       <c r="W70" t="s">
         <v>283</v>
       </c>
       <c r="X70" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y70" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="71">
@@ -5507,7 +5510,7 @@
         <v>283</v>
       </c>
       <c r="X71" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y71" s="6"/>
     </row>
@@ -5557,20 +5560,20 @@
         <v>284</v>
       </c>
       <c r="T72" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U72" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V72"/>
       <c r="W72" t="s">
         <v>283</v>
       </c>
       <c r="X72" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y72" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="73">
@@ -5619,20 +5622,20 @@
         <v>284</v>
       </c>
       <c r="T73" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U73" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V73"/>
       <c r="W73" t="s">
         <v>283</v>
       </c>
       <c r="X73" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y73" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="74">
@@ -5681,20 +5684,20 @@
         <v>284</v>
       </c>
       <c r="T74" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U74" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V74"/>
       <c r="W74" t="s">
         <v>283</v>
       </c>
       <c r="X74" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y74" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="75">
@@ -5743,10 +5746,10 @@
         <v>284</v>
       </c>
       <c r="T75" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U75" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V75" t="s">
         <v>304</v>
@@ -5755,10 +5758,10 @@
         <v>283</v>
       </c>
       <c r="X75" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y75" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="76">
@@ -5807,20 +5810,20 @@
         <v>284</v>
       </c>
       <c r="T76" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U76" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V76"/>
       <c r="W76" t="s">
         <v>283</v>
       </c>
       <c r="X76" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y76" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="77">
@@ -5869,20 +5872,20 @@
         <v>284</v>
       </c>
       <c r="T77" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U77" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V77"/>
       <c r="W77" t="s">
         <v>283</v>
       </c>
       <c r="X77" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y77" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="78">
@@ -5931,20 +5934,20 @@
         <v>284</v>
       </c>
       <c r="T78" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U78" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V78"/>
       <c r="W78" t="s">
         <v>283</v>
       </c>
       <c r="X78" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y78" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="79">
@@ -5993,20 +5996,20 @@
         <v>284</v>
       </c>
       <c r="T79" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U79" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V79"/>
       <c r="W79" t="s">
         <v>283</v>
       </c>
       <c r="X79" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y79" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="80">
@@ -6057,7 +6060,7 @@
         <v>283</v>
       </c>
       <c r="X80" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y80" s="6"/>
     </row>
@@ -6107,20 +6110,20 @@
         <v>284</v>
       </c>
       <c r="T81" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U81" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V81"/>
       <c r="W81" t="s">
         <v>283</v>
       </c>
       <c r="X81" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y81" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="82">
@@ -6177,20 +6180,20 @@
         <v>284</v>
       </c>
       <c r="T82" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U82" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V82"/>
       <c r="W82" t="s">
         <v>283</v>
       </c>
       <c r="X82" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y82" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="83">
@@ -6239,20 +6242,20 @@
         <v>284</v>
       </c>
       <c r="T83" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U83" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V83"/>
       <c r="W83" t="s">
         <v>283</v>
       </c>
       <c r="X83" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y83" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="84">
@@ -6305,20 +6308,20 @@
         <v>284</v>
       </c>
       <c r="T84" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U84" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V84"/>
       <c r="W84" t="s">
         <v>283</v>
       </c>
       <c r="X84" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y84" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="85">
@@ -6367,20 +6370,20 @@
         <v>284</v>
       </c>
       <c r="T85" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U85" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V85"/>
       <c r="W85" t="s">
         <v>283</v>
       </c>
       <c r="X85" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y85" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="86">
@@ -6439,7 +6442,7 @@
         <v>283</v>
       </c>
       <c r="X86" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y86" s="6" t="n">
         <v>45257</v>
@@ -6495,20 +6498,20 @@
         <v>284</v>
       </c>
       <c r="T87" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U87" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V87"/>
       <c r="W87" t="s">
         <v>283</v>
       </c>
       <c r="X87" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y87" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="88">
@@ -6561,20 +6564,20 @@
         <v>284</v>
       </c>
       <c r="T88" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U88" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V88"/>
       <c r="W88" t="s">
         <v>283</v>
       </c>
       <c r="X88" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y88" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="89">
@@ -6627,20 +6630,20 @@
         <v>284</v>
       </c>
       <c r="T89" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U89" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V89"/>
       <c r="W89" t="s">
         <v>283</v>
       </c>
       <c r="X89" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y89" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="90">
@@ -6693,20 +6696,20 @@
         <v>284</v>
       </c>
       <c r="T90" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U90" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V90"/>
       <c r="W90" t="s">
         <v>283</v>
       </c>
       <c r="X90" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y90" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="91">
@@ -6761,20 +6764,20 @@
         <v>284</v>
       </c>
       <c r="T91" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U91" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V91"/>
       <c r="W91" t="s">
         <v>283</v>
       </c>
       <c r="X91" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y91" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="92">
@@ -6829,20 +6832,20 @@
         <v>284</v>
       </c>
       <c r="T92" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U92" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V92"/>
       <c r="W92" t="s">
         <v>283</v>
       </c>
       <c r="X92" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y92" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="93">
@@ -6895,20 +6898,20 @@
         <v>284</v>
       </c>
       <c r="T93" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U93" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V93"/>
       <c r="W93" t="s">
         <v>283</v>
       </c>
       <c r="X93" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y93" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="94">
@@ -6961,20 +6964,20 @@
         <v>284</v>
       </c>
       <c r="T94" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U94" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V94"/>
       <c r="W94" t="s">
         <v>283</v>
       </c>
       <c r="X94" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y94" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="95">
@@ -7033,7 +7036,7 @@
         <v>283</v>
       </c>
       <c r="X95" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y95" s="6" t="n">
         <v>45257</v>
@@ -7089,20 +7092,20 @@
         <v>284</v>
       </c>
       <c r="T96" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="U96" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="V96"/>
       <c r="W96" t="s">
         <v>283</v>
       </c>
       <c r="X96" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="Y96" s="6" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
     </row>
   </sheetData>

--- a/output/ScriptResults/Database_Thresholds.xlsx
+++ b/output/ScriptResults/Database_Thresholds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hill_T\Desktop\SEACAR GitHub\IndicatorQuantiles\output\ScriptResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E9DE69-46A3-487F-820B-8503F1B22616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1791FFD4-F2EE-4CAB-A1A2-8B95E01DC65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thresholds in Database" sheetId="1" r:id="rId1"/>
@@ -30,45 +30,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="170">
   <si>
-    <t>Just a database ID. Retaining this in future correspondence will allow for the most efficient update, based on this single column.</t>
-  </si>
-  <si>
-    <t>Standard Habitat as defined by the SEACAR project.</t>
-  </si>
-  <si>
-    <t>Database ID from the Indicator table.</t>
-  </si>
-  <si>
-    <t>Database ID from the Parameter table.</t>
-  </si>
-  <si>
-    <t>Standard Indicator Name as defined by the SEACAR project.</t>
-  </si>
-  <si>
-    <t>Shorthand reference for Habitat-CombinedTable. Used frequently in the database to identify the 8 individual Combined Tables.</t>
-  </si>
-  <si>
-    <t>Standard Parameter Name as defined by the SEACAR project.</t>
-  </si>
-  <si>
     <t>Parameter Units.</t>
   </si>
   <si>
-    <t>Quad Size for applicable Parameters.</t>
-  </si>
-  <si>
     <t>Range of expected values.</t>
   </si>
   <si>
-    <t>Value Conversions.</t>
-  </si>
-  <si>
     <t>Is the Parameter value calculated in the database?</t>
   </si>
   <si>
-    <t>Are the values applicable to specific species?</t>
-  </si>
-  <si>
     <t>Threshold and Quantile Values</t>
   </si>
   <si>
@@ -528,16 +498,46 @@
     <t>Database_Thresholds.xlsx, Git Commit ID: 51214cf344547100c5a54d26465d79cec9558701</t>
   </si>
   <si>
-    <t>Low Threshold for inclusion. Values "Less Than Or Equal To" are flagged.</t>
-  </si>
-  <si>
-    <t>High Threshold for inclusion. Values "Greater Than Or Equal To" are flagged.</t>
-  </si>
-  <si>
-    <t>Low Quantile value. Values "Less Than Or Equal To" are flagged.</t>
-  </si>
-  <si>
-    <t>High Quantile value. Values "Greater Than Or Equal To" are flagged.</t>
+    <t>Database ID assigned to each threshold record.</t>
+  </si>
+  <si>
+    <t>Database ID assigned to each parameter.</t>
+  </si>
+  <si>
+    <t>Standard habitat name, as defined by the SEACAR project.</t>
+  </si>
+  <si>
+    <t>Database ID assigned to each indicator.</t>
+  </si>
+  <si>
+    <t>Standard indicator name, as defined by the SEACAR project.</t>
+  </si>
+  <si>
+    <t>Shorthand reference for Habitat-CombinedTable. Used frequently in the database to identify the 8 individual combined tables.</t>
+  </si>
+  <si>
+    <t>Standard parameter name, as defined by the SEACAR project.</t>
+  </si>
+  <si>
+    <t>Low threshold for including records in the SEACAR meta-analyses. Values "less than or equal to" are flagged.</t>
+  </si>
+  <si>
+    <t>High threshold for including records in the SEACAR meta-analyses. Values "greater than or equal to" are flagged.</t>
+  </si>
+  <si>
+    <t>Quadrat size for applicable parameters.</t>
+  </si>
+  <si>
+    <t>Value conversions.</t>
+  </si>
+  <si>
+    <t>Low quantile value (0.1 percentile value for all records in the SEACAR database). Values "less than or equal to" are flagged.</t>
+  </si>
+  <si>
+    <t>High quantile (99.9 percentile value for all records in the SEACAR database). Values "greater than or equal to" are flagged.</t>
+  </si>
+  <si>
+    <t>Is the threshold and/or quantile value(s) applicable only to parameter values associated with one or more specific species?</t>
   </si>
 </sst>
 </file>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,139 +966,139 @@
   <sheetData>
     <row r="1" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="M5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="S7" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1109,22 +1109,22 @@
         <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I8">
         <v>-9.9999999999999995E-7</v>
@@ -1138,10 +1138,10 @@
       <c r="T8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="X8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y8" s="6">
         <v>45488</v>
@@ -1155,28 +1155,28 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I9">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>-9.9999999999999995E-7</v>
@@ -1191,19 +1191,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T9" s="6">
         <v>45488</v>
       </c>
       <c r="U9" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V9" s="6">
         <v>45488</v>
       </c>
       <c r="X9" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y9" s="6">
         <v>45488</v>
@@ -1217,22 +1217,22 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I10">
         <v>-9.9999999999999995E-7</v>
@@ -1250,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T10" s="6">
         <v>45488</v>
       </c>
       <c r="U10" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V10" s="6">
         <v>45488</v>
       </c>
       <c r="X10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y10" s="6">
         <v>45488</v>
@@ -1276,28 +1276,28 @@
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I11">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>-9.9999999999999995E-7</v>
@@ -1313,13 +1313,13 @@
       </c>
       <c r="T11" s="6"/>
       <c r="U11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V11" s="6">
         <v>45314</v>
       </c>
       <c r="X11" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y11" s="6">
         <v>45488</v>
@@ -1333,22 +1333,22 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I12">
         <v>-9.9999999999999995E-7</v>
@@ -1362,10 +1362,10 @@
       <c r="T12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y12" s="6">
         <v>45488</v>
@@ -1379,22 +1379,22 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I13">
         <v>-9.9999999999999995E-7</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T13" s="6">
         <v>45488</v>
       </c>
       <c r="U13" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V13" s="6">
         <v>45488</v>
       </c>
       <c r="X13" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y13" s="6">
         <v>45488</v>
@@ -1438,22 +1438,22 @@
         <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>-9.9999999999999995E-7</v>
@@ -1468,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T14" s="6">
         <v>45488</v>
       </c>
       <c r="U14" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V14" s="6">
         <v>45488</v>
       </c>
       <c r="X14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y14" s="6">
         <v>45488</v>
@@ -1494,22 +1494,22 @@
         <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T15" s="6">
         <v>45488</v>
@@ -1527,10 +1527,10 @@
         <v>45488</v>
       </c>
       <c r="W15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="X15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y15" s="6">
         <v>45488</v>
@@ -1544,22 +1544,22 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I16">
         <v>-9.9999999999999995E-7</v>
@@ -1577,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T16" s="6">
         <v>45488</v>
       </c>
       <c r="U16" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V16" s="6">
         <v>45488</v>
       </c>
       <c r="X16" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y16" s="6">
         <v>45488</v>
@@ -1603,28 +1603,28 @@
         <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M17" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T17" s="6">
         <v>45488</v>
@@ -1642,10 +1642,10 @@
         <v>45488</v>
       </c>
       <c r="W17" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="X17" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y17" s="6">
         <v>45488</v>
@@ -1659,22 +1659,22 @@
         <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1684,16 +1684,16 @@
       </c>
       <c r="T18" s="6"/>
       <c r="U18" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="V18" s="6">
         <v>45257</v>
       </c>
       <c r="W18" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="X18" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y18" s="6">
         <v>45488</v>
@@ -1707,22 +1707,22 @@
         <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
         <v>45</v>
       </c>
-      <c r="G19" t="s">
-        <v>55</v>
-      </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I19">
         <v>-9.9999999999999995E-7</v>
@@ -1740,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T19" s="6">
         <v>45488</v>
       </c>
       <c r="U19" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V19" s="6">
         <v>45488</v>
       </c>
       <c r="X19" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y19" s="6">
         <v>45488</v>
@@ -1766,22 +1766,22 @@
         <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I20">
         <v>-9.9999999999999995E-7</v>
@@ -1799,19 +1799,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T20" s="6">
         <v>45488</v>
       </c>
       <c r="U20" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V20" s="6">
         <v>45488</v>
       </c>
       <c r="X20" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y20" s="6">
         <v>45488</v>
@@ -1825,22 +1825,22 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I21">
         <v>-9.9999999999999995E-7</v>
@@ -1858,19 +1858,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T21" s="6">
         <v>45488</v>
       </c>
       <c r="U21" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V21" s="6">
         <v>45488</v>
       </c>
       <c r="X21" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y21" s="6">
         <v>45488</v>
@@ -1884,22 +1884,22 @@
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I22">
         <v>-9.9999999999999995E-7</v>
@@ -1917,19 +1917,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T22" s="6">
         <v>45488</v>
       </c>
       <c r="U22" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V22" s="6">
         <v>45488</v>
       </c>
       <c r="X22" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y22" s="6">
         <v>45488</v>
@@ -1943,28 +1943,28 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I23">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L23" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>-9.9999999999999995E-7</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T23" s="6">
         <v>45488</v>
       </c>
       <c r="U23" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V23" s="6">
         <v>45488</v>
       </c>
       <c r="X23" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y23" s="6">
         <v>45488</v>
@@ -2005,28 +2005,28 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I24">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L24" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>-9.9999999999999995E-7</v>
@@ -2041,19 +2041,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T24" s="6">
         <v>45488</v>
       </c>
       <c r="U24" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V24" s="6">
         <v>45488</v>
       </c>
       <c r="X24" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y24" s="6">
         <v>45488</v>
@@ -2067,22 +2067,22 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I25">
         <v>-9.9999999999999995E-7</v>
@@ -2096,10 +2096,10 @@
       <c r="T25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="X25" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y25" s="6">
         <v>45488</v>
@@ -2113,22 +2113,22 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D26">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I26">
         <v>-9.9999999999999995E-7</v>
@@ -2146,19 +2146,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T26" s="6">
         <v>45488</v>
       </c>
       <c r="U26" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V26" s="6">
         <v>45488</v>
       </c>
       <c r="X26" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y26" s="6">
         <v>45488</v>
@@ -2172,28 +2172,28 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D27">
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I27">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L27" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N27">
         <v>-9.9999999999999995E-7</v>
@@ -2208,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T27" s="6">
         <v>45488</v>
       </c>
       <c r="U27" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V27" s="6">
         <v>45488</v>
       </c>
       <c r="X27" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y27" s="6">
         <v>45488</v>
@@ -2234,22 +2234,22 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I28">
         <v>-9.9999999999999995E-7</v>
@@ -2258,7 +2258,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="L28" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N28">
         <v>-9.9999999999999995E-7</v>
@@ -2273,19 +2273,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T28" s="6">
         <v>45488</v>
       </c>
       <c r="U28" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V28" s="6">
         <v>45488</v>
       </c>
       <c r="X28" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y28" s="6">
         <v>45488</v>
@@ -2299,22 +2299,22 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D29">
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I29">
         <v>-9.9999999999999995E-7</v>
@@ -2323,7 +2323,7 @@
         <v>0.1</v>
       </c>
       <c r="L29" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N29">
         <v>-9.9999999999999995E-7</v>
@@ -2339,13 +2339,13 @@
       </c>
       <c r="T29" s="6"/>
       <c r="U29" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V29" s="6">
         <v>45314</v>
       </c>
       <c r="X29" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y29" s="6">
         <v>45488</v>
@@ -2359,22 +2359,22 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D30">
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I30">
         <v>-9.9999999999999995E-7</v>
@@ -2383,7 +2383,7 @@
         <v>0.25</v>
       </c>
       <c r="L30" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N30">
         <v>-9.9999999999999995E-7</v>
@@ -2398,19 +2398,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T30" s="6">
         <v>45488</v>
       </c>
       <c r="U30" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V30" s="6">
         <v>45488</v>
       </c>
       <c r="X30" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y30" s="6">
         <v>45488</v>
@@ -2424,22 +2424,22 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D31">
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I31">
         <v>-9.9999999999999995E-7</v>
@@ -2448,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N31">
         <v>-9.9999999999999995E-7</v>
@@ -2464,13 +2464,13 @@
       </c>
       <c r="T31" s="6"/>
       <c r="U31" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V31" s="6">
         <v>45314</v>
       </c>
       <c r="X31" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y31" s="6">
         <v>45488</v>
@@ -2484,28 +2484,28 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D32">
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I32">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L32" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N32">
         <v>-9.9999999999999995E-7</v>
@@ -2520,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T32" s="6">
         <v>45488</v>
       </c>
       <c r="U32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V32" s="6">
         <v>45488</v>
       </c>
       <c r="X32" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y32" s="6">
         <v>45488</v>
@@ -2546,22 +2546,22 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D33">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I33">
         <v>-9.9999999999999995E-7</v>
@@ -2570,7 +2570,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="L33" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N33">
         <v>-9.9999999999999995E-7</v>
@@ -2585,19 +2585,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T33" s="6">
         <v>45488</v>
       </c>
       <c r="U33" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V33" s="6">
         <v>45488</v>
       </c>
       <c r="X33" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y33" s="6">
         <v>45488</v>
@@ -2611,22 +2611,22 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D34">
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I34">
         <v>-9.9999999999999995E-7</v>
@@ -2635,7 +2635,7 @@
         <v>0.1</v>
       </c>
       <c r="L34" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N34">
         <v>-9.9999999999999995E-7</v>
@@ -2651,13 +2651,13 @@
       </c>
       <c r="T34" s="6"/>
       <c r="U34" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V34" s="6">
         <v>45314</v>
       </c>
       <c r="X34" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y34" s="6">
         <v>45488</v>
@@ -2671,22 +2671,22 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D35">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I35">
         <v>-9.9999999999999995E-7</v>
@@ -2695,7 +2695,7 @@
         <v>0.25</v>
       </c>
       <c r="L35" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N35">
         <v>-9.9999999999999995E-7</v>
@@ -2710,19 +2710,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T35" s="6">
         <v>45488</v>
       </c>
       <c r="U35" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V35" s="6">
         <v>45488</v>
       </c>
       <c r="X35" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y35" s="6">
         <v>45488</v>
@@ -2736,22 +2736,22 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D36">
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I36">
         <v>-9.9999999999999995E-7</v>
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N36">
         <v>-9.9999999999999995E-7</v>
@@ -2776,13 +2776,13 @@
       </c>
       <c r="T36" s="6"/>
       <c r="U36" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V36" s="6">
         <v>45314</v>
       </c>
       <c r="X36" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y36" s="6">
         <v>45488</v>
@@ -2796,28 +2796,28 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D37">
         <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I37">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L37" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N37">
         <v>-9.9999999999999995E-7</v>
@@ -2832,19 +2832,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T37" s="6">
         <v>45488</v>
       </c>
       <c r="U37" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V37" s="6">
         <v>45488</v>
       </c>
       <c r="X37" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y37" s="6">
         <v>45488</v>
@@ -2858,22 +2858,22 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D38">
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I38">
         <v>-9.9999999999999995E-7</v>
@@ -2882,7 +2882,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="L38" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N38">
         <v>-9.9999999999999995E-7</v>
@@ -2897,19 +2897,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T38" s="6">
         <v>45488</v>
       </c>
       <c r="U38" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V38" s="6">
         <v>45488</v>
       </c>
       <c r="X38" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y38" s="6">
         <v>45488</v>
@@ -2923,22 +2923,22 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D39">
         <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I39">
         <v>-9.9999999999999995E-7</v>
@@ -2947,7 +2947,7 @@
         <v>0.1</v>
       </c>
       <c r="L39" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N39">
         <v>-9.9999999999999995E-7</v>
@@ -2963,13 +2963,13 @@
       </c>
       <c r="T39" s="6"/>
       <c r="U39" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V39" s="6">
         <v>45314</v>
       </c>
       <c r="X39" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y39" s="6">
         <v>45488</v>
@@ -2983,22 +2983,22 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D40">
         <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I40">
         <v>-9.9999999999999995E-7</v>
@@ -3007,7 +3007,7 @@
         <v>0.25</v>
       </c>
       <c r="L40" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N40">
         <v>-9.9999999999999995E-7</v>
@@ -3022,19 +3022,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T40" s="6">
         <v>45488</v>
       </c>
       <c r="U40" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V40" s="6">
         <v>45488</v>
       </c>
       <c r="X40" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y40" s="6">
         <v>45488</v>
@@ -3048,22 +3048,22 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D41">
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I41">
         <v>-9.9999999999999995E-7</v>
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N41">
         <v>-9.9999999999999995E-7</v>
@@ -3088,13 +3088,13 @@
       </c>
       <c r="T41" s="6"/>
       <c r="U41" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V41" s="6">
         <v>45314</v>
       </c>
       <c r="X41" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y41" s="6">
         <v>45488</v>
@@ -3108,22 +3108,22 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D42">
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H42" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I42">
         <v>-9.9999999999999995E-7</v>
@@ -3141,19 +3141,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T42" s="6">
         <v>45488</v>
       </c>
       <c r="U42" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V42" s="6">
         <v>45488</v>
       </c>
       <c r="X42" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y42" s="6">
         <v>45488</v>
@@ -3167,22 +3167,22 @@
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D43">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H43" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I43">
         <v>-9.9999999999999995E-7</v>
@@ -3200,19 +3200,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T43" s="6">
         <v>45488</v>
       </c>
       <c r="U43" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V43" s="6">
         <v>45488</v>
       </c>
       <c r="X43" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y43" s="6">
         <v>45488</v>
@@ -3226,22 +3226,22 @@
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I44">
         <v>-9.9999999999999995E-7</v>
@@ -3259,19 +3259,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T44" s="6">
         <v>45488</v>
       </c>
       <c r="U44" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V44" s="6">
         <v>45488</v>
       </c>
       <c r="X44" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y44" s="6">
         <v>45488</v>
@@ -3285,22 +3285,22 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D45">
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I45">
         <v>-9.9999999999999995E-7</v>
@@ -3321,19 +3321,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T45" s="6">
         <v>45488</v>
       </c>
       <c r="U45" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V45" s="6">
         <v>45488</v>
       </c>
       <c r="X45" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y45" s="6">
         <v>45488</v>
@@ -3347,22 +3347,22 @@
         <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D46">
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I46">
         <v>-9.9999999999999995E-7</v>
@@ -3384,11 +3384,11 @@
       </c>
       <c r="T46" s="6"/>
       <c r="U46" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="V46" s="6"/>
       <c r="X46" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y46" s="6">
         <v>45488</v>
@@ -3402,22 +3402,22 @@
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D47">
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I47">
         <v>-9.9999999999999995E-7</v>
@@ -3438,19 +3438,19 @@
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T47" s="6">
         <v>45488</v>
       </c>
       <c r="U47" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V47" s="6">
         <v>45488</v>
       </c>
       <c r="X47" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y47" s="6">
         <v>45488</v>
@@ -3464,22 +3464,22 @@
         <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D48">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I48">
         <v>-9.9999999999999995E-7</v>
@@ -3500,19 +3500,19 @@
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T48" s="6">
         <v>45488</v>
       </c>
       <c r="U48" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V48" s="6">
         <v>45488</v>
       </c>
       <c r="X48" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y48" s="6">
         <v>45488</v>
@@ -3526,22 +3526,22 @@
         <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D49">
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I49">
         <v>-9.9999999999999995E-7</v>
@@ -3563,13 +3563,13 @@
       </c>
       <c r="T49" s="6"/>
       <c r="U49" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V49" s="6">
         <v>45314</v>
       </c>
       <c r="X49" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y49" s="6">
         <v>45488</v>
@@ -3583,22 +3583,22 @@
         <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H50" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I50">
         <v>-9.9999999999999995E-7</v>
@@ -3612,10 +3612,10 @@
       <c r="T50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="X50" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y50" s="6">
         <v>45488</v>
@@ -3629,25 +3629,25 @@
         <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L51" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T51" s="6">
         <v>45488</v>
@@ -3665,10 +3665,10 @@
         <v>45488</v>
       </c>
       <c r="W51" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="X51" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y51" s="6">
         <v>45488</v>
@@ -3682,28 +3682,28 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G52" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L52" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="M52" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
+        <v>133</v>
+      </c>
+      <c r="T52" s="6">
+        <v>45488</v>
+      </c>
+      <c r="V52" s="6">
+        <v>45488</v>
+      </c>
+      <c r="W52" t="s">
         <v>143</v>
       </c>
-      <c r="T52" s="6">
-        <v>45488</v>
-      </c>
-      <c r="V52" s="6">
-        <v>45488</v>
-      </c>
-      <c r="W52" t="s">
-        <v>153</v>
-      </c>
       <c r="X52" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y52" s="6">
         <v>45488</v>
@@ -3738,28 +3738,28 @@
         <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H53" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I53">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L53" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N53">
         <v>-9.9999999999999995E-7</v>
@@ -3774,19 +3774,19 @@
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T53" s="6">
         <v>45488</v>
       </c>
       <c r="U53" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V53" s="6">
         <v>45488</v>
       </c>
       <c r="X53" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y53" s="6">
         <v>45488</v>
@@ -3800,22 +3800,22 @@
         <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H54" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I54">
         <v>-9.9999999999999995E-7</v>
@@ -3833,22 +3833,22 @@
         <v>1</v>
       </c>
       <c r="S54" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T54" s="6">
         <v>45488</v>
       </c>
       <c r="U54" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V54" s="6">
         <v>45488</v>
       </c>
       <c r="W54" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="X54" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y54" s="6">
         <v>45488</v>
@@ -3862,28 +3862,28 @@
         <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H55" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I55">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L55" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N55">
         <v>-9.9999999999999995E-7</v>
@@ -3898,19 +3898,19 @@
         <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T55" s="6">
         <v>45488</v>
       </c>
       <c r="U55" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V55" s="6">
         <v>45488</v>
       </c>
       <c r="X55" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y55" s="6">
         <v>45488</v>
@@ -3924,28 +3924,28 @@
         <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H56" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I56">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="L56" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="N56">
         <v>-9.9999999999999995E-7</v>
@@ -3960,22 +3960,22 @@
         <v>1</v>
       </c>
       <c r="S56" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T56" s="6">
         <v>45488</v>
       </c>
       <c r="U56" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V56" s="6">
         <v>45488</v>
       </c>
       <c r="W56" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="X56" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y56" s="6">
         <v>45488</v>
@@ -3989,28 +3989,28 @@
         <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H57" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L57" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M57" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T57" s="6">
         <v>45488</v>
@@ -4028,10 +4028,10 @@
         <v>45488</v>
       </c>
       <c r="W57" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="X57" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y57" s="6">
         <v>45488</v>
@@ -4045,22 +4045,22 @@
         <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F58" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s">
         <v>73</v>
-      </c>
-      <c r="G58" t="s">
-        <v>82</v>
-      </c>
-      <c r="H58" t="s">
-        <v>83</v>
       </c>
       <c r="I58">
         <v>-9.9999999999999995E-7</v>
@@ -4073,16 +4073,16 @@
       </c>
       <c r="T58" s="6"/>
       <c r="U58" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="V58" s="6">
         <v>45314</v>
       </c>
       <c r="W58" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="X58" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y58" s="6">
         <v>45488</v>
@@ -4096,22 +4096,22 @@
         <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D59">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I59">
         <v>-9.9999999999999995E-7</v>
@@ -4129,19 +4129,19 @@
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T59" s="6">
         <v>45488</v>
       </c>
       <c r="U59" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V59" s="6">
         <v>45488</v>
       </c>
       <c r="X59" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y59" s="6">
         <v>45488</v>
@@ -4155,22 +4155,22 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D60">
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I60">
         <v>9.9999999999999995E-7</v>
@@ -4184,10 +4184,10 @@
       <c r="T60" s="6"/>
       <c r="V60" s="6"/>
       <c r="W60" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="X60" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y60" s="6">
         <v>45488</v>
@@ -4201,28 +4201,28 @@
         <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D61">
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H61" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L61" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M61" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T61" s="6">
         <v>45488</v>
@@ -4240,10 +4240,10 @@
         <v>45488</v>
       </c>
       <c r="W61" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="X61" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y61" s="6">
         <v>45488</v>
@@ -4257,22 +4257,22 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D62">
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I62">
         <v>9.9999999999999995E-7</v>
@@ -4286,10 +4286,10 @@
       <c r="T62" s="6"/>
       <c r="V62" s="6"/>
       <c r="W62" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="X62" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y62" s="6">
         <v>45488</v>
@@ -4303,22 +4303,22 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D63">
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G63" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H63" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I63">
         <v>9.9999999999999995E-7</v>
@@ -4336,19 +4336,19 @@
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T63" s="6">
         <v>45488</v>
       </c>
       <c r="U63" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V63" s="6">
         <v>45488</v>
       </c>
       <c r="X63" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y63" s="6">
         <v>45488</v>
@@ -4362,22 +4362,22 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D64">
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G64" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I64">
         <v>9.9999999999999995E-7</v>
@@ -4391,10 +4391,10 @@
       <c r="T64" s="6"/>
       <c r="V64" s="6"/>
       <c r="W64" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="X64" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y64" s="6">
         <v>45488</v>
@@ -4408,22 +4408,22 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D65">
         <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I65">
         <v>9.9999999999999995E-7</v>
@@ -4437,10 +4437,10 @@
       <c r="T65" s="6"/>
       <c r="V65" s="6"/>
       <c r="W65" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="X65" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y65" s="6">
         <v>45488</v>
@@ -4454,22 +4454,22 @@
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D66">
         <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F66" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G66" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N66">
         <v>3.0439999999999998E-3</v>
@@ -4484,19 +4484,19 @@
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T66" s="6">
         <v>45488</v>
       </c>
       <c r="U66" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V66" s="6">
         <v>45488</v>
       </c>
       <c r="X66" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y66" s="6">
         <v>45488</v>
@@ -4510,22 +4510,22 @@
         <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D67">
         <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F67" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G67" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N67">
         <v>-2.5045000000000001E-2</v>
@@ -4540,19 +4540,19 @@
         <v>0</v>
       </c>
       <c r="S67" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T67" s="6">
         <v>45488</v>
       </c>
       <c r="U67" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V67" s="6">
         <v>45488</v>
       </c>
       <c r="X67" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y67" s="6">
         <v>45488</v>
@@ -4566,22 +4566,22 @@
         <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D68">
         <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F68" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N68">
         <v>-2.3E-3</v>
@@ -4596,19 +4596,19 @@
         <v>0</v>
       </c>
       <c r="S68" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T68" s="6">
         <v>45488</v>
       </c>
       <c r="U68" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V68" s="6">
         <v>45488</v>
       </c>
       <c r="X68" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y68" s="6">
         <v>45488</v>
@@ -4622,22 +4622,22 @@
         <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D69">
         <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G69" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N69">
         <v>-9.9999999999999995E-7</v>
@@ -4652,19 +4652,19 @@
         <v>0</v>
       </c>
       <c r="S69" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T69" s="6">
         <v>45488</v>
       </c>
       <c r="U69" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V69" s="6">
         <v>45488</v>
       </c>
       <c r="X69" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y69" s="6">
         <v>45488</v>
@@ -4678,22 +4678,22 @@
         <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D70">
         <v>6</v>
       </c>
       <c r="E70" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F70" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G70" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N70">
         <v>-9.9999999999999995E-7</v>
@@ -4708,19 +4708,19 @@
         <v>0</v>
       </c>
       <c r="S70" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T70" s="6">
         <v>45488</v>
       </c>
       <c r="U70" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V70" s="6">
         <v>45488</v>
       </c>
       <c r="X70" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y70" s="6">
         <v>45488</v>
@@ -4734,22 +4734,22 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D71">
         <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F71" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G71" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N71">
         <v>2.9000000000000001E-2</v>
@@ -4765,11 +4765,11 @@
       </c>
       <c r="T71" s="6"/>
       <c r="U71" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="V71" s="6"/>
       <c r="X71" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y71" s="6">
         <v>45488</v>
@@ -4783,22 +4783,22 @@
         <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D72">
         <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F72" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G72" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N72">
         <v>-7.0000000000000001E-3</v>
@@ -4813,19 +4813,19 @@
         <v>0</v>
       </c>
       <c r="S72" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T72" s="6">
         <v>45488</v>
       </c>
       <c r="U72" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V72" s="6">
         <v>45488</v>
       </c>
       <c r="X72" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y72" s="6">
         <v>45488</v>
@@ -4839,22 +4839,22 @@
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D73">
         <v>6</v>
       </c>
       <c r="E73" t="s">
+        <v>80</v>
+      </c>
+      <c r="F73" t="s">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s">
         <v>90</v>
       </c>
-      <c r="F73" t="s">
-        <v>91</v>
-      </c>
-      <c r="G73" t="s">
-        <v>100</v>
-      </c>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N73">
         <v>-9.9999999999999995E-7</v>
@@ -4869,19 +4869,19 @@
         <v>0</v>
       </c>
       <c r="S73" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T73" s="6">
         <v>45488</v>
       </c>
       <c r="U73" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V73" s="6">
         <v>45488</v>
       </c>
       <c r="X73" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y73" s="6">
         <v>45488</v>
@@ -4895,22 +4895,22 @@
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D74">
         <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F74" t="s">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s">
         <v>91</v>
       </c>
-      <c r="G74" t="s">
-        <v>101</v>
-      </c>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N74">
         <v>6.9999999999999994E-5</v>
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="S74" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T74" s="6">
         <v>45488</v>
       </c>
       <c r="U74" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V74" s="6">
         <v>45488</v>
       </c>
       <c r="X74" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y74" s="6">
         <v>45488</v>
@@ -4951,22 +4951,22 @@
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D75">
         <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F75" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" t="s">
         <v>91</v>
       </c>
-      <c r="G75" t="s">
-        <v>101</v>
-      </c>
       <c r="H75" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N75">
         <v>6.0000000000000002E-5</v>
@@ -4981,22 +4981,22 @@
         <v>0</v>
       </c>
       <c r="S75" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T75" s="6">
         <v>45488</v>
       </c>
       <c r="U75" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V75" s="6">
         <v>45488</v>
       </c>
       <c r="W75" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="X75" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y75" s="6">
         <v>45488</v>
@@ -5010,22 +5010,22 @@
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D76">
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F76" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G76" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H76" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N76">
         <v>-9.9999999999999995E-7</v>
@@ -5040,19 +5040,19 @@
         <v>0</v>
       </c>
       <c r="S76" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T76" s="6">
         <v>45488</v>
       </c>
       <c r="U76" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V76" s="6">
         <v>45488</v>
       </c>
       <c r="X76" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y76" s="6">
         <v>45488</v>
@@ -5066,22 +5066,22 @@
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D77">
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F77" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G77" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H77" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N77">
         <v>-9.9999999999999995E-7</v>
@@ -5096,19 +5096,19 @@
         <v>0</v>
       </c>
       <c r="S77" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T77" s="6">
         <v>45488</v>
       </c>
       <c r="U77" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V77" s="6">
         <v>45488</v>
       </c>
       <c r="X77" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y77" s="6">
         <v>45488</v>
@@ -5122,22 +5122,22 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D78">
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F78" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G78" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N78">
         <v>-9.9999999999999995E-7</v>
@@ -5152,19 +5152,19 @@
         <v>0</v>
       </c>
       <c r="S78" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T78" s="6">
         <v>45488</v>
       </c>
       <c r="U78" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V78" s="6">
         <v>45488</v>
       </c>
       <c r="X78" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y78" s="6">
         <v>45488</v>
@@ -5178,22 +5178,22 @@
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D79">
         <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F79" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G79" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H79" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N79">
         <v>-9.9999999999999995E-7</v>
@@ -5208,19 +5208,19 @@
         <v>0</v>
       </c>
       <c r="S79" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T79" s="6">
         <v>45488</v>
       </c>
       <c r="U79" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V79" s="6">
         <v>45488</v>
       </c>
       <c r="X79" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y79" s="6">
         <v>45488</v>
@@ -5234,22 +5234,22 @@
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D80">
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G80" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H80" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -5260,10 +5260,10 @@
       <c r="T80" s="6"/>
       <c r="V80" s="6"/>
       <c r="W80" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="X80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y80" s="6">
         <v>45488</v>
@@ -5277,22 +5277,22 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D81">
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F81" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G81" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H81" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N81">
         <v>1E-3</v>
@@ -5307,19 +5307,19 @@
         <v>0</v>
       </c>
       <c r="S81" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T81" s="6">
         <v>45488</v>
       </c>
       <c r="U81" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V81" s="6">
         <v>45488</v>
       </c>
       <c r="X81" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y81" s="6">
         <v>45488</v>
@@ -5333,22 +5333,22 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D82">
         <v>8</v>
       </c>
       <c r="E82" t="s">
+        <v>93</v>
+      </c>
+      <c r="F82" t="s">
+        <v>81</v>
+      </c>
+      <c r="G82" t="s">
         <v>103</v>
       </c>
-      <c r="F82" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" t="s">
-        <v>113</v>
-      </c>
       <c r="H82" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I82">
         <v>9.9999999999999995E-7</v>
@@ -5357,10 +5357,10 @@
         <v>50</v>
       </c>
       <c r="L82" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M82" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N82">
         <v>0.1</v>
@@ -5375,19 +5375,19 @@
         <v>0</v>
       </c>
       <c r="S82" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T82" s="6">
         <v>45488</v>
       </c>
       <c r="U82" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V82" s="6">
         <v>45488</v>
       </c>
       <c r="X82" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y82" s="6">
         <v>45488</v>
@@ -5401,22 +5401,22 @@
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D83">
         <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F83" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G83" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H83" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N83">
         <v>-9.9999999999999995E-7</v>
@@ -5431,19 +5431,19 @@
         <v>0</v>
       </c>
       <c r="S83" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T83" s="6">
         <v>45488</v>
       </c>
       <c r="U83" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V83" s="6">
         <v>45488</v>
       </c>
       <c r="X83" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y83" s="6">
         <v>45488</v>
@@ -5457,22 +5457,22 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D84">
         <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F84" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G84" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H84" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I84">
         <v>-9.9999999999999995E-7</v>
@@ -5493,19 +5493,19 @@
         <v>0</v>
       </c>
       <c r="S84" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T84" s="6">
         <v>45488</v>
       </c>
       <c r="U84" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V84" s="6">
         <v>45488</v>
       </c>
       <c r="X84" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y84" s="6">
         <v>45488</v>
@@ -5519,22 +5519,22 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D85">
         <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F85" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G85" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H85" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N85">
         <v>-9.9999999999999995E-7</v>
@@ -5549,19 +5549,19 @@
         <v>0</v>
       </c>
       <c r="S85" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T85" s="6">
         <v>45488</v>
       </c>
       <c r="U85" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V85" s="6">
         <v>45488</v>
       </c>
       <c r="X85" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y85" s="6">
         <v>45488</v>
@@ -5575,22 +5575,22 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D86">
         <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F86" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G86" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H86" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I86">
         <v>-9.9999999999999995E-7</v>
@@ -5612,13 +5612,13 @@
       </c>
       <c r="T86" s="6"/>
       <c r="U86" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="V86" s="6">
         <v>45257</v>
       </c>
       <c r="X86" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y86" s="6">
         <v>45488</v>
@@ -5632,22 +5632,22 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D87">
         <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F87" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G87" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H87" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I87">
         <v>9.9999999999999995E-7</v>
@@ -5668,19 +5668,19 @@
         <v>0</v>
       </c>
       <c r="S87" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T87" s="6">
         <v>45488</v>
       </c>
       <c r="U87" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V87" s="6">
         <v>45488</v>
       </c>
       <c r="X87" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y87" s="6">
         <v>45488</v>
@@ -5694,22 +5694,22 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D88">
         <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F88" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G88" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H88" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I88">
         <v>-9.9999999999999995E-7</v>
@@ -5730,19 +5730,19 @@
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T88" s="6">
         <v>45488</v>
       </c>
       <c r="U88" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V88" s="6">
         <v>45488</v>
       </c>
       <c r="X88" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y88" s="6">
         <v>45488</v>
@@ -5756,22 +5756,22 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D89">
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F89" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G89" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H89" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I89">
         <v>9.9999999999999995E-7</v>
@@ -5792,19 +5792,19 @@
         <v>0</v>
       </c>
       <c r="S89" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T89" s="6">
         <v>45488</v>
       </c>
       <c r="U89" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V89" s="6">
         <v>45488</v>
       </c>
       <c r="X89" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y89" s="6">
         <v>45488</v>
@@ -5818,22 +5818,22 @@
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D90">
         <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F90" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G90" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H90" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I90">
         <v>-9.9999999999999995E-7</v>
@@ -5854,19 +5854,19 @@
         <v>0</v>
       </c>
       <c r="S90" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T90" s="6">
         <v>45488</v>
       </c>
       <c r="U90" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V90" s="6">
         <v>45488</v>
       </c>
       <c r="X90" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y90" s="6">
         <v>45488</v>
@@ -5880,22 +5880,22 @@
         <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D91">
         <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F91" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G91" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H91" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I91">
         <v>-9.9999999999999995E-7</v>
@@ -5904,7 +5904,7 @@
         <v>70</v>
       </c>
       <c r="M91" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="N91">
         <v>-9.9999999999999995E-7</v>
@@ -5919,19 +5919,19 @@
         <v>0</v>
       </c>
       <c r="S91" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T91" s="6">
         <v>45488</v>
       </c>
       <c r="U91" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V91" s="6">
         <v>45488</v>
       </c>
       <c r="X91" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y91" s="6">
         <v>45488</v>
@@ -5945,22 +5945,22 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D92">
         <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F92" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G92" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H92" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I92">
         <v>5.0000009999999996E-3</v>
@@ -5969,7 +5969,7 @@
         <v>100</v>
       </c>
       <c r="M92" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="N92">
         <v>5.4000000000000003E-3</v>
@@ -5984,19 +5984,19 @@
         <v>0</v>
       </c>
       <c r="S92" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T92" s="6">
         <v>45488</v>
       </c>
       <c r="U92" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V92" s="6">
         <v>45488</v>
       </c>
       <c r="X92" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y92" s="6">
         <v>45488</v>
@@ -6010,22 +6010,22 @@
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D93">
         <v>7</v>
       </c>
       <c r="E93" t="s">
+        <v>111</v>
+      </c>
+      <c r="F93" t="s">
+        <v>108</v>
+      </c>
+      <c r="G93" t="s">
+        <v>120</v>
+      </c>
+      <c r="H93" t="s">
         <v>121</v>
-      </c>
-      <c r="F93" t="s">
-        <v>118</v>
-      </c>
-      <c r="G93" t="s">
-        <v>130</v>
-      </c>
-      <c r="H93" t="s">
-        <v>131</v>
       </c>
       <c r="I93">
         <v>-5</v>
@@ -6046,19 +6046,19 @@
         <v>0</v>
       </c>
       <c r="S93" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T93" s="6">
         <v>45488</v>
       </c>
       <c r="U93" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V93" s="6">
         <v>45488</v>
       </c>
       <c r="X93" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y93" s="6">
         <v>45488</v>
@@ -6072,22 +6072,22 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D94">
         <v>7</v>
       </c>
       <c r="E94" t="s">
+        <v>111</v>
+      </c>
+      <c r="F94" t="s">
+        <v>81</v>
+      </c>
+      <c r="G94" t="s">
+        <v>120</v>
+      </c>
+      <c r="H94" t="s">
         <v>121</v>
-      </c>
-      <c r="F94" t="s">
-        <v>91</v>
-      </c>
-      <c r="G94" t="s">
-        <v>130</v>
-      </c>
-      <c r="H94" t="s">
-        <v>131</v>
       </c>
       <c r="I94">
         <v>3</v>
@@ -6108,19 +6108,19 @@
         <v>0</v>
       </c>
       <c r="S94" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T94" s="6">
         <v>45488</v>
       </c>
       <c r="U94" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V94" s="6">
         <v>45488</v>
       </c>
       <c r="X94" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y94" s="6">
         <v>45488</v>
@@ -6134,22 +6134,22 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D95">
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G95" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -6171,13 +6171,13 @@
       </c>
       <c r="T95" s="6"/>
       <c r="U95" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="V95" s="6">
         <v>45257</v>
       </c>
       <c r="X95" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y95" s="6">
         <v>45488</v>
@@ -6191,22 +6191,22 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D96">
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F96" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G96" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H96" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I96">
         <v>2</v>
@@ -6227,19 +6227,19 @@
         <v>0</v>
       </c>
       <c r="S96" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="T96" s="6">
         <v>45488</v>
       </c>
       <c r="U96" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V96" s="6">
         <v>45488</v>
       </c>
       <c r="X96" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y96" s="6">
         <v>45488</v>

--- a/output/ScriptResults/Database_Thresholds.xlsx
+++ b/output/ScriptResults/Database_Thresholds.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
   <si>
     <t>Parameter Units.</t>
   </si>
@@ -987,6 +987,15 @@
   </si>
   <si>
     <t xml:space="preserve">Water Column - Fluorescent dissolved organic matter, FDOM not included in SEACAR data export tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated: 2024-09-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ_Report_Render.R, Git Commit ID: 4613a4a191f05e3e604adbbffe6225f17403b427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database_Thresholds.xlsx, Git Commit ID: 4613a4a191f05e3e604adbbffe6225f17403b427</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1430,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>170</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" ht="158.44999999999999" customHeight="1">
@@ -1598,10 +1607,10 @@
         <v>298</v>
       </c>
       <c r="W8" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X8" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y8" s="7"/>
     </row>
@@ -1651,21 +1660,17 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="S9" t="s">
-        <v>300</v>
-      </c>
-      <c r="T9" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S9"/>
+      <c r="T9" s="7"/>
       <c r="U9" t="s">
         <v>301</v>
       </c>
       <c r="V9" s="6"/>
       <c r="W9" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X9" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y9" s="7" t="n">
         <v>45517</v>
@@ -1715,21 +1720,17 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="S10" t="s">
-        <v>300</v>
-      </c>
-      <c r="T10" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S10"/>
+      <c r="T10" s="7"/>
       <c r="U10" t="s">
         <v>301</v>
       </c>
       <c r="V10" s="6"/>
       <c r="W10" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X10" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y10" s="7" t="n">
         <v>45517</v>
@@ -1788,10 +1789,10 @@
       </c>
       <c r="V11" s="6"/>
       <c r="W11" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X11" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y11" s="7" t="n">
         <v>45314</v>
@@ -1844,10 +1845,10 @@
         <v>303</v>
       </c>
       <c r="W12" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X12" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y12" s="7"/>
     </row>
@@ -1895,21 +1896,17 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="S13" t="s">
-        <v>300</v>
-      </c>
-      <c r="T13" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S13"/>
+      <c r="T13" s="7"/>
       <c r="U13" t="s">
         <v>301</v>
       </c>
       <c r="V13" s="6"/>
       <c r="W13" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X13" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y13" s="7" t="n">
         <v>45517</v>
@@ -1957,21 +1954,17 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="S14" t="s">
-        <v>300</v>
-      </c>
-      <c r="T14" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S14"/>
+      <c r="T14" s="7"/>
       <c r="U14" t="s">
         <v>301</v>
       </c>
       <c r="V14" s="6"/>
       <c r="W14" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X14" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y14" s="7" t="n">
         <v>45517</v>
@@ -2015,21 +2008,17 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="S15" t="s">
-        <v>300</v>
-      </c>
-      <c r="T15" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S15"/>
+      <c r="T15" s="7"/>
       <c r="U15"/>
       <c r="V15" s="6" t="s">
         <v>304</v>
       </c>
       <c r="W15" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X15" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y15" s="7" t="n">
         <v>45517</v>
@@ -2079,21 +2068,17 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="S16" t="s">
-        <v>300</v>
-      </c>
-      <c r="T16" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S16"/>
+      <c r="T16" s="7"/>
       <c r="U16" t="s">
         <v>301</v>
       </c>
       <c r="V16" s="6"/>
       <c r="W16" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X16" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y16" s="7" t="n">
         <v>45517</v>
@@ -2141,21 +2126,17 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="S17" t="s">
-        <v>300</v>
-      </c>
-      <c r="T17" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S17"/>
+      <c r="T17" s="7"/>
       <c r="U17"/>
       <c r="V17" s="6" t="s">
         <v>304</v>
       </c>
       <c r="W17" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X17" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y17" s="7" t="n">
         <v>45517</v>
@@ -2208,10 +2189,10 @@
         <v>306</v>
       </c>
       <c r="W18" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X18" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y18" s="7" t="n">
         <v>45257</v>
@@ -2261,21 +2242,17 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="S19" t="s">
-        <v>300</v>
-      </c>
-      <c r="T19" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S19"/>
+      <c r="T19" s="7"/>
       <c r="U19" t="s">
         <v>301</v>
       </c>
       <c r="V19" s="6"/>
       <c r="W19" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X19" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y19" s="7" t="n">
         <v>45517</v>
@@ -2325,21 +2302,17 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="S20" t="s">
-        <v>300</v>
-      </c>
-      <c r="T20" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S20"/>
+      <c r="T20" s="7"/>
       <c r="U20" t="s">
         <v>301</v>
       </c>
       <c r="V20" s="6"/>
       <c r="W20" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X20" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y20" s="7" t="n">
         <v>45517</v>
@@ -2389,21 +2362,17 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="S21" t="s">
-        <v>300</v>
-      </c>
-      <c r="T21" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S21"/>
+      <c r="T21" s="7"/>
       <c r="U21" t="s">
         <v>301</v>
       </c>
       <c r="V21" s="6"/>
       <c r="W21" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X21" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y21" s="7" t="n">
         <v>45517</v>
@@ -2453,21 +2422,17 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="S22" t="s">
-        <v>300</v>
-      </c>
-      <c r="T22" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S22"/>
+      <c r="T22" s="7"/>
       <c r="U22" t="s">
         <v>301</v>
       </c>
       <c r="V22" s="6"/>
       <c r="W22" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X22" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y22" s="7" t="n">
         <v>45517</v>
@@ -2519,21 +2484,17 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
-      <c r="S23" t="s">
-        <v>300</v>
-      </c>
-      <c r="T23" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S23"/>
+      <c r="T23" s="7"/>
       <c r="U23" t="s">
         <v>301</v>
       </c>
       <c r="V23" s="6"/>
       <c r="W23" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X23" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y23" s="7" t="n">
         <v>45517</v>
@@ -2585,21 +2546,17 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
-      <c r="S24" t="s">
-        <v>300</v>
-      </c>
-      <c r="T24" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S24"/>
+      <c r="T24" s="7"/>
       <c r="U24" t="s">
         <v>301</v>
       </c>
       <c r="V24" s="6"/>
       <c r="W24" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X24" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y24" s="7" t="n">
         <v>45517</v>
@@ -2652,10 +2609,10 @@
         <v>307</v>
       </c>
       <c r="W25" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X25" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y25" s="7"/>
     </row>
@@ -2703,21 +2660,17 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="S26" t="s">
-        <v>300</v>
-      </c>
-      <c r="T26" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S26"/>
+      <c r="T26" s="7"/>
       <c r="U26" t="s">
         <v>301</v>
       </c>
       <c r="V26" s="6"/>
       <c r="W26" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X26" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y26" s="7" t="n">
         <v>45517</v>
@@ -2772,10 +2725,10 @@
       </c>
       <c r="V27" s="6"/>
       <c r="W27" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X27" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y27" s="7" t="n">
         <v>45314</v>
@@ -2829,21 +2782,17 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
-      <c r="S28" t="s">
-        <v>300</v>
-      </c>
-      <c r="T28" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S28"/>
+      <c r="T28" s="7"/>
       <c r="U28" t="s">
         <v>301</v>
       </c>
       <c r="V28" s="6"/>
       <c r="W28" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X28" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y28" s="7" t="n">
         <v>45517</v>
@@ -2904,10 +2853,10 @@
       </c>
       <c r="V29" s="6"/>
       <c r="W29" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X29" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y29" s="7" t="n">
         <v>45314</v>
@@ -2961,21 +2910,17 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="S30" t="s">
-        <v>300</v>
-      </c>
-      <c r="T30" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S30"/>
+      <c r="T30" s="7"/>
       <c r="U30" t="s">
         <v>301</v>
       </c>
       <c r="V30" s="6"/>
       <c r="W30" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X30" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y30" s="7" t="n">
         <v>45517</v>
@@ -3029,21 +2974,17 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="S31" t="s">
-        <v>300</v>
-      </c>
-      <c r="T31" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S31"/>
+      <c r="T31" s="7"/>
       <c r="U31" t="s">
         <v>301</v>
       </c>
       <c r="V31" s="6"/>
       <c r="W31" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X31" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y31" s="7" t="n">
         <v>45517</v>
@@ -3098,10 +3039,10 @@
       </c>
       <c r="V32" s="6"/>
       <c r="W32" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X32" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y32" s="7" t="n">
         <v>45314</v>
@@ -3155,21 +3096,17 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="S33" t="s">
-        <v>300</v>
-      </c>
-      <c r="T33" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S33"/>
+      <c r="T33" s="7"/>
       <c r="U33" t="s">
         <v>301</v>
       </c>
       <c r="V33" s="6"/>
       <c r="W33" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X33" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y33" s="7" t="n">
         <v>45517</v>
@@ -3230,10 +3167,10 @@
       </c>
       <c r="V34" s="6"/>
       <c r="W34" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X34" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y34" s="7" t="n">
         <v>45314</v>
@@ -3287,21 +3224,17 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
-      <c r="S35" t="s">
-        <v>300</v>
-      </c>
-      <c r="T35" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S35"/>
+      <c r="T35" s="7"/>
       <c r="U35" t="s">
         <v>301</v>
       </c>
       <c r="V35" s="6"/>
       <c r="W35" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X35" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y35" s="7" t="n">
         <v>45517</v>
@@ -3355,21 +3288,17 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="S36" t="s">
-        <v>300</v>
-      </c>
-      <c r="T36" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S36"/>
+      <c r="T36" s="7"/>
       <c r="U36" t="s">
         <v>301</v>
       </c>
       <c r="V36" s="6"/>
       <c r="W36" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X36" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y36" s="7" t="n">
         <v>45517</v>
@@ -3424,10 +3353,10 @@
       </c>
       <c r="V37" s="6"/>
       <c r="W37" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X37" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y37" s="7" t="n">
         <v>45314</v>
@@ -3481,21 +3410,17 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
-      <c r="S38" t="s">
-        <v>300</v>
-      </c>
-      <c r="T38" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S38"/>
+      <c r="T38" s="7"/>
       <c r="U38" t="s">
         <v>301</v>
       </c>
       <c r="V38" s="6"/>
       <c r="W38" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X38" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y38" s="7" t="n">
         <v>45517</v>
@@ -3556,10 +3481,10 @@
       </c>
       <c r="V39" s="6"/>
       <c r="W39" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X39" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y39" s="7" t="n">
         <v>45314</v>
@@ -3613,21 +3538,17 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
-      <c r="S40" t="s">
-        <v>300</v>
-      </c>
-      <c r="T40" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S40"/>
+      <c r="T40" s="7"/>
       <c r="U40" t="s">
         <v>301</v>
       </c>
       <c r="V40" s="6"/>
       <c r="W40" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X40" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y40" s="7" t="n">
         <v>45517</v>
@@ -3681,21 +3602,17 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
-      <c r="S41" t="s">
-        <v>300</v>
-      </c>
-      <c r="T41" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S41"/>
+      <c r="T41" s="7"/>
       <c r="U41" t="s">
         <v>301</v>
       </c>
       <c r="V41" s="6"/>
       <c r="W41" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X41" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y41" s="7" t="n">
         <v>45517</v>
@@ -3745,21 +3662,17 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="S42" t="s">
-        <v>300</v>
-      </c>
-      <c r="T42" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S42"/>
+      <c r="T42" s="7"/>
       <c r="U42" t="s">
         <v>301</v>
       </c>
       <c r="V42" s="6"/>
       <c r="W42" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X42" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y42" s="7" t="n">
         <v>45517</v>
@@ -3809,21 +3722,17 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
-      <c r="S43" t="s">
-        <v>300</v>
-      </c>
-      <c r="T43" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S43"/>
+      <c r="T43" s="7"/>
       <c r="U43" t="s">
         <v>301</v>
       </c>
       <c r="V43" s="6"/>
       <c r="W43" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X43" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y43" s="7" t="n">
         <v>45517</v>
@@ -3873,21 +3782,17 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="S44" t="s">
-        <v>300</v>
-      </c>
-      <c r="T44" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S44"/>
+      <c r="T44" s="7"/>
       <c r="U44" t="s">
         <v>301</v>
       </c>
       <c r="V44" s="6"/>
       <c r="W44" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X44" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y44" s="7" t="n">
         <v>45517</v>
@@ -3939,21 +3844,17 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="S45" t="s">
-        <v>300</v>
-      </c>
-      <c r="T45" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S45"/>
+      <c r="T45" s="7"/>
       <c r="U45" t="s">
         <v>301</v>
       </c>
       <c r="V45" s="6"/>
       <c r="W45" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X45" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y45" s="7" t="n">
         <v>45517</v>
@@ -4012,10 +3913,10 @@
       </c>
       <c r="V46" s="6"/>
       <c r="W46" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X46" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y46" s="7"/>
     </row>
@@ -4065,21 +3966,17 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="S47" t="s">
-        <v>300</v>
-      </c>
-      <c r="T47" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S47"/>
+      <c r="T47" s="7"/>
       <c r="U47" t="s">
         <v>301</v>
       </c>
       <c r="V47" s="6"/>
       <c r="W47" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X47" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y47" s="7" t="n">
         <v>45517</v>
@@ -4131,21 +4028,17 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
-      <c r="S48" t="s">
-        <v>300</v>
-      </c>
-      <c r="T48" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S48"/>
+      <c r="T48" s="7"/>
       <c r="U48" t="s">
         <v>301</v>
       </c>
       <c r="V48" s="6"/>
       <c r="W48" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X48" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y48" s="7" t="n">
         <v>45517</v>
@@ -4204,10 +4097,10 @@
       </c>
       <c r="V49" s="6"/>
       <c r="W49" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X49" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y49" s="7" t="n">
         <v>45314</v>
@@ -4260,10 +4153,10 @@
         <v>309</v>
       </c>
       <c r="W50" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X50" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y50" s="7"/>
     </row>
@@ -4307,21 +4200,17 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="S51" t="s">
-        <v>300</v>
-      </c>
-      <c r="T51" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S51"/>
+      <c r="T51" s="7"/>
       <c r="U51"/>
       <c r="V51" s="6" t="s">
         <v>310</v>
       </c>
       <c r="W51" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X51" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y51" s="7" t="n">
         <v>45517</v>
@@ -4369,21 +4258,17 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
-      <c r="S52" t="s">
-        <v>300</v>
-      </c>
-      <c r="T52" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S52"/>
+      <c r="T52" s="7"/>
       <c r="U52"/>
       <c r="V52" s="6" t="s">
         <v>311</v>
       </c>
       <c r="W52" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X52" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y52" s="7" t="n">
         <v>45517</v>
@@ -4435,21 +4320,17 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
-      <c r="S53" t="s">
-        <v>300</v>
-      </c>
-      <c r="T53" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S53"/>
+      <c r="T53" s="7"/>
       <c r="U53" t="s">
         <v>301</v>
       </c>
       <c r="V53" s="6"/>
       <c r="W53" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X53" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y53" s="7" t="n">
         <v>45517</v>
@@ -4499,12 +4380,8 @@
       <c r="Q54" t="n">
         <v>1</v>
       </c>
-      <c r="S54" t="s">
-        <v>300</v>
-      </c>
-      <c r="T54" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S54"/>
+      <c r="T54" s="7"/>
       <c r="U54" t="s">
         <v>301</v>
       </c>
@@ -4512,10 +4389,10 @@
         <v>312</v>
       </c>
       <c r="W54" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X54" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y54" s="7" t="n">
         <v>45517</v>
@@ -4567,21 +4444,17 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
-      <c r="S55" t="s">
-        <v>300</v>
-      </c>
-      <c r="T55" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S55"/>
+      <c r="T55" s="7"/>
       <c r="U55" t="s">
         <v>301</v>
       </c>
       <c r="V55" s="6"/>
       <c r="W55" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X55" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y55" s="7" t="n">
         <v>45517</v>
@@ -4633,12 +4506,8 @@
       <c r="Q56" t="n">
         <v>1</v>
       </c>
-      <c r="S56" t="s">
-        <v>300</v>
-      </c>
-      <c r="T56" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S56"/>
+      <c r="T56" s="7"/>
       <c r="U56" t="s">
         <v>301</v>
       </c>
@@ -4646,10 +4515,10 @@
         <v>312</v>
       </c>
       <c r="W56" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X56" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y56" s="7" t="n">
         <v>45517</v>
@@ -4697,21 +4566,17 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
-      <c r="S57" t="s">
-        <v>300</v>
-      </c>
-      <c r="T57" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S57"/>
+      <c r="T57" s="7"/>
       <c r="U57"/>
       <c r="V57" s="6" t="s">
         <v>313</v>
       </c>
       <c r="W57" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X57" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y57" s="7" t="n">
         <v>45517</v>
@@ -4766,10 +4631,10 @@
         <v>314</v>
       </c>
       <c r="W58" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X58" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y58" s="7" t="n">
         <v>45314</v>
@@ -4819,21 +4684,17 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
-      <c r="S59" t="s">
-        <v>300</v>
-      </c>
-      <c r="T59" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S59"/>
+      <c r="T59" s="7"/>
       <c r="U59" t="s">
         <v>301</v>
       </c>
       <c r="V59" s="6"/>
       <c r="W59" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X59" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y59" s="7" t="n">
         <v>45517</v>
@@ -4886,10 +4747,10 @@
         <v>315</v>
       </c>
       <c r="W60" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X60" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y60" s="7"/>
     </row>
@@ -4935,21 +4796,17 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
-      <c r="S61" t="s">
-        <v>300</v>
-      </c>
-      <c r="T61" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S61"/>
+      <c r="T61" s="7"/>
       <c r="U61"/>
       <c r="V61" s="6" t="s">
         <v>316</v>
       </c>
       <c r="W61" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X61" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y61" s="7" t="n">
         <v>45517</v>
@@ -5002,10 +4859,10 @@
         <v>317</v>
       </c>
       <c r="W62" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X62" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y62" s="7"/>
     </row>
@@ -5053,21 +4910,17 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
-      <c r="S63" t="s">
-        <v>300</v>
-      </c>
-      <c r="T63" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S63"/>
+      <c r="T63" s="7"/>
       <c r="U63" t="s">
         <v>301</v>
       </c>
       <c r="V63" s="6"/>
       <c r="W63" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X63" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y63" s="7" t="n">
         <v>45517</v>
@@ -5120,10 +4973,10 @@
         <v>318</v>
       </c>
       <c r="W64" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X64" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y64" s="7"/>
     </row>
@@ -5174,10 +5027,10 @@
         <v>319</v>
       </c>
       <c r="W65" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X65" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y65" s="7"/>
     </row>
@@ -5223,21 +5076,17 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
-      <c r="S66" t="s">
-        <v>300</v>
-      </c>
-      <c r="T66" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S66"/>
+      <c r="T66" s="7"/>
       <c r="U66" t="s">
         <v>301</v>
       </c>
       <c r="V66" s="6"/>
       <c r="W66" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X66" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y66" s="7" t="n">
         <v>45517</v>
@@ -5274,10 +5123,10 @@
       <c r="L67"/>
       <c r="M67"/>
       <c r="N67" t="n">
-        <v>-0.025045</v>
+        <v>-0.0231</v>
       </c>
       <c r="O67" t="n">
-        <v>5.67755</v>
+        <v>5.0979</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -5289,20 +5138,20 @@
         <v>300</v>
       </c>
       <c r="T67" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U67" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V67" s="6"/>
       <c r="W67" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X67" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y67" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="68">
@@ -5336,10 +5185,10 @@
       <c r="L68"/>
       <c r="M68"/>
       <c r="N68" t="n">
-        <v>-0.0023</v>
+        <v>-0.002</v>
       </c>
       <c r="O68" t="n">
-        <v>3.139395</v>
+        <v>2.83719</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -5351,20 +5200,20 @@
         <v>300</v>
       </c>
       <c r="T68" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U68" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V68" s="6"/>
       <c r="W68" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X68" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y68" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="69">
@@ -5401,7 +5250,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O69" t="n">
-        <v>0.79552</v>
+        <v>0.95771</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -5413,20 +5262,20 @@
         <v>300</v>
       </c>
       <c r="T69" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U69" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V69" s="6"/>
       <c r="W69" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X69" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y69" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="70">
@@ -5460,10 +5309,10 @@
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70" t="n">
-        <v>-0.000001</v>
+        <v>0.00014</v>
       </c>
       <c r="O70" t="n">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -5475,20 +5324,20 @@
         <v>300</v>
       </c>
       <c r="T70" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U70" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V70" s="6"/>
       <c r="W70" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X70" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y70" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="71">
@@ -5540,10 +5389,10 @@
       </c>
       <c r="V71" s="6"/>
       <c r="W71" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X71" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y71" s="7"/>
     </row>
@@ -5589,21 +5438,17 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
-      <c r="S72" t="s">
-        <v>300</v>
-      </c>
-      <c r="T72" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S72"/>
+      <c r="T72" s="7"/>
       <c r="U72" t="s">
         <v>301</v>
       </c>
       <c r="V72" s="6"/>
       <c r="W72" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X72" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y72" s="7" t="n">
         <v>45517</v>
@@ -5640,10 +5485,10 @@
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73" t="n">
-        <v>-0.000001</v>
+        <v>0.0001</v>
       </c>
       <c r="O73" t="n">
-        <v>5.07</v>
+        <v>4.81323</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -5655,20 +5500,20 @@
         <v>300</v>
       </c>
       <c r="T73" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U73" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V73" s="6"/>
       <c r="W73" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X73" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y73" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="74">
@@ -5705,7 +5550,7 @@
         <v>0.00007</v>
       </c>
       <c r="O74" t="n">
-        <v>4.2</v>
+        <v>4.12935</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -5717,20 +5562,20 @@
         <v>300</v>
       </c>
       <c r="T74" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U74" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V74" s="6"/>
       <c r="W74" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X74" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y74" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="75">
@@ -5767,7 +5612,7 @@
         <v>0.00006</v>
       </c>
       <c r="O75" t="n">
-        <v>2.7462</v>
+        <v>2.77562</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -5779,22 +5624,22 @@
         <v>300</v>
       </c>
       <c r="T75" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U75" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V75" s="6" t="s">
         <v>320</v>
       </c>
       <c r="W75" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X75" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y75" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="76">
@@ -5831,7 +5676,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O76" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -5843,20 +5688,20 @@
         <v>300</v>
       </c>
       <c r="T76" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U76" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V76" s="6"/>
       <c r="W76" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X76" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y76" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="77">
@@ -5893,7 +5738,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O77" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -5905,20 +5750,20 @@
         <v>300</v>
       </c>
       <c r="T77" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U77" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V77" s="6"/>
       <c r="W77" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X77" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y77" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="78">
@@ -5955,7 +5800,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O78" t="n">
-        <v>116.508</v>
+        <v>111.0856</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -5967,20 +5812,20 @@
         <v>300</v>
       </c>
       <c r="T78" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U78" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V78" s="6"/>
       <c r="W78" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X78" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y78" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="79">
@@ -6017,7 +5862,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O79" t="n">
-        <v>711.61</v>
+        <v>699.3698</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -6029,20 +5874,20 @@
         <v>300</v>
       </c>
       <c r="T79" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U79" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V79" s="6"/>
       <c r="W79" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X79" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y79" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="80">
@@ -6090,10 +5935,10 @@
         <v>321</v>
       </c>
       <c r="W80" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X80" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y80" s="7"/>
     </row>
@@ -6139,21 +5984,17 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
-      <c r="S81" t="s">
-        <v>300</v>
-      </c>
-      <c r="T81" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S81"/>
+      <c r="T81" s="7"/>
       <c r="U81" t="s">
         <v>301</v>
       </c>
       <c r="V81" s="6"/>
       <c r="W81" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X81" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y81" s="7" t="n">
         <v>45517</v>
@@ -6201,7 +6042,7 @@
         <v>0.1</v>
       </c>
       <c r="O82" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -6213,20 +6054,20 @@
         <v>300</v>
       </c>
       <c r="T82" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U82" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V82" s="6"/>
       <c r="W82" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X82" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y82" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="83">
@@ -6263,7 +6104,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O83" t="n">
-        <v>180.854</v>
+        <v>177</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -6275,20 +6116,20 @@
         <v>300</v>
       </c>
       <c r="T83" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U83" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V83" s="6"/>
       <c r="W83" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X83" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y83" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="84">
@@ -6329,7 +6170,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O84" t="n">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -6341,20 +6182,20 @@
         <v>300</v>
       </c>
       <c r="T84" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U84" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V84" s="6"/>
       <c r="W84" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X84" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y84" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="85">
@@ -6391,7 +6232,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O85" t="n">
-        <v>124.736197</v>
+        <v>126</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -6403,20 +6244,20 @@
         <v>300</v>
       </c>
       <c r="T85" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U85" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V85" s="6"/>
       <c r="W85" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X85" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y85" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="86">
@@ -6472,10 +6313,10 @@
       </c>
       <c r="V86" s="6"/>
       <c r="W86" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X86" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y86" s="7" t="n">
         <v>45257</v>
@@ -6507,16 +6348,16 @@
         <v>250</v>
       </c>
       <c r="I87" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J87" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K87"/>
       <c r="L87"/>
       <c r="M87"/>
       <c r="N87" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="O87" t="n">
         <v>14</v>
@@ -6531,20 +6372,20 @@
         <v>300</v>
       </c>
       <c r="T87" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U87" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V87" s="6"/>
       <c r="W87" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X87" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y87" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="88">
@@ -6585,7 +6426,7 @@
         <v>1.6</v>
       </c>
       <c r="O88" t="n">
-        <v>170.8</v>
+        <v>170.52318</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -6597,20 +6438,20 @@
         <v>300</v>
       </c>
       <c r="T88" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U88" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V88" s="6"/>
       <c r="W88" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X88" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y88" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="89">
@@ -6639,7 +6480,7 @@
         <v>195</v>
       </c>
       <c r="I89" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J89" t="n">
         <v>310</v>
@@ -6648,10 +6489,10 @@
       <c r="L89"/>
       <c r="M89"/>
       <c r="N89" t="n">
-        <v>0.313613</v>
+        <v>0.342931</v>
       </c>
       <c r="O89" t="n">
-        <v>175.291124</v>
+        <v>174.98932</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -6663,20 +6504,20 @@
         <v>300</v>
       </c>
       <c r="T89" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U89" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V89" s="6"/>
       <c r="W89" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X89" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y89" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="90">
@@ -6725,21 +6566,17 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
-      <c r="S90" t="s">
-        <v>300</v>
-      </c>
-      <c r="T90" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S90"/>
+      <c r="T90" s="7"/>
       <c r="U90" t="s">
         <v>301</v>
       </c>
       <c r="V90" s="6"/>
       <c r="W90" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X90" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y90" s="7" t="n">
         <v>45517</v>
@@ -6785,7 +6622,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O91" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
@@ -6797,20 +6634,20 @@
         <v>300</v>
       </c>
       <c r="T91" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U91" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V91" s="6"/>
       <c r="W91" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X91" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y91" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="92">
@@ -6853,7 +6690,7 @@
         <v>0.0054</v>
       </c>
       <c r="O92" t="n">
-        <v>60.381584</v>
+        <v>60.71</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
@@ -6865,20 +6702,20 @@
         <v>300</v>
       </c>
       <c r="T92" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U92" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V92" s="6"/>
       <c r="W92" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X92" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y92" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="93">
@@ -6927,21 +6764,17 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
-      <c r="S93" t="s">
-        <v>300</v>
-      </c>
-      <c r="T93" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S93"/>
+      <c r="T93" s="7"/>
       <c r="U93" t="s">
         <v>301</v>
       </c>
       <c r="V93" s="6"/>
       <c r="W93" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X93" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y93" s="7" t="n">
         <v>45517</v>
@@ -6982,7 +6815,7 @@
       <c r="L94"/>
       <c r="M94"/>
       <c r="N94" t="n">
-        <v>6.59466</v>
+        <v>6.6</v>
       </c>
       <c r="O94" t="n">
         <v>33.9</v>
@@ -6997,20 +6830,20 @@
         <v>300</v>
       </c>
       <c r="T94" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="U94" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="V94" s="6"/>
       <c r="W94" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X94" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y94" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="95">
@@ -7066,10 +6899,10 @@
       </c>
       <c r="V95" s="6"/>
       <c r="W95" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X95" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y95" s="7" t="n">
         <v>45257</v>
@@ -7121,21 +6954,17 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
-      <c r="S96" t="s">
-        <v>300</v>
-      </c>
-      <c r="T96" s="7" t="n">
-        <v>45517</v>
-      </c>
+      <c r="S96"/>
+      <c r="T96" s="7"/>
       <c r="U96" t="s">
         <v>301</v>
       </c>
       <c r="V96" s="6"/>
       <c r="W96" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="X96" s="7" t="n">
-        <v>45517</v>
+        <v>45547</v>
       </c>
       <c r="Y96" s="7" t="n">
         <v>45517</v>

--- a/output/ScriptResults/Database_Thresholds.xlsx
+++ b/output/ScriptResults/Database_Thresholds.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
   <si>
     <t>Parameter Units.</t>
   </si>
@@ -989,13 +989,16 @@
     <t xml:space="preserve">Water Column - Fluorescent dissolved organic matter, FDOM not included in SEACAR data export tables</t>
   </si>
   <si>
-    <t xml:space="preserve">Updated: 2024-09-12</t>
+    <t xml:space="preserve">Script Run: 2024-11-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">IQ_Report_Render.R, Git Commit ID: 4613a4a191f05e3e604adbbffe6225f17403b427</t>
   </si>
   <si>
-    <t xml:space="preserve">Database_Thresholds.xlsx, Git Commit ID: 4613a4a191f05e3e604adbbffe6225f17403b427</t>
+    <t xml:space="preserve">Database_Thresholds.xlsx, Git Commit ID: 00a27356deb3dd3ebc41bb112fe7b3bfe3e44544</t>
   </si>
 </sst>
 </file>
@@ -1428,9 +1431,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>322</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" ht="158.44999999999999" customHeight="1">
@@ -1607,10 +1615,10 @@
         <v>298</v>
       </c>
       <c r="W8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X8" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y8" s="7"/>
     </row>
@@ -1667,10 +1675,10 @@
       </c>
       <c r="V9" s="6"/>
       <c r="W9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X9" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y9" s="7" t="n">
         <v>45517</v>
@@ -1727,10 +1735,10 @@
       </c>
       <c r="V10" s="6"/>
       <c r="W10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X10" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y10" s="7" t="n">
         <v>45517</v>
@@ -1789,10 +1797,10 @@
       </c>
       <c r="V11" s="6"/>
       <c r="W11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X11" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y11" s="7" t="n">
         <v>45314</v>
@@ -1845,10 +1853,10 @@
         <v>303</v>
       </c>
       <c r="W12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X12" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y12" s="7"/>
     </row>
@@ -1903,10 +1911,10 @@
       </c>
       <c r="V13" s="6"/>
       <c r="W13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X13" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y13" s="7" t="n">
         <v>45517</v>
@@ -1961,10 +1969,10 @@
       </c>
       <c r="V14" s="6"/>
       <c r="W14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X14" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y14" s="7" t="n">
         <v>45517</v>
@@ -2015,10 +2023,10 @@
         <v>304</v>
       </c>
       <c r="W15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X15" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y15" s="7" t="n">
         <v>45517</v>
@@ -2075,10 +2083,10 @@
       </c>
       <c r="V16" s="6"/>
       <c r="W16" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X16" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y16" s="7" t="n">
         <v>45517</v>
@@ -2133,10 +2141,10 @@
         <v>304</v>
       </c>
       <c r="W17" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X17" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y17" s="7" t="n">
         <v>45517</v>
@@ -2189,10 +2197,10 @@
         <v>306</v>
       </c>
       <c r="W18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X18" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y18" s="7" t="n">
         <v>45257</v>
@@ -2249,10 +2257,10 @@
       </c>
       <c r="V19" s="6"/>
       <c r="W19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X19" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y19" s="7" t="n">
         <v>45517</v>
@@ -2309,10 +2317,10 @@
       </c>
       <c r="V20" s="6"/>
       <c r="W20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X20" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y20" s="7" t="n">
         <v>45517</v>
@@ -2369,10 +2377,10 @@
       </c>
       <c r="V21" s="6"/>
       <c r="W21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X21" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y21" s="7" t="n">
         <v>45517</v>
@@ -2429,10 +2437,10 @@
       </c>
       <c r="V22" s="6"/>
       <c r="W22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X22" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y22" s="7" t="n">
         <v>45517</v>
@@ -2491,10 +2499,10 @@
       </c>
       <c r="V23" s="6"/>
       <c r="W23" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X23" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y23" s="7" t="n">
         <v>45517</v>
@@ -2553,10 +2561,10 @@
       </c>
       <c r="V24" s="6"/>
       <c r="W24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X24" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y24" s="7" t="n">
         <v>45517</v>
@@ -2609,10 +2617,10 @@
         <v>307</v>
       </c>
       <c r="W25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X25" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y25" s="7"/>
     </row>
@@ -2667,10 +2675,10 @@
       </c>
       <c r="V26" s="6"/>
       <c r="W26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X26" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y26" s="7" t="n">
         <v>45517</v>
@@ -2725,10 +2733,10 @@
       </c>
       <c r="V27" s="6"/>
       <c r="W27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X27" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y27" s="7" t="n">
         <v>45314</v>
@@ -2789,10 +2797,10 @@
       </c>
       <c r="V28" s="6"/>
       <c r="W28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X28" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y28" s="7" t="n">
         <v>45517</v>
@@ -2853,10 +2861,10 @@
       </c>
       <c r="V29" s="6"/>
       <c r="W29" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X29" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y29" s="7" t="n">
         <v>45314</v>
@@ -2917,10 +2925,10 @@
       </c>
       <c r="V30" s="6"/>
       <c r="W30" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X30" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y30" s="7" t="n">
         <v>45517</v>
@@ -2981,10 +2989,10 @@
       </c>
       <c r="V31" s="6"/>
       <c r="W31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X31" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y31" s="7" t="n">
         <v>45517</v>
@@ -3039,10 +3047,10 @@
       </c>
       <c r="V32" s="6"/>
       <c r="W32" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X32" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y32" s="7" t="n">
         <v>45314</v>
@@ -3103,10 +3111,10 @@
       </c>
       <c r="V33" s="6"/>
       <c r="W33" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X33" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y33" s="7" t="n">
         <v>45517</v>
@@ -3167,10 +3175,10 @@
       </c>
       <c r="V34" s="6"/>
       <c r="W34" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X34" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y34" s="7" t="n">
         <v>45314</v>
@@ -3231,10 +3239,10 @@
       </c>
       <c r="V35" s="6"/>
       <c r="W35" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X35" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y35" s="7" t="n">
         <v>45517</v>
@@ -3295,10 +3303,10 @@
       </c>
       <c r="V36" s="6"/>
       <c r="W36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X36" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y36" s="7" t="n">
         <v>45517</v>
@@ -3353,10 +3361,10 @@
       </c>
       <c r="V37" s="6"/>
       <c r="W37" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X37" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y37" s="7" t="n">
         <v>45314</v>
@@ -3417,10 +3425,10 @@
       </c>
       <c r="V38" s="6"/>
       <c r="W38" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X38" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y38" s="7" t="n">
         <v>45517</v>
@@ -3481,10 +3489,10 @@
       </c>
       <c r="V39" s="6"/>
       <c r="W39" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X39" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y39" s="7" t="n">
         <v>45314</v>
@@ -3545,10 +3553,10 @@
       </c>
       <c r="V40" s="6"/>
       <c r="W40" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X40" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y40" s="7" t="n">
         <v>45517</v>
@@ -3609,10 +3617,10 @@
       </c>
       <c r="V41" s="6"/>
       <c r="W41" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X41" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y41" s="7" t="n">
         <v>45517</v>
@@ -3669,10 +3677,10 @@
       </c>
       <c r="V42" s="6"/>
       <c r="W42" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X42" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y42" s="7" t="n">
         <v>45517</v>
@@ -3729,10 +3737,10 @@
       </c>
       <c r="V43" s="6"/>
       <c r="W43" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X43" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y43" s="7" t="n">
         <v>45517</v>
@@ -3789,10 +3797,10 @@
       </c>
       <c r="V44" s="6"/>
       <c r="W44" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X44" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y44" s="7" t="n">
         <v>45517</v>
@@ -3851,10 +3859,10 @@
       </c>
       <c r="V45" s="6"/>
       <c r="W45" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X45" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y45" s="7" t="n">
         <v>45517</v>
@@ -3913,10 +3921,10 @@
       </c>
       <c r="V46" s="6"/>
       <c r="W46" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X46" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y46" s="7"/>
     </row>
@@ -3973,10 +3981,10 @@
       </c>
       <c r="V47" s="6"/>
       <c r="W47" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X47" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y47" s="7" t="n">
         <v>45517</v>
@@ -4035,10 +4043,10 @@
       </c>
       <c r="V48" s="6"/>
       <c r="W48" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X48" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y48" s="7" t="n">
         <v>45517</v>
@@ -4097,10 +4105,10 @@
       </c>
       <c r="V49" s="6"/>
       <c r="W49" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X49" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y49" s="7" t="n">
         <v>45314</v>
@@ -4153,10 +4161,10 @@
         <v>309</v>
       </c>
       <c r="W50" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X50" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y50" s="7"/>
     </row>
@@ -4207,10 +4215,10 @@
         <v>310</v>
       </c>
       <c r="W51" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X51" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y51" s="7" t="n">
         <v>45517</v>
@@ -4265,10 +4273,10 @@
         <v>311</v>
       </c>
       <c r="W52" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X52" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y52" s="7" t="n">
         <v>45517</v>
@@ -4327,10 +4335,10 @@
       </c>
       <c r="V53" s="6"/>
       <c r="W53" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X53" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y53" s="7" t="n">
         <v>45517</v>
@@ -4389,10 +4397,10 @@
         <v>312</v>
       </c>
       <c r="W54" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X54" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y54" s="7" t="n">
         <v>45517</v>
@@ -4451,10 +4459,10 @@
       </c>
       <c r="V55" s="6"/>
       <c r="W55" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X55" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y55" s="7" t="n">
         <v>45517</v>
@@ -4515,10 +4523,10 @@
         <v>312</v>
       </c>
       <c r="W56" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X56" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y56" s="7" t="n">
         <v>45517</v>
@@ -4573,10 +4581,10 @@
         <v>313</v>
       </c>
       <c r="W57" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X57" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y57" s="7" t="n">
         <v>45517</v>
@@ -4631,10 +4639,10 @@
         <v>314</v>
       </c>
       <c r="W58" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X58" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y58" s="7" t="n">
         <v>45314</v>
@@ -4691,10 +4699,10 @@
       </c>
       <c r="V59" s="6"/>
       <c r="W59" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X59" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y59" s="7" t="n">
         <v>45517</v>
@@ -4747,10 +4755,10 @@
         <v>315</v>
       </c>
       <c r="W60" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X60" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y60" s="7"/>
     </row>
@@ -4803,10 +4811,10 @@
         <v>316</v>
       </c>
       <c r="W61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X61" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y61" s="7" t="n">
         <v>45517</v>
@@ -4859,10 +4867,10 @@
         <v>317</v>
       </c>
       <c r="W62" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X62" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y62" s="7"/>
     </row>
@@ -4917,10 +4925,10 @@
       </c>
       <c r="V63" s="6"/>
       <c r="W63" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X63" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y63" s="7" t="n">
         <v>45517</v>
@@ -4973,10 +4981,10 @@
         <v>318</v>
       </c>
       <c r="W64" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X64" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y64" s="7"/>
     </row>
@@ -5027,10 +5035,10 @@
         <v>319</v>
       </c>
       <c r="W65" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X65" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y65" s="7"/>
     </row>
@@ -5083,10 +5091,10 @@
       </c>
       <c r="V66" s="6"/>
       <c r="W66" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X66" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y66" s="7" t="n">
         <v>45517</v>
@@ -5138,20 +5146,20 @@
         <v>300</v>
       </c>
       <c r="T67" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U67" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V67" s="6"/>
       <c r="W67" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X67" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y67" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="68">
@@ -5188,7 +5196,7 @@
         <v>-0.002</v>
       </c>
       <c r="O68" t="n">
-        <v>2.83719</v>
+        <v>2.837179</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -5200,20 +5208,20 @@
         <v>300</v>
       </c>
       <c r="T68" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U68" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V68" s="6"/>
       <c r="W68" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X68" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y68" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="69">
@@ -5262,20 +5270,20 @@
         <v>300</v>
       </c>
       <c r="T69" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U69" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V69" s="6"/>
       <c r="W69" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X69" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y69" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="70">
@@ -5324,20 +5332,20 @@
         <v>300</v>
       </c>
       <c r="T70" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U70" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V70" s="6"/>
       <c r="W70" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X70" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y70" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="71">
@@ -5389,10 +5397,10 @@
       </c>
       <c r="V71" s="6"/>
       <c r="W71" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X71" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y71" s="7"/>
     </row>
@@ -5445,10 +5453,10 @@
       </c>
       <c r="V72" s="6"/>
       <c r="W72" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X72" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y72" s="7" t="n">
         <v>45517</v>
@@ -5500,20 +5508,20 @@
         <v>300</v>
       </c>
       <c r="T73" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U73" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V73" s="6"/>
       <c r="W73" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X73" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y73" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="74">
@@ -5562,20 +5570,20 @@
         <v>300</v>
       </c>
       <c r="T74" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U74" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V74" s="6"/>
       <c r="W74" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X74" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y74" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="75">
@@ -5624,22 +5632,22 @@
         <v>300</v>
       </c>
       <c r="T75" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U75" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V75" s="6" t="s">
         <v>320</v>
       </c>
       <c r="W75" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X75" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y75" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="76">
@@ -5688,20 +5696,20 @@
         <v>300</v>
       </c>
       <c r="T76" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U76" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V76" s="6"/>
       <c r="W76" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X76" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y76" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="77">
@@ -5750,20 +5758,20 @@
         <v>300</v>
       </c>
       <c r="T77" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U77" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V77" s="6"/>
       <c r="W77" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X77" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y77" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="78">
@@ -5812,20 +5820,20 @@
         <v>300</v>
       </c>
       <c r="T78" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U78" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V78" s="6"/>
       <c r="W78" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X78" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y78" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="79">
@@ -5874,20 +5882,20 @@
         <v>300</v>
       </c>
       <c r="T79" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U79" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V79" s="6"/>
       <c r="W79" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X79" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y79" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="80">
@@ -5935,10 +5943,10 @@
         <v>321</v>
       </c>
       <c r="W80" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X80" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y80" s="7"/>
     </row>
@@ -5991,10 +5999,10 @@
       </c>
       <c r="V81" s="6"/>
       <c r="W81" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X81" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y81" s="7" t="n">
         <v>45517</v>
@@ -6054,20 +6062,20 @@
         <v>300</v>
       </c>
       <c r="T82" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U82" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V82" s="6"/>
       <c r="W82" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X82" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y82" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="83">
@@ -6116,20 +6124,20 @@
         <v>300</v>
       </c>
       <c r="T83" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U83" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V83" s="6"/>
       <c r="W83" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X83" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y83" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="84">
@@ -6182,20 +6190,20 @@
         <v>300</v>
       </c>
       <c r="T84" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U84" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V84" s="6"/>
       <c r="W84" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X84" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y84" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="85">
@@ -6244,20 +6252,20 @@
         <v>300</v>
       </c>
       <c r="T85" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U85" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V85" s="6"/>
       <c r="W85" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X85" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y85" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="86">
@@ -6313,10 +6321,10 @@
       </c>
       <c r="V86" s="6"/>
       <c r="W86" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X86" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y86" s="7" t="n">
         <v>45257</v>
@@ -6351,7 +6359,7 @@
         <v>-0.000001</v>
       </c>
       <c r="J87" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K87"/>
       <c r="L87"/>
@@ -6372,20 +6380,20 @@
         <v>300</v>
       </c>
       <c r="T87" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U87" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V87" s="6"/>
       <c r="W87" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X87" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y87" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="88">
@@ -6438,20 +6446,20 @@
         <v>300</v>
       </c>
       <c r="T88" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U88" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V88" s="6"/>
       <c r="W88" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X88" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y88" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="89">
@@ -6504,20 +6512,20 @@
         <v>300</v>
       </c>
       <c r="T89" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U89" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V89" s="6"/>
       <c r="W89" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X89" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y89" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="90">
@@ -6573,10 +6581,10 @@
       </c>
       <c r="V90" s="6"/>
       <c r="W90" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X90" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y90" s="7" t="n">
         <v>45517</v>
@@ -6634,20 +6642,20 @@
         <v>300</v>
       </c>
       <c r="T91" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U91" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V91" s="6"/>
       <c r="W91" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X91" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y91" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="92">
@@ -6702,20 +6710,20 @@
         <v>300</v>
       </c>
       <c r="T92" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U92" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V92" s="6"/>
       <c r="W92" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X92" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y92" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="93">
@@ -6771,10 +6779,10 @@
       </c>
       <c r="V93" s="6"/>
       <c r="W93" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X93" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y93" s="7" t="n">
         <v>45517</v>
@@ -6830,20 +6838,20 @@
         <v>300</v>
       </c>
       <c r="T94" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="U94" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V94" s="6"/>
       <c r="W94" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X94" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y94" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="95">
@@ -6899,10 +6907,10 @@
       </c>
       <c r="V95" s="6"/>
       <c r="W95" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X95" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y95" s="7" t="n">
         <v>45257</v>
@@ -6961,10 +6969,10 @@
       </c>
       <c r="V96" s="6"/>
       <c r="W96" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X96" s="7" t="n">
-        <v>45547</v>
+        <v>45621</v>
       </c>
       <c r="Y96" s="7" t="n">
         <v>45517</v>

--- a/output/ScriptResults/Database_Thresholds.xlsx
+++ b/output/ScriptResults/Database_Thresholds.xlsx
@@ -12,16 +12,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Thresholds in Database'!$A$7:$Q$96</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
   <si>
     <t>Parameter Units.</t>
   </si>
@@ -999,15 +994,20 @@
   </si>
   <si>
     <t xml:space="preserve">Database_Thresholds.xlsx, Git Commit ID: 00a27356deb3dd3ebc41bb112fe7b3bfe3e44544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Script Run: 2025-01-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database_Thresholds.xlsx, Git Commit ID: 032f19d9261247072830f200ca44e555da81e302</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1111,7 +1111,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3">
@@ -1618,7 +1618,7 @@
         <v>324</v>
       </c>
       <c r="X8" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y8" s="7"/>
     </row>
@@ -1678,7 +1678,7 @@
         <v>324</v>
       </c>
       <c r="X9" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y9" s="7" t="n">
         <v>45517</v>
@@ -1720,7 +1720,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O10" t="n">
-        <v>4964.8</v>
+        <v>4926.7</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1728,20 +1728,24 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="S10"/>
-      <c r="T10" s="7"/>
+      <c r="S10" t="s">
+        <v>300</v>
+      </c>
+      <c r="T10" s="7" t="n">
+        <v>45678</v>
+      </c>
       <c r="U10" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="V10" s="6"/>
       <c r="W10" t="s">
         <v>324</v>
       </c>
       <c r="X10" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y10" s="7" t="n">
-        <v>45517</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="11">
@@ -1800,7 +1804,7 @@
         <v>324</v>
       </c>
       <c r="X11" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y11" s="7" t="n">
         <v>45314</v>
@@ -1856,7 +1860,7 @@
         <v>324</v>
       </c>
       <c r="X12" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y12" s="7"/>
     </row>
@@ -1914,7 +1918,7 @@
         <v>324</v>
       </c>
       <c r="X13" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y13" s="7" t="n">
         <v>45517</v>
@@ -1972,7 +1976,7 @@
         <v>324</v>
       </c>
       <c r="X14" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y14" s="7" t="n">
         <v>45517</v>
@@ -2026,7 +2030,7 @@
         <v>324</v>
       </c>
       <c r="X15" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y15" s="7" t="n">
         <v>45517</v>
@@ -2086,7 +2090,7 @@
         <v>324</v>
       </c>
       <c r="X16" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y16" s="7" t="n">
         <v>45517</v>
@@ -2144,7 +2148,7 @@
         <v>324</v>
       </c>
       <c r="X17" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y17" s="7" t="n">
         <v>45517</v>
@@ -2200,7 +2204,7 @@
         <v>324</v>
       </c>
       <c r="X18" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y18" s="7" t="n">
         <v>45257</v>
@@ -2260,7 +2264,7 @@
         <v>324</v>
       </c>
       <c r="X19" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y19" s="7" t="n">
         <v>45517</v>
@@ -2320,7 +2324,7 @@
         <v>324</v>
       </c>
       <c r="X20" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y20" s="7" t="n">
         <v>45517</v>
@@ -2380,7 +2384,7 @@
         <v>324</v>
       </c>
       <c r="X21" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y21" s="7" t="n">
         <v>45517</v>
@@ -2440,7 +2444,7 @@
         <v>324</v>
       </c>
       <c r="X22" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y22" s="7" t="n">
         <v>45517</v>
@@ -2484,7 +2488,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O23" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2492,20 +2496,24 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
-      <c r="S23"/>
-      <c r="T23" s="7"/>
+      <c r="S23" t="s">
+        <v>300</v>
+      </c>
+      <c r="T23" s="7" t="n">
+        <v>45678</v>
+      </c>
       <c r="U23" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="V23" s="6"/>
       <c r="W23" t="s">
         <v>324</v>
       </c>
       <c r="X23" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y23" s="7" t="n">
-        <v>45517</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="24">
@@ -2564,7 +2572,7 @@
         <v>324</v>
       </c>
       <c r="X24" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y24" s="7" t="n">
         <v>45517</v>
@@ -2620,7 +2628,7 @@
         <v>324</v>
       </c>
       <c r="X25" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y25" s="7"/>
     </row>
@@ -2660,7 +2668,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O26" t="n">
-        <v>7103.968</v>
+        <v>7102.448</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2668,20 +2676,24 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="S26"/>
-      <c r="T26" s="7"/>
+      <c r="S26" t="s">
+        <v>300</v>
+      </c>
+      <c r="T26" s="7" t="n">
+        <v>45678</v>
+      </c>
       <c r="U26" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="V26" s="6"/>
       <c r="W26" t="s">
         <v>324</v>
       </c>
       <c r="X26" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y26" s="7" t="n">
-        <v>45517</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="27">
@@ -2736,7 +2748,7 @@
         <v>324</v>
       </c>
       <c r="X27" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y27" s="7" t="n">
         <v>45314</v>
@@ -2800,7 +2812,7 @@
         <v>324</v>
       </c>
       <c r="X28" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y28" s="7" t="n">
         <v>45517</v>
@@ -2864,7 +2876,7 @@
         <v>324</v>
       </c>
       <c r="X29" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y29" s="7" t="n">
         <v>45314</v>
@@ -2928,7 +2940,7 @@
         <v>324</v>
       </c>
       <c r="X30" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y30" s="7" t="n">
         <v>45517</v>
@@ -2992,7 +3004,7 @@
         <v>324</v>
       </c>
       <c r="X31" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y31" s="7" t="n">
         <v>45517</v>
@@ -3050,7 +3062,7 @@
         <v>324</v>
       </c>
       <c r="X32" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y32" s="7" t="n">
         <v>45314</v>
@@ -3096,7 +3108,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O33" t="n">
-        <v>192.165</v>
+        <v>192.14</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3104,20 +3116,24 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="S33"/>
-      <c r="T33" s="7"/>
+      <c r="S33" t="s">
+        <v>300</v>
+      </c>
+      <c r="T33" s="7" t="n">
+        <v>45678</v>
+      </c>
       <c r="U33" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="V33" s="6"/>
       <c r="W33" t="s">
         <v>324</v>
       </c>
       <c r="X33" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y33" s="7" t="n">
-        <v>45517</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="34">
@@ -3178,7 +3194,7 @@
         <v>324</v>
       </c>
       <c r="X34" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y34" s="7" t="n">
         <v>45314</v>
@@ -3242,7 +3258,7 @@
         <v>324</v>
       </c>
       <c r="X35" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y35" s="7" t="n">
         <v>45517</v>
@@ -3306,7 +3322,7 @@
         <v>324</v>
       </c>
       <c r="X36" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y36" s="7" t="n">
         <v>45517</v>
@@ -3364,7 +3380,7 @@
         <v>324</v>
       </c>
       <c r="X37" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y37" s="7" t="n">
         <v>45314</v>
@@ -3428,7 +3444,7 @@
         <v>324</v>
       </c>
       <c r="X38" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y38" s="7" t="n">
         <v>45517</v>
@@ -3492,7 +3508,7 @@
         <v>324</v>
       </c>
       <c r="X39" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y39" s="7" t="n">
         <v>45314</v>
@@ -3556,7 +3572,7 @@
         <v>324</v>
       </c>
       <c r="X40" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y40" s="7" t="n">
         <v>45517</v>
@@ -3620,7 +3636,7 @@
         <v>324</v>
       </c>
       <c r="X41" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y41" s="7" t="n">
         <v>45517</v>
@@ -3662,7 +3678,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O42" t="n">
-        <v>16054.4</v>
+        <v>16052</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -3670,20 +3686,24 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="S42"/>
-      <c r="T42" s="7"/>
+      <c r="S42" t="s">
+        <v>300</v>
+      </c>
+      <c r="T42" s="7" t="n">
+        <v>45678</v>
+      </c>
       <c r="U42" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="V42" s="6"/>
       <c r="W42" t="s">
         <v>324</v>
       </c>
       <c r="X42" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y42" s="7" t="n">
-        <v>45517</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="43">
@@ -3740,7 +3760,7 @@
         <v>324</v>
       </c>
       <c r="X43" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y43" s="7" t="n">
         <v>45517</v>
@@ -3800,7 +3820,7 @@
         <v>324</v>
       </c>
       <c r="X44" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y44" s="7" t="n">
         <v>45517</v>
@@ -3862,7 +3882,7 @@
         <v>324</v>
       </c>
       <c r="X45" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y45" s="7" t="n">
         <v>45517</v>
@@ -3924,7 +3944,7 @@
         <v>324</v>
       </c>
       <c r="X46" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y46" s="7"/>
     </row>
@@ -3984,7 +4004,7 @@
         <v>324</v>
       </c>
       <c r="X47" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y47" s="7" t="n">
         <v>45517</v>
@@ -4046,7 +4066,7 @@
         <v>324</v>
       </c>
       <c r="X48" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y48" s="7" t="n">
         <v>45517</v>
@@ -4108,7 +4128,7 @@
         <v>324</v>
       </c>
       <c r="X49" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y49" s="7" t="n">
         <v>45314</v>
@@ -4164,7 +4184,7 @@
         <v>324</v>
       </c>
       <c r="X50" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y50" s="7"/>
     </row>
@@ -4218,7 +4238,7 @@
         <v>324</v>
       </c>
       <c r="X51" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y51" s="7" t="n">
         <v>45517</v>
@@ -4276,7 +4296,7 @@
         <v>324</v>
       </c>
       <c r="X52" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y52" s="7" t="n">
         <v>45517</v>
@@ -4338,7 +4358,7 @@
         <v>324</v>
       </c>
       <c r="X53" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y53" s="7" t="n">
         <v>45517</v>
@@ -4400,7 +4420,7 @@
         <v>324</v>
       </c>
       <c r="X54" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y54" s="7" t="n">
         <v>45517</v>
@@ -4462,7 +4482,7 @@
         <v>324</v>
       </c>
       <c r="X55" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y55" s="7" t="n">
         <v>45517</v>
@@ -4526,7 +4546,7 @@
         <v>324</v>
       </c>
       <c r="X56" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y56" s="7" t="n">
         <v>45517</v>
@@ -4584,7 +4604,7 @@
         <v>324</v>
       </c>
       <c r="X57" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y57" s="7" t="n">
         <v>45517</v>
@@ -4642,7 +4662,7 @@
         <v>324</v>
       </c>
       <c r="X58" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y58" s="7" t="n">
         <v>45314</v>
@@ -4702,7 +4722,7 @@
         <v>324</v>
       </c>
       <c r="X59" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y59" s="7" t="n">
         <v>45517</v>
@@ -4758,7 +4778,7 @@
         <v>324</v>
       </c>
       <c r="X60" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y60" s="7"/>
     </row>
@@ -4814,7 +4834,7 @@
         <v>324</v>
       </c>
       <c r="X61" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y61" s="7" t="n">
         <v>45517</v>
@@ -4870,7 +4890,7 @@
         <v>324</v>
       </c>
       <c r="X62" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y62" s="7"/>
     </row>
@@ -4928,7 +4948,7 @@
         <v>324</v>
       </c>
       <c r="X63" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y63" s="7" t="n">
         <v>45517</v>
@@ -4984,7 +5004,7 @@
         <v>324</v>
       </c>
       <c r="X64" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y64" s="7"/>
     </row>
@@ -5038,7 +5058,7 @@
         <v>324</v>
       </c>
       <c r="X65" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y65" s="7"/>
     </row>
@@ -5094,7 +5114,7 @@
         <v>324</v>
       </c>
       <c r="X66" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y66" s="7" t="n">
         <v>45517</v>
@@ -5131,10 +5151,10 @@
       <c r="L67"/>
       <c r="M67"/>
       <c r="N67" t="n">
-        <v>-0.0231</v>
+        <v>-0.0228</v>
       </c>
       <c r="O67" t="n">
-        <v>5.0979</v>
+        <v>5.053</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -5146,20 +5166,20 @@
         <v>300</v>
       </c>
       <c r="T67" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="U67" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V67" s="6"/>
       <c r="W67" t="s">
         <v>324</v>
       </c>
       <c r="X67" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y67" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="68">
@@ -5196,7 +5216,7 @@
         <v>-0.002</v>
       </c>
       <c r="O68" t="n">
-        <v>2.837179</v>
+        <v>2.829964</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -5208,20 +5228,20 @@
         <v>300</v>
       </c>
       <c r="T68" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="U68" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V68" s="6"/>
       <c r="W68" t="s">
         <v>324</v>
       </c>
       <c r="X68" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y68" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="69">
@@ -5266,12 +5286,8 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
-      <c r="S69" t="s">
-        <v>300</v>
-      </c>
-      <c r="T69" s="7" t="n">
-        <v>45621</v>
-      </c>
+      <c r="S69"/>
+      <c r="T69" s="7"/>
       <c r="U69" t="s">
         <v>325</v>
       </c>
@@ -5280,7 +5296,7 @@
         <v>324</v>
       </c>
       <c r="X69" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y69" s="7" t="n">
         <v>45621</v>
@@ -5328,12 +5344,8 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
-      <c r="S70" t="s">
-        <v>300</v>
-      </c>
-      <c r="T70" s="7" t="n">
-        <v>45621</v>
-      </c>
+      <c r="S70"/>
+      <c r="T70" s="7"/>
       <c r="U70" t="s">
         <v>325</v>
       </c>
@@ -5342,7 +5354,7 @@
         <v>324</v>
       </c>
       <c r="X70" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y70" s="7" t="n">
         <v>45621</v>
@@ -5400,7 +5412,7 @@
         <v>324</v>
       </c>
       <c r="X71" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y71" s="7"/>
     </row>
@@ -5456,7 +5468,7 @@
         <v>324</v>
       </c>
       <c r="X72" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y72" s="7" t="n">
         <v>45517</v>
@@ -5496,7 +5508,7 @@
         <v>0.0001</v>
       </c>
       <c r="O73" t="n">
-        <v>4.81323</v>
+        <v>4.75</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -5508,20 +5520,20 @@
         <v>300</v>
       </c>
       <c r="T73" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="U73" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V73" s="6"/>
       <c r="W73" t="s">
         <v>324</v>
       </c>
       <c r="X73" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y73" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="74">
@@ -5558,7 +5570,7 @@
         <v>0.00007</v>
       </c>
       <c r="O74" t="n">
-        <v>4.12935</v>
+        <v>4.12</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -5570,20 +5582,20 @@
         <v>300</v>
       </c>
       <c r="T74" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="U74" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V74" s="6"/>
       <c r="W74" t="s">
         <v>324</v>
       </c>
       <c r="X74" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y74" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="75">
@@ -5620,7 +5632,7 @@
         <v>0.00006</v>
       </c>
       <c r="O75" t="n">
-        <v>2.77562</v>
+        <v>2.77</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -5632,10 +5644,10 @@
         <v>300</v>
       </c>
       <c r="T75" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="U75" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V75" s="6" t="s">
         <v>320</v>
@@ -5644,10 +5656,10 @@
         <v>324</v>
       </c>
       <c r="X75" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y75" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="76">
@@ -5684,7 +5696,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O76" t="n">
-        <v>0.73</v>
+        <v>0.729325</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -5696,20 +5708,20 @@
         <v>300</v>
       </c>
       <c r="T76" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="U76" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V76" s="6"/>
       <c r="W76" t="s">
         <v>324</v>
       </c>
       <c r="X76" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y76" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="77">
@@ -5754,12 +5766,8 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="S77" t="s">
-        <v>300</v>
-      </c>
-      <c r="T77" s="7" t="n">
-        <v>45621</v>
-      </c>
+      <c r="S77"/>
+      <c r="T77" s="7"/>
       <c r="U77" t="s">
         <v>325</v>
       </c>
@@ -5768,7 +5776,7 @@
         <v>324</v>
       </c>
       <c r="X77" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y77" s="7" t="n">
         <v>45621</v>
@@ -5808,7 +5816,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O78" t="n">
-        <v>111.0856</v>
+        <v>111.0071</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -5820,20 +5828,20 @@
         <v>300</v>
       </c>
       <c r="T78" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="U78" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V78" s="6"/>
       <c r="W78" t="s">
         <v>324</v>
       </c>
       <c r="X78" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y78" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="79">
@@ -5870,7 +5878,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O79" t="n">
-        <v>699.3698</v>
+        <v>698.0772</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -5882,20 +5890,20 @@
         <v>300</v>
       </c>
       <c r="T79" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="U79" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V79" s="6"/>
       <c r="W79" t="s">
         <v>324</v>
       </c>
       <c r="X79" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y79" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="80">
@@ -5946,7 +5954,7 @@
         <v>324</v>
       </c>
       <c r="X80" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y80" s="7"/>
     </row>
@@ -6002,7 +6010,7 @@
         <v>324</v>
       </c>
       <c r="X81" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y81" s="7" t="n">
         <v>45517</v>
@@ -6050,7 +6058,7 @@
         <v>0.1</v>
       </c>
       <c r="O82" t="n">
-        <v>19</v>
+        <v>18.95607</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -6062,20 +6070,20 @@
         <v>300</v>
       </c>
       <c r="T82" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="U82" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V82" s="6"/>
       <c r="W82" t="s">
         <v>324</v>
       </c>
       <c r="X82" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y82" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="83">
@@ -6112,7 +6120,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O83" t="n">
-        <v>177</v>
+        <v>175.637</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -6124,20 +6132,20 @@
         <v>300</v>
       </c>
       <c r="T83" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="U83" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V83" s="6"/>
       <c r="W83" t="s">
         <v>324</v>
       </c>
       <c r="X83" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y83" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="84">
@@ -6178,7 +6186,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O84" t="n">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -6190,20 +6198,20 @@
         <v>300</v>
       </c>
       <c r="T84" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="U84" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V84" s="6"/>
       <c r="W84" t="s">
         <v>324</v>
       </c>
       <c r="X84" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y84" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="85">
@@ -6240,7 +6248,7 @@
         <v>-0.000001</v>
       </c>
       <c r="O85" t="n">
-        <v>126</v>
+        <v>125.973085</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -6252,20 +6260,20 @@
         <v>300</v>
       </c>
       <c r="T85" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="U85" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V85" s="6"/>
       <c r="W85" t="s">
         <v>324</v>
       </c>
       <c r="X85" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y85" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="86">
@@ -6324,7 +6332,7 @@
         <v>324</v>
       </c>
       <c r="X86" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y86" s="7" t="n">
         <v>45257</v>
@@ -6365,7 +6373,7 @@
       <c r="L87"/>
       <c r="M87"/>
       <c r="N87" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="O87" t="n">
         <v>14</v>
@@ -6380,20 +6388,20 @@
         <v>300</v>
       </c>
       <c r="T87" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="U87" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V87" s="6"/>
       <c r="W87" t="s">
         <v>324</v>
       </c>
       <c r="X87" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y87" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="88">
@@ -6434,7 +6442,7 @@
         <v>1.6</v>
       </c>
       <c r="O88" t="n">
-        <v>170.52318</v>
+        <v>171.9</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -6446,20 +6454,20 @@
         <v>300</v>
       </c>
       <c r="T88" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="U88" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V88" s="6"/>
       <c r="W88" t="s">
         <v>324</v>
       </c>
       <c r="X88" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y88" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="89">
@@ -6497,10 +6505,10 @@
       <c r="L89"/>
       <c r="M89"/>
       <c r="N89" t="n">
-        <v>0.342931</v>
+        <v>0.321591</v>
       </c>
       <c r="O89" t="n">
-        <v>174.98932</v>
+        <v>175</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -6512,20 +6520,20 @@
         <v>300</v>
       </c>
       <c r="T89" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="U89" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V89" s="6"/>
       <c r="W89" t="s">
         <v>324</v>
       </c>
       <c r="X89" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y89" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="90">
@@ -6584,7 +6592,7 @@
         <v>324</v>
       </c>
       <c r="X90" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y90" s="7" t="n">
         <v>45517</v>
@@ -6638,12 +6646,8 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
-      <c r="S91" t="s">
-        <v>300</v>
-      </c>
-      <c r="T91" s="7" t="n">
-        <v>45621</v>
-      </c>
+      <c r="S91"/>
+      <c r="T91" s="7"/>
       <c r="U91" t="s">
         <v>325</v>
       </c>
@@ -6652,7 +6656,7 @@
         <v>324</v>
       </c>
       <c r="X91" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y91" s="7" t="n">
         <v>45621</v>
@@ -6698,7 +6702,7 @@
         <v>0.0054</v>
       </c>
       <c r="O92" t="n">
-        <v>60.71</v>
+        <v>60.699412</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
@@ -6710,20 +6714,20 @@
         <v>300</v>
       </c>
       <c r="T92" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="U92" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V92" s="6"/>
       <c r="W92" t="s">
         <v>324</v>
       </c>
       <c r="X92" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y92" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
     </row>
     <row r="93">
@@ -6782,7 +6786,7 @@
         <v>324</v>
       </c>
       <c r="X93" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y93" s="7" t="n">
         <v>45517</v>
@@ -6834,12 +6838,8 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
-      <c r="S94" t="s">
-        <v>300</v>
-      </c>
-      <c r="T94" s="7" t="n">
-        <v>45621</v>
-      </c>
+      <c r="S94"/>
+      <c r="T94" s="7"/>
       <c r="U94" t="s">
         <v>325</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>324</v>
       </c>
       <c r="X94" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y94" s="7" t="n">
         <v>45621</v>
@@ -6910,7 +6910,7 @@
         <v>324</v>
       </c>
       <c r="X95" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y95" s="7" t="n">
         <v>45257</v>
@@ -6972,7 +6972,7 @@
         <v>324</v>
       </c>
       <c r="X96" s="7" t="n">
-        <v>45621</v>
+        <v>45678</v>
       </c>
       <c r="Y96" s="7" t="n">
         <v>45517</v>

--- a/output/ScriptResults/Database_Thresholds.xlsx
+++ b/output/ScriptResults/Database_Thresholds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
   <si>
     <t>Parameter Units.</t>
   </si>
@@ -1002,10 +1002,13 @@
     <t xml:space="preserve">Database_Thresholds.xlsx, Git Commit ID: 032f19d9261247072830f200ca44e555da81e302</t>
   </si>
   <si>
-    <t xml:space="preserve">Script Run: 2025-03-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database_Thresholds.xlsx, Git Commit ID: 7a4aaba184df5b9d26f436966d25f0d63fbeec5e</t>
+    <t xml:space="preserve">Script Run: 2025-04-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ_Report_Render.R, Git Commit ID: 87a1b1e0ff098c4d05f8cb319db916f292d7d8d0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database_Thresholds.xlsx, Git Commit ID: 87a1b1e0ff098c4d05f8cb319db916f292d7d8d0</t>
   </si>
 </sst>
 </file>
@@ -1621,10 +1624,10 @@
         <v>298</v>
       </c>
       <c r="W8" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X8" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y8" s="7"/>
     </row>
@@ -1681,10 +1684,10 @@
       </c>
       <c r="V9" s="6"/>
       <c r="W9" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X9" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y9" s="7" t="n">
         <v>45517</v>
@@ -1741,10 +1744,10 @@
       </c>
       <c r="V10" s="6"/>
       <c r="W10" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X10" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y10" s="7" t="n">
         <v>45678</v>
@@ -1803,10 +1806,10 @@
       </c>
       <c r="V11" s="6"/>
       <c r="W11" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X11" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y11" s="7" t="n">
         <v>45314</v>
@@ -1859,10 +1862,10 @@
         <v>303</v>
       </c>
       <c r="W12" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X12" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y12" s="7"/>
     </row>
@@ -1914,20 +1917,20 @@
         <v>300</v>
       </c>
       <c r="T13" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V13" s="6"/>
       <c r="W13" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X13" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y13" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="14">
@@ -1979,10 +1982,10 @@
       </c>
       <c r="V14" s="6"/>
       <c r="W14" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X14" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y14" s="7" t="n">
         <v>45517</v>
@@ -2033,10 +2036,10 @@
         <v>304</v>
       </c>
       <c r="W15" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X15" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y15" s="7" t="n">
         <v>45517</v>
@@ -2093,10 +2096,10 @@
       </c>
       <c r="V16" s="6"/>
       <c r="W16" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X16" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y16" s="7" t="n">
         <v>45517</v>
@@ -2151,10 +2154,10 @@
         <v>304</v>
       </c>
       <c r="W17" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X17" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y17" s="7" t="n">
         <v>45517</v>
@@ -2207,10 +2210,10 @@
         <v>306</v>
       </c>
       <c r="W18" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X18" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y18" s="7" t="n">
         <v>45257</v>
@@ -2267,10 +2270,10 @@
       </c>
       <c r="V19" s="6"/>
       <c r="W19" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X19" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y19" s="7" t="n">
         <v>45517</v>
@@ -2327,10 +2330,10 @@
       </c>
       <c r="V20" s="6"/>
       <c r="W20" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X20" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y20" s="7" t="n">
         <v>45517</v>
@@ -2387,10 +2390,10 @@
       </c>
       <c r="V21" s="6"/>
       <c r="W21" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X21" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y21" s="7" t="n">
         <v>45517</v>
@@ -2447,10 +2450,10 @@
       </c>
       <c r="V22" s="6"/>
       <c r="W22" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X22" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y22" s="7" t="n">
         <v>45517</v>
@@ -2506,20 +2509,20 @@
         <v>300</v>
       </c>
       <c r="T23" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U23" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V23" s="6"/>
       <c r="W23" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X23" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y23" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="24">
@@ -2575,10 +2578,10 @@
       </c>
       <c r="V24" s="6"/>
       <c r="W24" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X24" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y24" s="7" t="n">
         <v>45517</v>
@@ -2631,10 +2634,10 @@
         <v>307</v>
       </c>
       <c r="W25" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X25" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y25" s="7"/>
     </row>
@@ -2686,20 +2689,20 @@
         <v>300</v>
       </c>
       <c r="T26" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V26" s="6"/>
       <c r="W26" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X26" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y26" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="27">
@@ -2751,10 +2754,10 @@
       </c>
       <c r="V27" s="6"/>
       <c r="W27" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X27" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y27" s="7" t="n">
         <v>45314</v>
@@ -2812,20 +2815,20 @@
         <v>300</v>
       </c>
       <c r="T28" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V28" s="6"/>
       <c r="W28" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X28" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y28" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="29">
@@ -2883,10 +2886,10 @@
       </c>
       <c r="V29" s="6"/>
       <c r="W29" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X29" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y29" s="7" t="n">
         <v>45314</v>
@@ -2947,10 +2950,10 @@
       </c>
       <c r="V30" s="6"/>
       <c r="W30" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X30" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y30" s="7" t="n">
         <v>45517</v>
@@ -3011,10 +3014,10 @@
       </c>
       <c r="V31" s="6"/>
       <c r="W31" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X31" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y31" s="7" t="n">
         <v>45517</v>
@@ -3069,10 +3072,10 @@
       </c>
       <c r="V32" s="6"/>
       <c r="W32" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X32" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y32" s="7" t="n">
         <v>45314</v>
@@ -3130,20 +3133,20 @@
         <v>300</v>
       </c>
       <c r="T33" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U33" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V33" s="6"/>
       <c r="W33" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X33" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y33" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="34">
@@ -3201,10 +3204,10 @@
       </c>
       <c r="V34" s="6"/>
       <c r="W34" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X34" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y34" s="7" t="n">
         <v>45314</v>
@@ -3265,10 +3268,10 @@
       </c>
       <c r="V35" s="6"/>
       <c r="W35" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X35" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y35" s="7" t="n">
         <v>45517</v>
@@ -3329,10 +3332,10 @@
       </c>
       <c r="V36" s="6"/>
       <c r="W36" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X36" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y36" s="7" t="n">
         <v>45517</v>
@@ -3387,10 +3390,10 @@
       </c>
       <c r="V37" s="6"/>
       <c r="W37" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X37" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y37" s="7" t="n">
         <v>45314</v>
@@ -3448,20 +3451,20 @@
         <v>300</v>
       </c>
       <c r="T38" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U38" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V38" s="6"/>
       <c r="W38" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X38" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y38" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="39">
@@ -3519,10 +3522,10 @@
       </c>
       <c r="V39" s="6"/>
       <c r="W39" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X39" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y39" s="7" t="n">
         <v>45314</v>
@@ -3583,10 +3586,10 @@
       </c>
       <c r="V40" s="6"/>
       <c r="W40" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X40" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y40" s="7" t="n">
         <v>45517</v>
@@ -3647,10 +3650,10 @@
       </c>
       <c r="V41" s="6"/>
       <c r="W41" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X41" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y41" s="7" t="n">
         <v>45517</v>
@@ -3707,10 +3710,10 @@
       </c>
       <c r="V42" s="6"/>
       <c r="W42" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X42" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y42" s="7" t="n">
         <v>45678</v>
@@ -3767,10 +3770,10 @@
       </c>
       <c r="V43" s="6"/>
       <c r="W43" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X43" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y43" s="7" t="n">
         <v>45517</v>
@@ -3827,10 +3830,10 @@
       </c>
       <c r="V44" s="6"/>
       <c r="W44" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X44" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y44" s="7" t="n">
         <v>45517</v>
@@ -3874,7 +3877,7 @@
         <v>1.7</v>
       </c>
       <c r="O45" t="n">
-        <v>128.0972</v>
+        <v>126.4</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -3882,24 +3885,20 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="S45" t="s">
-        <v>300</v>
-      </c>
-      <c r="T45" s="7" t="n">
-        <v>45735</v>
-      </c>
+      <c r="S45"/>
+      <c r="T45" s="7"/>
       <c r="U45" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="V45" s="6"/>
       <c r="W45" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X45" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y45" s="7" t="n">
-        <v>45735</v>
+        <v>45517</v>
       </c>
     </row>
     <row r="46">
@@ -3955,10 +3954,10 @@
       </c>
       <c r="V46" s="6"/>
       <c r="W46" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X46" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y46" s="7"/>
     </row>
@@ -4015,10 +4014,10 @@
       </c>
       <c r="V47" s="6"/>
       <c r="W47" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X47" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y47" s="7" t="n">
         <v>45517</v>
@@ -4077,10 +4076,10 @@
       </c>
       <c r="V48" s="6"/>
       <c r="W48" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X48" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y48" s="7" t="n">
         <v>45517</v>
@@ -4139,10 +4138,10 @@
       </c>
       <c r="V49" s="6"/>
       <c r="W49" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X49" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y49" s="7" t="n">
         <v>45314</v>
@@ -4195,10 +4194,10 @@
         <v>309</v>
       </c>
       <c r="W50" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X50" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y50" s="7"/>
     </row>
@@ -4249,10 +4248,10 @@
         <v>310</v>
       </c>
       <c r="W51" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X51" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y51" s="7" t="n">
         <v>45517</v>
@@ -4307,10 +4306,10 @@
         <v>311</v>
       </c>
       <c r="W52" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X52" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y52" s="7" t="n">
         <v>45517</v>
@@ -4369,10 +4368,10 @@
       </c>
       <c r="V53" s="6"/>
       <c r="W53" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X53" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y53" s="7" t="n">
         <v>45517</v>
@@ -4431,10 +4430,10 @@
         <v>312</v>
       </c>
       <c r="W54" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X54" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y54" s="7" t="n">
         <v>45517</v>
@@ -4493,10 +4492,10 @@
       </c>
       <c r="V55" s="6"/>
       <c r="W55" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X55" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y55" s="7" t="n">
         <v>45517</v>
@@ -4557,10 +4556,10 @@
         <v>312</v>
       </c>
       <c r="W56" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X56" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y56" s="7" t="n">
         <v>45517</v>
@@ -4615,10 +4614,10 @@
         <v>313</v>
       </c>
       <c r="W57" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X57" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y57" s="7" t="n">
         <v>45517</v>
@@ -4673,10 +4672,10 @@
         <v>314</v>
       </c>
       <c r="W58" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X58" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y58" s="7" t="n">
         <v>45314</v>
@@ -4730,20 +4729,20 @@
         <v>300</v>
       </c>
       <c r="T59" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U59" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V59" s="6"/>
       <c r="W59" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X59" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y59" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="60">
@@ -4793,10 +4792,10 @@
         <v>315</v>
       </c>
       <c r="W60" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X60" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y60" s="7"/>
     </row>
@@ -4849,10 +4848,10 @@
         <v>316</v>
       </c>
       <c r="W61" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X61" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y61" s="7" t="n">
         <v>45517</v>
@@ -4905,10 +4904,10 @@
         <v>317</v>
       </c>
       <c r="W62" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X62" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y62" s="7"/>
     </row>
@@ -4963,10 +4962,10 @@
       </c>
       <c r="V63" s="6"/>
       <c r="W63" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X63" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y63" s="7" t="n">
         <v>45517</v>
@@ -5019,10 +5018,10 @@
         <v>318</v>
       </c>
       <c r="W64" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X64" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y64" s="7"/>
     </row>
@@ -5073,10 +5072,10 @@
         <v>319</v>
       </c>
       <c r="W65" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X65" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y65" s="7"/>
     </row>
@@ -5129,10 +5128,10 @@
       </c>
       <c r="V66" s="6"/>
       <c r="W66" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X66" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y66" s="7" t="n">
         <v>45517</v>
@@ -5184,20 +5183,20 @@
         <v>300</v>
       </c>
       <c r="T67" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U67" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V67" s="6"/>
       <c r="W67" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X67" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y67" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="68">
@@ -5246,20 +5245,20 @@
         <v>300</v>
       </c>
       <c r="T68" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U68" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V68" s="6"/>
       <c r="W68" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X68" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y68" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="69">
@@ -5311,10 +5310,10 @@
       </c>
       <c r="V69" s="6"/>
       <c r="W69" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X69" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y69" s="7" t="n">
         <v>45621</v>
@@ -5369,10 +5368,10 @@
       </c>
       <c r="V70" s="6"/>
       <c r="W70" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X70" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y70" s="7" t="n">
         <v>45621</v>
@@ -5427,10 +5426,10 @@
       </c>
       <c r="V71" s="6"/>
       <c r="W71" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X71" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y71" s="7"/>
     </row>
@@ -5480,20 +5479,20 @@
         <v>300</v>
       </c>
       <c r="T72" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U72" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V72" s="6"/>
       <c r="W72" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X72" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y72" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="73">
@@ -5542,20 +5541,20 @@
         <v>300</v>
       </c>
       <c r="T73" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U73" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V73" s="6"/>
       <c r="W73" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X73" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y73" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="74">
@@ -5607,10 +5606,10 @@
       </c>
       <c r="V74" s="6"/>
       <c r="W74" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X74" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y74" s="7" t="n">
         <v>45678</v>
@@ -5667,10 +5666,10 @@
         <v>320</v>
       </c>
       <c r="W75" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X75" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y75" s="7" t="n">
         <v>45678</v>
@@ -5722,20 +5721,20 @@
         <v>300</v>
       </c>
       <c r="T76" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U76" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V76" s="6"/>
       <c r="W76" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X76" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y76" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="77">
@@ -5784,20 +5783,20 @@
         <v>300</v>
       </c>
       <c r="T77" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U77" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V77" s="6"/>
       <c r="W77" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X77" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y77" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="78">
@@ -5846,20 +5845,20 @@
         <v>300</v>
       </c>
       <c r="T78" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U78" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V78" s="6"/>
       <c r="W78" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X78" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y78" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="79">
@@ -5908,20 +5907,20 @@
         <v>300</v>
       </c>
       <c r="T79" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U79" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V79" s="6"/>
       <c r="W79" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X79" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y79" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="80">
@@ -5969,10 +5968,10 @@
         <v>321</v>
       </c>
       <c r="W80" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X80" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y80" s="7"/>
     </row>
@@ -6022,20 +6021,20 @@
         <v>300</v>
       </c>
       <c r="T81" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U81" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V81" s="6"/>
       <c r="W81" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X81" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y81" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="82">
@@ -6092,20 +6091,20 @@
         <v>300</v>
       </c>
       <c r="T82" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U82" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V82" s="6"/>
       <c r="W82" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X82" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y82" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="83">
@@ -6154,20 +6153,20 @@
         <v>300</v>
       </c>
       <c r="T83" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U83" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V83" s="6"/>
       <c r="W83" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X83" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y83" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="84">
@@ -6220,20 +6219,20 @@
         <v>300</v>
       </c>
       <c r="T84" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U84" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V84" s="6"/>
       <c r="W84" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X84" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y84" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="85">
@@ -6282,20 +6281,20 @@
         <v>300</v>
       </c>
       <c r="T85" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U85" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V85" s="6"/>
       <c r="W85" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X85" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y85" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="86">
@@ -6348,20 +6347,20 @@
         <v>300</v>
       </c>
       <c r="T86" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U86" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V86" s="6"/>
       <c r="W86" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X86" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y86" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="87">
@@ -6417,10 +6416,10 @@
       </c>
       <c r="V87" s="6"/>
       <c r="W87" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X87" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y87" s="7" t="n">
         <v>45678</v>
@@ -6476,20 +6475,20 @@
         <v>300</v>
       </c>
       <c r="T88" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U88" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V88" s="6"/>
       <c r="W88" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X88" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y88" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="89">
@@ -6542,20 +6541,20 @@
         <v>300</v>
       </c>
       <c r="T89" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V89" s="6"/>
       <c r="W89" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X89" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y89" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="90">
@@ -6611,10 +6610,10 @@
       </c>
       <c r="V90" s="6"/>
       <c r="W90" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X90" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y90" s="7" t="n">
         <v>45517</v>
@@ -6672,20 +6671,20 @@
         <v>300</v>
       </c>
       <c r="T91" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U91" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V91" s="6"/>
       <c r="W91" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X91" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y91" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="92">
@@ -6740,20 +6739,20 @@
         <v>300</v>
       </c>
       <c r="T92" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U92" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V92" s="6"/>
       <c r="W92" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X92" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y92" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="93">
@@ -6806,20 +6805,20 @@
         <v>300</v>
       </c>
       <c r="T93" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="U93" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V93" s="6"/>
       <c r="W93" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X93" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y93" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="94">
@@ -6875,10 +6874,10 @@
       </c>
       <c r="V94" s="6"/>
       <c r="W94" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X94" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y94" s="7" t="n">
         <v>45621</v>
@@ -6937,10 +6936,10 @@
       </c>
       <c r="V95" s="6"/>
       <c r="W95" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X95" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y95" s="7" t="n">
         <v>45257</v>
@@ -6999,10 +6998,10 @@
       </c>
       <c r="V96" s="6"/>
       <c r="W96" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="X96" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="Y96" s="7" t="n">
         <v>45517</v>
